--- a/data_exports/data_export.xlsx
+++ b/data_exports/data_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS19"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,81 +576,6 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>V_bus_9</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P_bus_9</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Q_bus_9</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>V_bus_10</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>P_bus_10</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Q_bus_10</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>V_bus_11</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>P_bus_11</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Q_bus_11</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>V_bus_12</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P_bus_12</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Q_bus_12</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>V_bus_13</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>P_bus_13</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Q_bus_13</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
           <t>label</t>
         </is>
       </c>
@@ -663,132 +588,87 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.059986812736818</v>
+        <v>1.000038564081079</v>
       </c>
       <c r="D2" t="n">
-        <v>-233.0730058438701</v>
+        <v>-69.09627281914663</v>
       </c>
       <c r="E2" t="n">
-        <v>16.64786969869238</v>
+        <v>-23.98045147767853</v>
       </c>
       <c r="F2" t="n">
-        <v>1.044933852215801</v>
+        <v>0.9999230764152137</v>
       </c>
       <c r="G2" t="n">
-        <v>-18.23828293262098</v>
+        <v>-163.0028934460019</v>
       </c>
       <c r="H2" t="n">
-        <v>-31.04254475365077</v>
+        <v>-14.379090097176</v>
       </c>
       <c r="I2" t="n">
-        <v>1.00986704611243</v>
+        <v>1.000242356910262</v>
       </c>
       <c r="J2" t="n">
-        <v>94.41219924314412</v>
+        <v>-85.0032924554021</v>
       </c>
       <c r="K2" t="n">
-        <v>-6.200323841273365</v>
+        <v>3.734521561769668</v>
       </c>
       <c r="L2" t="n">
-        <v>1.017679954072097</v>
+        <v>0.9870692944703056</v>
       </c>
       <c r="M2" t="n">
-        <v>47.91023203331126</v>
+        <v>0.0003115409993415549</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.900470065070784</v>
+        <v>0.004958797251264075</v>
       </c>
       <c r="O2" t="n">
-        <v>1.019490442911368</v>
+        <v>0.9755873661421121</v>
       </c>
       <c r="P2" t="n">
-        <v>7.619847976143787</v>
+        <v>89.17691551908324</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.592128951639264</v>
+        <v>30.01411367864828</v>
       </c>
       <c r="R2" t="n">
-        <v>1.070034522300735</v>
+        <v>1.003438210616665</v>
       </c>
       <c r="S2" t="n">
-        <v>11.22748912318302</v>
+        <v>0.005648088323132672</v>
       </c>
       <c r="T2" t="n">
-        <v>-5.242526619538909</v>
+        <v>-0.003749657840966365</v>
       </c>
       <c r="U2" t="n">
-        <v>1.061461877248586</v>
+        <v>0.9858100012900275</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.005868162623594252</v>
+        <v>99.08754924900396</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0007752579142255388</v>
+        <v>35.01677171477613</v>
       </c>
       <c r="X2" t="n">
-        <v>1.089994241048448</v>
+        <v>0.9961532559552843</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002345239753919635</v>
+        <v>-0.002493608404919069</v>
       </c>
       <c r="Z2" t="n">
-        <v>-17.62736452609637</v>
+        <v>0.008935218233878148</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.05597165614741</v>
+        <v>0.9577317185416521</v>
       </c>
       <c r="AB2" t="n">
-        <v>29.57231661549926</v>
+        <v>123.8627620484512</v>
       </c>
       <c r="AC2" t="n">
-        <v>-4.614013089178192</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1.050889597908043</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>9.01813796896508</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>5.795782801504451</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1.056952648976643</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>3.507512979455144</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1.790623915936901</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.055179986914137</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>6.114740615045896</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.60605352618447</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1.050239554940199</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>13.52566578788502</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>5.79070730079158</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>1.035436861413416</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>14.9345012494639</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>4.993234433684417</v>
-      </c>
-      <c r="AS2" t="inlineStr">
+        <v>50.02531088800657</v>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -802,132 +682,87 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.060038954615911</v>
+        <v>0.9999371115121025</v>
       </c>
       <c r="D3" t="n">
-        <v>-233.762786854166</v>
+        <v>-66.2775465614135</v>
       </c>
       <c r="E3" t="n">
-        <v>16.7542818494424</v>
+        <v>-23.92203709203077</v>
       </c>
       <c r="F3" t="n">
-        <v>1.045111820791447</v>
+        <v>0.9999086286636254</v>
       </c>
       <c r="G3" t="n">
-        <v>-18.19984286208237</v>
+        <v>-162.9963314637316</v>
       </c>
       <c r="H3" t="n">
-        <v>-31.22871529381717</v>
+        <v>-14.30346660181725</v>
       </c>
       <c r="I3" t="n">
-        <v>1.010157515206981</v>
+        <v>0.9998014794985107</v>
       </c>
       <c r="J3" t="n">
-        <v>94.63941782080771</v>
+        <v>-85.01120335831661</v>
       </c>
       <c r="K3" t="n">
-        <v>-6.327868652986294</v>
+        <v>3.815130680125498</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0174019361735</v>
+        <v>0.9868272146993934</v>
       </c>
       <c r="M3" t="n">
-        <v>48.03219603351327</v>
+        <v>-4.955422028058364e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.893582298202079</v>
+        <v>-0.005276378010191389</v>
       </c>
       <c r="O3" t="n">
-        <v>1.019285241856081</v>
+        <v>0.9755229596246626</v>
       </c>
       <c r="P3" t="n">
-        <v>7.637419197345356</v>
+        <v>88.37044915125668</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.60190489779176</v>
+        <v>30.01944233361813</v>
       </c>
       <c r="R3" t="n">
-        <v>1.069788255513769</v>
+        <v>1.003450605209451</v>
       </c>
       <c r="S3" t="n">
-        <v>11.25127769799296</v>
+        <v>-0.005346609029586562</v>
       </c>
       <c r="T3" t="n">
-        <v>-5.260812416804707</v>
+        <v>-0.003431742128464234</v>
       </c>
       <c r="U3" t="n">
-        <v>1.061367110708965</v>
+        <v>0.9857962475367704</v>
       </c>
       <c r="V3" t="n">
-        <v>4.474756562696056e-05</v>
+        <v>98.18939107385653</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.007252457057257376</v>
+        <v>35.01710680149218</v>
       </c>
       <c r="X3" t="n">
-        <v>1.089968224852096</v>
+        <v>0.996215758607541</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0064398295734828</v>
+        <v>0.005343517213336394</v>
       </c>
       <c r="Z3" t="n">
-        <v>-17.65061088847551</v>
+        <v>0.008162029391292574</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.055967743952692</v>
+        <v>0.957422912899184</v>
       </c>
       <c r="AB3" t="n">
-        <v>29.63525159564115</v>
+        <v>122.737390481451</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.637977469550993</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.050837613783698</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>9.03888694597925</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5.783754827830019</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.056890015467449</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>3.506708642240453</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1.790108429317909</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.055096549634661</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>6.12972847479563</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1.59570045568749</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1.050516707840808</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>13.56918524934806</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>5.784907008962288</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>1.035388464381332</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>14.96785295018325</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>4.989725567281295</v>
-      </c>
-      <c r="AS3" t="inlineStr">
+        <v>50.03143623778017</v>
+      </c>
+      <c r="AD3" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -941,132 +776,87 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.05999772325124</v>
+        <v>1.000093417536063</v>
       </c>
       <c r="D4" t="n">
-        <v>-236.3618151541207</v>
+        <v>-63.9273283886353</v>
       </c>
       <c r="E4" t="n">
-        <v>17.1440279186524</v>
+        <v>-23.44509115874609</v>
       </c>
       <c r="F4" t="n">
-        <v>1.044945899415178</v>
+        <v>1.000102455551452</v>
       </c>
       <c r="G4" t="n">
-        <v>-17.99789207676797</v>
+        <v>-163.0042528237305</v>
       </c>
       <c r="H4" t="n">
-        <v>-31.9718917308365</v>
+        <v>-13.91392300397375</v>
       </c>
       <c r="I4" t="n">
-        <v>1.01003239264729</v>
+        <v>1.000090387320491</v>
       </c>
       <c r="J4" t="n">
-        <v>95.48840343635729</v>
+        <v>-85.00055229679515</v>
       </c>
       <c r="K4" t="n">
-        <v>-6.793476544423939</v>
+        <v>4.155810381536059</v>
       </c>
       <c r="L4" t="n">
-        <v>1.017196831337272</v>
+        <v>0.9871824211110503</v>
       </c>
       <c r="M4" t="n">
-        <v>48.46237475175138</v>
+        <v>-0.003098341988715985</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.88412938634275</v>
+        <v>0.0003246148032404885</v>
       </c>
       <c r="O4" t="n">
-        <v>1.019338425897052</v>
+        <v>0.9759306945974449</v>
       </c>
       <c r="P4" t="n">
-        <v>7.702638770751902</v>
+        <v>87.68865047274231</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.59200837694892</v>
+        <v>29.79179840427727</v>
       </c>
       <c r="R4" t="n">
-        <v>1.070095917491063</v>
+        <v>1.003736596434583</v>
       </c>
       <c r="S4" t="n">
-        <v>11.355120972253</v>
+        <v>-0.003020011493043393</v>
       </c>
       <c r="T4" t="n">
-        <v>-5.431098946392211</v>
+        <v>-0.0005861588061496563</v>
       </c>
       <c r="U4" t="n">
-        <v>1.061479700417846</v>
+        <v>0.986293454953223</v>
       </c>
       <c r="V4" t="n">
-        <v>0.00397330965704374</v>
+        <v>97.43999945706787</v>
       </c>
       <c r="W4" t="n">
-        <v>0.003211352086540712</v>
+        <v>34.76468563053086</v>
       </c>
       <c r="X4" t="n">
-        <v>1.08992984489143</v>
+        <v>0.9965863150784963</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.001450995667121628</v>
+        <v>-0.003697654535588598</v>
       </c>
       <c r="Z4" t="n">
-        <v>-17.72957892330112</v>
+        <v>0.003509863893655762</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.055821786137138</v>
+        <v>0.9582223803732469</v>
       </c>
       <c r="AB4" t="n">
-        <v>29.91310188396198</v>
+        <v>121.8142170083044</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.646561718365454</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1.050730885181067</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9.12816579770652</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5.777894527189471</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1.056766875287973</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>3.548673197623092</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1.788397197918079</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.0551252164197</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>6.186915701311001</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1.59221056937051</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1.050166078160407</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>13.69245404337339</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5.777825383312991</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>1.035096618782604</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>15.1005844032052</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>4.981344174762919</v>
-      </c>
-      <c r="AS4" t="inlineStr">
+        <v>49.66476250904462</v>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1080,132 +870,87 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>1.05999773444621</v>
+        <v>1.000138039567588</v>
       </c>
       <c r="D5" t="n">
-        <v>-238.2783766244855</v>
+        <v>-61.61114573504645</v>
       </c>
       <c r="E5" t="n">
-        <v>17.42383127430601</v>
+        <v>-23.32936494567983</v>
       </c>
       <c r="F5" t="n">
-        <v>1.045141180138663</v>
+        <v>0.9999889169887928</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.85814703165798</v>
+        <v>-163.0006790338367</v>
       </c>
       <c r="H5" t="n">
-        <v>-32.51956900756652</v>
+        <v>-13.78510101361908</v>
       </c>
       <c r="I5" t="n">
-        <v>1.010195505173838</v>
+        <v>0.9998768498975301</v>
       </c>
       <c r="J5" t="n">
-        <v>96.11728955615887</v>
+        <v>-85.00512566858632</v>
       </c>
       <c r="K5" t="n">
-        <v>-7.148991773023402</v>
+        <v>4.276128596157613</v>
       </c>
       <c r="L5" t="n">
-        <v>1.017076438697944</v>
+        <v>0.9871107588140811</v>
       </c>
       <c r="M5" t="n">
-        <v>48.76925612382151</v>
+        <v>0.001308508289849939</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.904667309389338</v>
+        <v>-0.005230724716653735</v>
       </c>
       <c r="O5" t="n">
-        <v>1.018882224081881</v>
+        <v>0.9761487536379402</v>
       </c>
       <c r="P5" t="n">
-        <v>7.75843648988304</v>
+        <v>87.03420146945315</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.598211817888198</v>
+        <v>29.7411065902382</v>
       </c>
       <c r="R5" t="n">
-        <v>1.070002186293264</v>
+        <v>1.003543395602961</v>
       </c>
       <c r="S5" t="n">
-        <v>11.43020718674755</v>
+        <v>-0.005301425151552725</v>
       </c>
       <c r="T5" t="n">
-        <v>-5.641558136897395</v>
+        <v>-0.01053582788886596</v>
       </c>
       <c r="U5" t="n">
-        <v>1.061099382353745</v>
+        <v>0.9864960351560272</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001272805416049</v>
+        <v>96.71044476688402</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0008224964529907671</v>
+        <v>34.71485358491397</v>
       </c>
       <c r="X5" t="n">
-        <v>1.090056563779408</v>
+        <v>0.9965901893802785</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.0007980260220744627</v>
+        <v>-0.0009486663162992826</v>
       </c>
       <c r="Z5" t="n">
-        <v>-17.82784569872604</v>
+        <v>-0.004586057770851595</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.055650416049147</v>
+        <v>0.958239477864533</v>
       </c>
       <c r="AB5" t="n">
-        <v>30.10045757116321</v>
+        <v>120.8801205818084</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.561111532696382</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1.050698592941508</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>9.189220064308515</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>5.797553252739914</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1.056483108966173</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>3.569426955530097</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1.784604188960711</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1.055001093195159</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>6.224960343730201</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1.600013491513326</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1.050002230484459</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>13.77804552663783</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>5.796043817496241</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1.035017041207778</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>15.20183676554016</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>5.004570459186636</v>
-      </c>
-      <c r="AS5" t="inlineStr">
+        <v>49.58464693983849</v>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1219,132 +964,87 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1.059873344691801</v>
+        <v>0.9997803690743601</v>
       </c>
       <c r="D6" t="n">
-        <v>-238.5820367137533</v>
+        <v>-63.51948368482341</v>
       </c>
       <c r="E6" t="n">
-        <v>17.45987593924141</v>
+        <v>-23.32506753123901</v>
       </c>
       <c r="F6" t="n">
-        <v>1.045050702851333</v>
+        <v>1.000138206723036</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.83375964191623</v>
+        <v>-162.9890821738307</v>
       </c>
       <c r="H6" t="n">
-        <v>-32.63057512595194</v>
+        <v>-13.8195125475794</v>
       </c>
       <c r="I6" t="n">
-        <v>1.010082197443577</v>
+        <v>0.9998719130316861</v>
       </c>
       <c r="J6" t="n">
-        <v>96.21465888336105</v>
+        <v>-84.99883061849702</v>
       </c>
       <c r="K6" t="n">
-        <v>-7.232417265626371</v>
+        <v>4.242378509139764</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01703050924476</v>
+        <v>0.9872941094789999</v>
       </c>
       <c r="M6" t="n">
-        <v>48.82944246743858</v>
+        <v>0.01239771324691272</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.922284148551429</v>
+        <v>0.003087019262574838</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01922773923444</v>
+        <v>0.9761163259450066</v>
       </c>
       <c r="P6" t="n">
-        <v>7.76154987378423</v>
+        <v>87.58446940496569</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.613813672167133</v>
+        <v>29.73159142931253</v>
       </c>
       <c r="R6" t="n">
-        <v>1.069927738269114</v>
+        <v>1.003484104924022</v>
       </c>
       <c r="S6" t="n">
-        <v>11.44264418871777</v>
+        <v>-0.003222239990657049</v>
       </c>
       <c r="T6" t="n">
-        <v>-5.838469712779861</v>
+        <v>-0.002654783967882722</v>
       </c>
       <c r="U6" t="n">
-        <v>1.06094167565838</v>
+        <v>0.9864566562539077</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.007153979194207195</v>
+        <v>97.30896641675385</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.002601005805179296</v>
+        <v>34.69565499472837</v>
       </c>
       <c r="X6" t="n">
-        <v>1.089937922932642</v>
+        <v>0.9965681577226473</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.006634105165730681</v>
+        <v>-0.004517943026805687</v>
       </c>
       <c r="Z6" t="n">
-        <v>-17.91432631336718</v>
+        <v>-0.008291337986954089</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.055279891823386</v>
+        <v>0.9583784756433883</v>
       </c>
       <c r="AB6" t="n">
-        <v>30.12521380559197</v>
+        <v>121.6352585798852</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.414235223909029</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1.050401108754309</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>9.193522588791218</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>5.848692065854336</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1.056395815114978</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>3.573739014083499</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1.819110535830665</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.054971049991561</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>6.219841746467261</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.607801882280177</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1.049910777251346</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>13.78058367002312</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>5.841639731136373</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1.034676279622666</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>15.21554175454893</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>5.043689664204363</v>
-      </c>
-      <c r="AS6" t="inlineStr">
+        <v>49.55329071507799</v>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1358,132 +1058,87 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.060016060155855</v>
+        <v>1.00006495684955</v>
       </c>
       <c r="D7" t="n">
-        <v>-241.1623574141337</v>
+        <v>-65.23253300965864</v>
       </c>
       <c r="E7" t="n">
-        <v>17.82719560975242</v>
+        <v>-23.02119181965267</v>
       </c>
       <c r="F7" t="n">
-        <v>1.044970270229198</v>
+        <v>0.9999454448237308</v>
       </c>
       <c r="G7" t="n">
-        <v>-17.64370681068091</v>
+        <v>-163.0027339040576</v>
       </c>
       <c r="H7" t="n">
-        <v>-33.40663123008233</v>
+        <v>-13.60600138576902</v>
       </c>
       <c r="I7" t="n">
-        <v>1.010094194892813</v>
+        <v>1.000116437646491</v>
       </c>
       <c r="J7" t="n">
-        <v>97.04255342960055</v>
+        <v>-85.00504125618916</v>
       </c>
       <c r="K7" t="n">
-        <v>-7.720802957142636</v>
+        <v>4.428834392329011</v>
       </c>
       <c r="L7" t="n">
-        <v>1.016925659076488</v>
+        <v>0.9873663400011773</v>
       </c>
       <c r="M7" t="n">
-        <v>49.255627544083</v>
+        <v>0.002592631609536556</v>
       </c>
       <c r="N7" t="n">
-        <v>-3.96993966305822</v>
+        <v>0.0009482457966838841</v>
       </c>
       <c r="O7" t="n">
-        <v>1.018515787114929</v>
+        <v>0.9763959457496511</v>
       </c>
       <c r="P7" t="n">
-        <v>7.824342761560961</v>
+        <v>88.07516847534424</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.628033373056213</v>
+        <v>29.54134617151151</v>
       </c>
       <c r="R7" t="n">
-        <v>1.069997142505391</v>
+        <v>1.003906157376912</v>
       </c>
       <c r="S7" t="n">
-        <v>11.53407214848408</v>
+        <v>0.003929860748852359</v>
       </c>
       <c r="T7" t="n">
-        <v>-6.203861049192282</v>
+        <v>0.006197405061314133</v>
       </c>
       <c r="U7" t="n">
-        <v>1.060625998842787</v>
+        <v>0.9864696295254638</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.002174750068561685</v>
+        <v>97.86310302523566</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.001003694732841044</v>
+        <v>34.46493259363812</v>
       </c>
       <c r="X7" t="n">
-        <v>1.090081673854353</v>
+        <v>0.9966994369763034</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.0008070927953194592</v>
+        <v>-0.001941128684406456</v>
       </c>
       <c r="Z7" t="n">
-        <v>-18.06762849430625</v>
+        <v>-0.00467834715684968</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.054912318815753</v>
+        <v>0.9586645938831038</v>
       </c>
       <c r="AB7" t="n">
-        <v>30.39700635207707</v>
+        <v>122.3276097915651</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.256285452675636</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1.049934730028143</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>9.271927932514815</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>5.891524915435658</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.056488365722964</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>3.597275304381105</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1.825543181168394</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.054659280254691</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>6.288448046447324</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.624665976203126</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.049775437194372</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>13.91044654124336</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>5.903463736183374</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>1.034173138302857</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>15.35186960182869</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>5.084507014434213</v>
-      </c>
-      <c r="AS7" t="inlineStr">
+        <v>49.22662357756519</v>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1497,132 +1152,87 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.060054780502544</v>
+        <v>1.000292630996735</v>
       </c>
       <c r="D8" t="n">
-        <v>-241.5935022343249</v>
+        <v>-66.23192157602281</v>
       </c>
       <c r="E8" t="n">
-        <v>17.89805829061653</v>
+        <v>-23.48658340190124</v>
       </c>
       <c r="F8" t="n">
-        <v>1.045143332059732</v>
+        <v>1.000020744977124</v>
       </c>
       <c r="G8" t="n">
-        <v>-17.61214745890539</v>
+        <v>-162.9979665681088</v>
       </c>
       <c r="H8" t="n">
-        <v>-33.49640528499817</v>
+        <v>-13.97179176198051</v>
       </c>
       <c r="I8" t="n">
-        <v>1.009985698511974</v>
+        <v>0.999986583771425</v>
       </c>
       <c r="J8" t="n">
-        <v>97.19362041752622</v>
+        <v>-84.99718136423755</v>
       </c>
       <c r="K8" t="n">
-        <v>-7.786067809110209</v>
+        <v>4.092177086003535</v>
       </c>
       <c r="L8" t="n">
-        <v>1.016846984744966</v>
+        <v>0.9871413716789207</v>
       </c>
       <c r="M8" t="n">
-        <v>49.31966855221091</v>
+        <v>0.0005837759490906708</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.940066556711065</v>
+        <v>0.004588636656930179</v>
       </c>
       <c r="O8" t="n">
-        <v>1.018761019006946</v>
+        <v>0.9759050872189166</v>
       </c>
       <c r="P8" t="n">
-        <v>7.850520124061556</v>
+        <v>88.35844020082604</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.611440662942886</v>
+        <v>29.78808636273551</v>
       </c>
       <c r="R8" t="n">
-        <v>1.069755447492578</v>
+        <v>1.003670353518674</v>
       </c>
       <c r="S8" t="n">
-        <v>11.56575194171924</v>
+        <v>-0.00429143791506563</v>
       </c>
       <c r="T8" t="n">
-        <v>-6.105074466024868</v>
+        <v>0.01232177079409354</v>
       </c>
       <c r="U8" t="n">
-        <v>1.060718605258187</v>
+        <v>0.9861772720954275</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004466403553931962</v>
+        <v>98.17677016916312</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002633417682239797</v>
+        <v>34.75426054731762</v>
       </c>
       <c r="X8" t="n">
-        <v>1.090030607349086</v>
+        <v>0.9964401090560475</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002025935521623885</v>
+        <v>-3.320806847073207e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>-18.01832622311901</v>
+        <v>0.0003549069373187401</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.055160125881482</v>
+        <v>0.9583000423741742</v>
       </c>
       <c r="AB8" t="n">
-        <v>30.44021664783579</v>
+        <v>122.7364975801364</v>
       </c>
       <c r="AC8" t="n">
-        <v>-4.375792246814321</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1.050088227889048</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>9.288130299469181</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>5.851522413854591</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1.05631639114947</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>3.601300375716586</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1.825257895832363</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1.054853145814698</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>6.293576172317747</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1.617371846977229</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1.049701019309349</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>13.93253562047287</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>5.861351980376688</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1.034382212827552</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>15.36611136544465</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>5.057234109457676</v>
-      </c>
-      <c r="AS8" t="inlineStr">
+        <v>49.63971411555691</v>
+      </c>
+      <c r="AD8" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1636,132 +1246,87 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.05997830336147</v>
+        <v>1.000029245892926</v>
       </c>
       <c r="D9" t="n">
-        <v>-242.3022335924147</v>
+        <v>-65.63487711245325</v>
       </c>
       <c r="E9" t="n">
-        <v>17.99398093131437</v>
+        <v>-23.49501398427041</v>
       </c>
       <c r="F9" t="n">
-        <v>1.045009735759391</v>
+        <v>0.9999753809325622</v>
       </c>
       <c r="G9" t="n">
-        <v>-17.55502341086002</v>
+        <v>-162.9997359287421</v>
       </c>
       <c r="H9" t="n">
-        <v>-33.70507642316981</v>
+        <v>-13.97374233699108</v>
       </c>
       <c r="I9" t="n">
-        <v>1.010167867091305</v>
+        <v>1.000086285090572</v>
       </c>
       <c r="J9" t="n">
-        <v>97.41088975639011</v>
+        <v>-85.00236826521811</v>
       </c>
       <c r="K9" t="n">
-        <v>-7.926698294003369</v>
+        <v>4.1048912035434</v>
       </c>
       <c r="L9" t="n">
-        <v>1.016720287726476</v>
+        <v>0.9870701142147305</v>
       </c>
       <c r="M9" t="n">
-        <v>49.41992378097027</v>
+        <v>-0.005039916405072174</v>
       </c>
       <c r="N9" t="n">
-        <v>-3.939017821597112</v>
+        <v>0.006838943210012823</v>
       </c>
       <c r="O9" t="n">
-        <v>1.018514295942426</v>
+        <v>0.9760789878470704</v>
       </c>
       <c r="P9" t="n">
-        <v>7.866279636491377</v>
+        <v>88.19122292042128</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.617504663970047</v>
+        <v>29.79676896819587</v>
       </c>
       <c r="R9" t="n">
-        <v>1.069852446743834</v>
+        <v>1.003594636869316</v>
       </c>
       <c r="S9" t="n">
-        <v>11.5813980788499</v>
+        <v>-0.004336949196992332</v>
       </c>
       <c r="T9" t="n">
-        <v>-6.151338577715551</v>
+        <v>-0.0006293848987320428</v>
       </c>
       <c r="U9" t="n">
-        <v>1.060737198993955</v>
+        <v>0.9862518249287207</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.004391778350716794</v>
+        <v>97.99374126987499</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.00806734445131202</v>
+        <v>34.76841839261027</v>
       </c>
       <c r="X9" t="n">
-        <v>1.089888408269593</v>
+        <v>0.9966525772588228</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0003640491400323077</v>
+        <v>-0.005973697213390631</v>
       </c>
       <c r="Z9" t="n">
-        <v>-18.05692812438821</v>
+        <v>-0.001018640317635198</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.054891720821608</v>
+        <v>0.9582016985193262</v>
       </c>
       <c r="AB9" t="n">
-        <v>30.50830597344463</v>
+        <v>122.4833454692113</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.371328950569226</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1.050045507263555</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>9.308483079608488</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>5.859411583590542</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1.056120216139771</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>3.627663592082309</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1.821435606056589</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.05472006615576</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>6.309192971642764</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1.619206800005735</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1.049763389054302</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>13.95103044701284</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5.860196562608165</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1.034407398111336</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>15.40361466816043</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>5.057944467997429</v>
-      </c>
-      <c r="AS9" t="inlineStr">
+        <v>49.66721234457322</v>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1775,132 +1340,87 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1.060158154878687</v>
+        <v>1.000113825858546</v>
       </c>
       <c r="D10" t="n">
-        <v>-243.3000728901538</v>
+        <v>-67.51766517400792</v>
       </c>
       <c r="E10" t="n">
-        <v>18.1519028203968</v>
+        <v>-23.31537099972256</v>
       </c>
       <c r="F10" t="n">
-        <v>1.045007790585593</v>
+        <v>1.000093549240949</v>
       </c>
       <c r="G10" t="n">
-        <v>-17.48483553436683</v>
+        <v>-162.9961088272471</v>
       </c>
       <c r="H10" t="n">
-        <v>-33.98884809911209</v>
+        <v>-13.84900618529633</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0100363308292</v>
+        <v>0.9998562295813358</v>
       </c>
       <c r="J10" t="n">
-        <v>97.73561225003216</v>
+        <v>-84.99853953079578</v>
       </c>
       <c r="K10" t="n">
-        <v>-8.104580596951664</v>
+        <v>4.194846256820045</v>
       </c>
       <c r="L10" t="n">
-        <v>1.016733050682022</v>
+        <v>0.9872282627901614</v>
       </c>
       <c r="M10" t="n">
-        <v>49.59623026059581</v>
+        <v>-0.001983950501377516</v>
       </c>
       <c r="N10" t="n">
-        <v>-3.945018123393189</v>
+        <v>-0.0001777141192649172</v>
       </c>
       <c r="O10" t="n">
-        <v>1.018636270773734</v>
+        <v>0.9761536735657887</v>
       </c>
       <c r="P10" t="n">
-        <v>7.883716486983401</v>
+        <v>88.72159934559961</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.610263351389553</v>
+        <v>29.66672759860057</v>
       </c>
       <c r="R10" t="n">
-        <v>1.070121378683436</v>
+        <v>1.003716470731834</v>
       </c>
       <c r="S10" t="n">
-        <v>11.62724810897446</v>
+        <v>0.001366049670005069</v>
       </c>
       <c r="T10" t="n">
-        <v>-6.260556318570496</v>
+        <v>-0.008254052893391636</v>
       </c>
       <c r="U10" t="n">
-        <v>1.060854475834641</v>
+        <v>0.9860734551039434</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.004869798090513975</v>
+        <v>98.57429411131143</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.00308383938111472</v>
+        <v>34.61104822222237</v>
       </c>
       <c r="X10" t="n">
-        <v>1.089929733456358</v>
+        <v>0.9964622079472252</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004393918338069384</v>
+        <v>0.004479307661174502</v>
       </c>
       <c r="Z10" t="n">
-        <v>-18.09113033658599</v>
+        <v>0.001049084125934362</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.054917551339113</v>
+        <v>0.958492222847113</v>
       </c>
       <c r="AB10" t="n">
-        <v>30.60322100140518</v>
+        <v>123.2303655689156</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.347403913526012</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1.05008639411946</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>9.346488057919695</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>5.865225780121044</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1.05623877813198</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>3.634136677620513</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1.815938715096735</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1.054918738753671</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>6.329178336203305</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1.613187898372487</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1.049760154877979</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>14.01069900677007</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>5.865204960986127</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1.034391080301211</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>15.46283303105756</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>5.063460778935885</v>
-      </c>
-      <c r="AS10" t="inlineStr">
+        <v>49.4430698537128</v>
+      </c>
+      <c r="AD10" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1914,132 +1434,87 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>1.060086915775453</v>
+        <v>1.000090200615082</v>
       </c>
       <c r="D11" t="n">
-        <v>-245.6470940604526</v>
+        <v>-68.72266400708509</v>
       </c>
       <c r="E11" t="n">
-        <v>18.4882115056883</v>
+        <v>-23.37945745738731</v>
       </c>
       <c r="F11" t="n">
-        <v>1.044888664477323</v>
+        <v>0.9999727812590546</v>
       </c>
       <c r="G11" t="n">
-        <v>-17.30772870148745</v>
+        <v>-163.0067121701025</v>
       </c>
       <c r="H11" t="n">
-        <v>-34.65006620794734</v>
+        <v>-13.90746260426289</v>
       </c>
       <c r="I11" t="n">
-        <v>1.009826163919087</v>
+        <v>1.000168018682038</v>
       </c>
       <c r="J11" t="n">
-        <v>98.50792948732796</v>
+        <v>-85.00952453940285</v>
       </c>
       <c r="K11" t="n">
-        <v>-8.52891848886032</v>
+        <v>4.130423486022138</v>
       </c>
       <c r="L11" t="n">
-        <v>1.016252606023056</v>
+        <v>0.9871728396512419</v>
       </c>
       <c r="M11" t="n">
-        <v>49.99445893384605</v>
+        <v>-0.0006820690378175945</v>
       </c>
       <c r="N11" t="n">
-        <v>-3.913056512249396</v>
+        <v>-0.0001015803197675227</v>
       </c>
       <c r="O11" t="n">
-        <v>1.018315817129319</v>
+        <v>0.9761031749820366</v>
       </c>
       <c r="P11" t="n">
-        <v>7.951805107204616</v>
+        <v>89.07343250583131</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.604859653569551</v>
+        <v>29.68073601585254</v>
       </c>
       <c r="R11" t="n">
-        <v>1.06998258243392</v>
+        <v>1.003563237979874</v>
       </c>
       <c r="S11" t="n">
-        <v>11.71432970742743</v>
+        <v>-0.001838347697884278</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.280103331065985</v>
+        <v>0.00988455194279372</v>
       </c>
       <c r="U11" t="n">
-        <v>1.060771326418421</v>
+        <v>0.9860505798511271</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01240051403470816</v>
+        <v>98.98496809697022</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0003654664572495746</v>
+        <v>34.63158834977702</v>
       </c>
       <c r="X11" t="n">
-        <v>1.090139585612296</v>
+        <v>0.9965060284304852</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.001088645107683721</v>
+        <v>-0.008206893066234254</v>
       </c>
       <c r="Z11" t="n">
-        <v>-18.11370671603062</v>
+        <v>0.002011240438016886</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.054942328528035</v>
+        <v>0.958451825454651</v>
       </c>
       <c r="AB11" t="n">
-        <v>30.84453444670343</v>
+        <v>123.7097435748202</v>
       </c>
       <c r="AC11" t="n">
-        <v>-4.45126653958143</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1.050098388330934</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>9.415216061217945</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>5.829684997726839</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1.056195684021702</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>3.653697028052774</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1.804270871901582</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1.054827295831289</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>6.387347728302669</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1.599970600682879</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1.049463773280045</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>14.12414935842134</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>5.828617912577112</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>1.034182665288823</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>15.57830303316284</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>5.020556005489897</v>
-      </c>
-      <c r="AS11" t="inlineStr">
+        <v>49.45985534779545</v>
+      </c>
+      <c r="AD11" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -2053,132 +1528,87 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>1.059750927797614</v>
+        <v>1.000109421317784</v>
       </c>
       <c r="D12" t="n">
-        <v>-245.2229981571405</v>
+        <v>-70.89324408080718</v>
       </c>
       <c r="E12" t="n">
-        <v>18.42994796380162</v>
+        <v>-23.74746920254063</v>
       </c>
       <c r="F12" t="n">
-        <v>1.044828489612603</v>
+        <v>1.000141416289194</v>
       </c>
       <c r="G12" t="n">
-        <v>-17.34891826690971</v>
+        <v>-162.9992766613311</v>
       </c>
       <c r="H12" t="n">
-        <v>-34.5071021878456</v>
+        <v>-14.19887474087853</v>
       </c>
       <c r="I12" t="n">
-        <v>1.01011595125692</v>
+        <v>0.9999663691745416</v>
       </c>
       <c r="J12" t="n">
-        <v>98.36063163063402</v>
+        <v>-85.00249646565442</v>
       </c>
       <c r="K12" t="n">
-        <v>-8.437059878660941</v>
+        <v>3.870062969729774</v>
       </c>
       <c r="L12" t="n">
-        <v>1.016655491179288</v>
+        <v>0.9872131526621366</v>
       </c>
       <c r="M12" t="n">
-        <v>49.91703612644872</v>
+        <v>0.01241928829131706</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.897540656557985</v>
+        <v>-0.002550033943926496</v>
       </c>
       <c r="O12" t="n">
-        <v>1.018410951033083</v>
+        <v>0.9757947937596053</v>
       </c>
       <c r="P12" t="n">
-        <v>7.939823592626036</v>
+        <v>89.70066539732829</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.593578819928449</v>
+        <v>29.83617696634055</v>
       </c>
       <c r="R12" t="n">
-        <v>1.070007032990699</v>
+        <v>1.003396307218636</v>
       </c>
       <c r="S12" t="n">
-        <v>11.69421374656604</v>
+        <v>0.0003572819502196094</v>
       </c>
       <c r="T12" t="n">
-        <v>-6.072359774352072</v>
+        <v>0.002694894207263068</v>
       </c>
       <c r="U12" t="n">
-        <v>1.060951827123385</v>
+        <v>0.9858631771261055</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.007639409508918665</v>
+        <v>99.66682646903337</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.000640441637862213</v>
+        <v>34.81663674362505</v>
       </c>
       <c r="X12" t="n">
-        <v>1.089977296192747</v>
+        <v>0.9963783324269808</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.002263081120637743</v>
+        <v>-0.006133215023422898</v>
       </c>
       <c r="Z12" t="n">
-        <v>-18.04532172893923</v>
+        <v>-0.002492759795635796</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.055220031589378</v>
+        <v>0.9579406060956729</v>
       </c>
       <c r="AB12" t="n">
-        <v>30.79926342770611</v>
+        <v>124.5755438549669</v>
       </c>
       <c r="AC12" t="n">
-        <v>-4.603001570337994</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1.050356554410253</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>9.408648787415409</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>5.785175929617218</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1.056559107546306</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>3.661034969687063</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1.794947867349341</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1.054896190692082</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>6.367248938956178</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1.60022354133234</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1.049799269132573</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>14.09758188400627</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>5.780597567208278</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1.034355152746723</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>15.55695038423201</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>4.987797477570872</v>
-      </c>
-      <c r="AS12" t="inlineStr">
+        <v>49.7392044130922</v>
+      </c>
+      <c r="AD12" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -2192,132 +1622,87 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>1.059993110571218</v>
+        <v>0.9999730469715538</v>
       </c>
       <c r="D13" t="n">
-        <v>-247.0207546451897</v>
+        <v>-68.39600969065839</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70728050476262</v>
+        <v>-23.67621134545745</v>
       </c>
       <c r="F13" t="n">
-        <v>1.044973704273926</v>
+        <v>1.000085352242258</v>
       </c>
       <c r="G13" t="n">
-        <v>-17.20530739002004</v>
+        <v>-163.0024435264373</v>
       </c>
       <c r="H13" t="n">
-        <v>-34.99388336695293</v>
+        <v>-14.14209086456844</v>
       </c>
       <c r="I13" t="n">
-        <v>1.010061351681348</v>
+        <v>1.000074947358211</v>
       </c>
       <c r="J13" t="n">
-        <v>98.94780608437665</v>
+        <v>-85.00572881361845</v>
       </c>
       <c r="K13" t="n">
-        <v>-8.754217663925015</v>
+        <v>3.943707872912073</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01642261500755</v>
+        <v>0.9872923395151212</v>
       </c>
       <c r="M13" t="n">
-        <v>50.20896945586634</v>
+        <v>-0.009696059553640165</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.844632362572661</v>
+        <v>0.003189756614398628</v>
       </c>
       <c r="O13" t="n">
-        <v>1.018233876471261</v>
+        <v>0.9759106508014673</v>
       </c>
       <c r="P13" t="n">
-        <v>7.974707783613808</v>
+        <v>88.98965505619965</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.579168320028403</v>
+        <v>29.86223014190229</v>
       </c>
       <c r="R13" t="n">
-        <v>1.069857834099586</v>
+        <v>1.003431229061986</v>
       </c>
       <c r="S13" t="n">
-        <v>11.76427570632993</v>
+        <v>-0.003742242827349626</v>
       </c>
       <c r="T13" t="n">
-        <v>-6.006033783032735</v>
+        <v>0.005062690288267473</v>
       </c>
       <c r="U13" t="n">
-        <v>1.060815735873007</v>
+        <v>0.9859009940863336</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.002495802045301828</v>
+        <v>98.87068498273</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.006531642321561607</v>
+        <v>34.83326270556896</v>
       </c>
       <c r="X13" t="n">
-        <v>1.090090087299947</v>
+        <v>0.9963951352736183</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.002582213116640586</v>
+        <v>0.003029774971082832</v>
       </c>
       <c r="Z13" t="n">
-        <v>-18.02100872569948</v>
+        <v>0.0006902512281453173</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.055430999292473</v>
+        <v>0.9577769513822919</v>
       </c>
       <c r="AB13" t="n">
-        <v>30.98293623494876</v>
+        <v>123.5834845654974</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.766887334007924</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1.050380876778237</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>9.450387793330556</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>5.724347798466111</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1.056691647576758</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>3.672271949193158</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1.772622586892704</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1.054711019418799</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>6.407262795366175</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.578382706546431</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1.049709414103708</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>14.18610616198547</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>5.729619773712956</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1.034466983553028</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>15.64596699085592</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>4.933440905570322</v>
-      </c>
-      <c r="AS13" t="inlineStr">
+        <v>49.76120745945011</v>
+      </c>
+      <c r="AD13" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -2331,132 +1716,87 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>1.059821083090318</v>
+        <v>0.9999523105662684</v>
       </c>
       <c r="D14" t="n">
-        <v>-246.2066821227607</v>
+        <v>-70.37682021432593</v>
       </c>
       <c r="E14" t="n">
-        <v>18.58356294352191</v>
+        <v>-23.69758482076709</v>
       </c>
       <c r="F14" t="n">
-        <v>1.044922414012803</v>
+        <v>0.9999473057394381</v>
       </c>
       <c r="G14" t="n">
-        <v>-17.26042660103205</v>
+        <v>-162.9969163239572</v>
       </c>
       <c r="H14" t="n">
-        <v>-34.75722808240018</v>
+        <v>-14.16559066463137</v>
       </c>
       <c r="I14" t="n">
-        <v>1.010124737309601</v>
+        <v>0.9999503998823198</v>
       </c>
       <c r="J14" t="n">
-        <v>98.69107298337583</v>
+        <v>-85.00514925459711</v>
       </c>
       <c r="K14" t="n">
-        <v>-8.604030697524193</v>
+        <v>3.910730180024489</v>
       </c>
       <c r="L14" t="n">
-        <v>1.016377644705832</v>
+        <v>0.9871428431545995</v>
       </c>
       <c r="M14" t="n">
-        <v>50.07434137950967</v>
+        <v>0.006116545714538199</v>
       </c>
       <c r="N14" t="n">
-        <v>-3.859206049819408</v>
+        <v>-0.008476276263740659</v>
       </c>
       <c r="O14" t="n">
-        <v>1.018388760240752</v>
+        <v>0.9757461974497248</v>
       </c>
       <c r="P14" t="n">
-        <v>7.956801094312855</v>
+        <v>89.54608245470641</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.588635701940932</v>
+        <v>29.82896689389467</v>
       </c>
       <c r="R14" t="n">
-        <v>1.070026595865588</v>
+        <v>1.003576717369914</v>
       </c>
       <c r="S14" t="n">
-        <v>11.7388265810665</v>
+        <v>0.002516763296473614</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.009680436250629</v>
+        <v>-0.003313493630076805</v>
       </c>
       <c r="U14" t="n">
-        <v>1.060802638201661</v>
+        <v>0.9859911423291392</v>
       </c>
       <c r="V14" t="n">
-        <v>0.005122714327683001</v>
+        <v>99.4896786545721</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.004592557633254999</v>
+        <v>34.80434605661186</v>
       </c>
       <c r="X14" t="n">
-        <v>1.089919100746745</v>
+        <v>0.9963622986321251</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.008579069109529764</v>
+        <v>-0.004231487720997327</v>
       </c>
       <c r="Z14" t="n">
-        <v>-18.01617376032924</v>
+        <v>0.002488784257032357</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.055405744457938</v>
+        <v>0.9580455663708286</v>
       </c>
       <c r="AB14" t="n">
-        <v>30.91333334419426</v>
+        <v>124.3661807334874</v>
       </c>
       <c r="AC14" t="n">
-        <v>-4.71966113783203</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1.050326512796704</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>9.428435082873152</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>5.748965133280208</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1.056424923673148</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>3.663057088555152</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1.774670853726754</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1.054704288973103</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>6.389771150144537</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1.582848809049298</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1.049809337690648</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>14.14399815982907</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>5.74736490426922</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>1.034636319274914</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>15.60640839546393</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>4.947962104249367</v>
-      </c>
-      <c r="AS14" t="inlineStr">
+        <v>49.71236659893319</v>
+      </c>
+      <c r="AD14" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -2470,132 +1810,87 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>1.05994435871278</v>
+        <v>1.000074752229636</v>
       </c>
       <c r="D15" t="n">
-        <v>-245.9413091218385</v>
+        <v>-67.36570781840926</v>
       </c>
       <c r="E15" t="n">
-        <v>18.55879329497212</v>
+        <v>-23.35583467537152</v>
       </c>
       <c r="F15" t="n">
-        <v>1.044995313860782</v>
+        <v>1.000181564033922</v>
       </c>
       <c r="G15" t="n">
-        <v>-17.2807974099911</v>
+        <v>-163.0060867199274</v>
       </c>
       <c r="H15" t="n">
-        <v>-34.67239011181721</v>
+        <v>-13.88423901507266</v>
       </c>
       <c r="I15" t="n">
-        <v>1.009785552145473</v>
+        <v>0.9999686257295776</v>
       </c>
       <c r="J15" t="n">
-        <v>98.60221564078221</v>
+        <v>-85.00016393249393</v>
       </c>
       <c r="K15" t="n">
-        <v>-8.549907694460575</v>
+        <v>4.158411503363578</v>
       </c>
       <c r="L15" t="n">
-        <v>1.016426218341651</v>
+        <v>0.9872338158788205</v>
       </c>
       <c r="M15" t="n">
-        <v>50.03891514765728</v>
+        <v>0.002595654227428819</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.842698066582571</v>
+        <v>0.002738146871401512</v>
       </c>
       <c r="O15" t="n">
-        <v>1.018311875987196</v>
+        <v>0.9760736082792505</v>
       </c>
       <c r="P15" t="n">
-        <v>7.958245557341677</v>
+        <v>88.69379629043139</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.566884661350255</v>
+        <v>29.69222299971289</v>
       </c>
       <c r="R15" t="n">
-        <v>1.070157404102618</v>
+        <v>1.003756639919417</v>
       </c>
       <c r="S15" t="n">
-        <v>11.72097654814072</v>
+        <v>0.00491455698980946</v>
       </c>
       <c r="T15" t="n">
-        <v>-5.882813458610068</v>
+        <v>0.003261256325282292</v>
       </c>
       <c r="U15" t="n">
-        <v>1.061004418652156</v>
+        <v>0.986186956354671</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.003877597581970338</v>
+        <v>98.54436565604753</v>
       </c>
       <c r="W15" t="n">
-        <v>-9.137032770421586e-05</v>
+        <v>34.64459571329778</v>
       </c>
       <c r="X15" t="n">
-        <v>1.089941712370481</v>
+        <v>0.9965596727496916</v>
       </c>
       <c r="Y15" t="n">
-        <v>-4.351901477347259e-05</v>
+        <v>-0.00152688170728237</v>
       </c>
       <c r="Z15" t="n">
-        <v>-17.97216740259188</v>
+        <v>-0.00191967763066005</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.055507760480113</v>
+        <v>0.9583821007312604</v>
       </c>
       <c r="AB15" t="n">
-        <v>30.87877076571825</v>
+        <v>123.1697215562068</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.788810295683293</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1.050537935700119</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>9.424103259896597</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>5.718697129184508</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1.056385649758845</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>3.660435450284948</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1.770449160624656</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1.054749913019982</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>6.390424528592882</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1.574307695092531</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1.049860121930862</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>14.12999467259034</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>5.718924963355478</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>1.03478266858389</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>15.5862953697901</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>4.93533995383146</v>
-      </c>
-      <c r="AS15" t="inlineStr">
+        <v>49.49775113241359</v>
+      </c>
+      <c r="AD15" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -2609,134 +1904,89 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>1.059985362133984</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-243.5441894138249</v>
+        <v>-69.3388141134516</v>
       </c>
       <c r="E16" t="n">
-        <v>18.21193779903918</v>
+        <v>-23.40402092972642</v>
       </c>
       <c r="F16" t="n">
-        <v>1.045119774308803</v>
+        <v>0.9999098170493156</v>
       </c>
       <c r="G16" t="n">
-        <v>-17.47262688180986</v>
+        <v>-162.9993633472851</v>
       </c>
       <c r="H16" t="n">
-        <v>-33.98155775134644</v>
+        <v>-13.93548305708882</v>
       </c>
       <c r="I16" t="n">
-        <v>1.009865785776233</v>
+        <v>0.9999530992123423</v>
       </c>
       <c r="J16" t="n">
-        <v>97.8180751869094</v>
+        <v>-85.00969002141531</v>
       </c>
       <c r="K16" t="n">
-        <v>-8.111223238805705</v>
+        <v>4.107791545272094</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01672014035472</v>
+        <v>0.9872536605341068</v>
       </c>
       <c r="M16" t="n">
-        <v>49.63950024735681</v>
+        <v>2.052504459517906e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>-3.856944511957163</v>
+        <v>0.001782135621289836</v>
       </c>
       <c r="O16" t="n">
-        <v>1.018573149874013</v>
+        <v>0.9759648894925463</v>
       </c>
       <c r="P16" t="n">
-        <v>7.884268771694489</v>
+        <v>89.25842681220367</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.587673712669919</v>
+        <v>29.69137434766457</v>
       </c>
       <c r="R16" t="n">
-        <v>1.070152628756405</v>
+        <v>1.003511839246304</v>
       </c>
       <c r="S16" t="n">
-        <v>11.63254523464189</v>
+        <v>0.008291008624369598</v>
       </c>
       <c r="T16" t="n">
-        <v>-5.769723366625511</v>
+        <v>0.00531800836699668</v>
       </c>
       <c r="U16" t="n">
-        <v>1.061122003153053</v>
+        <v>0.9863446482903513</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.004414255765875211</v>
+        <v>99.17883176199612</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.002253980454676785</v>
+        <v>34.63703009107208</v>
       </c>
       <c r="X16" t="n">
-        <v>1.090082841526042</v>
+        <v>0.9963197270680283</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.0007930446072258579</v>
+        <v>-0.005074210772039419</v>
       </c>
       <c r="Z16" t="n">
-        <v>-17.91381098294111</v>
+        <v>0.000921193563093954</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.05554519359567</v>
+        <v>0.9582417062212221</v>
       </c>
       <c r="AB16" t="n">
-        <v>30.63282990677744</v>
+        <v>123.9652473523682</v>
       </c>
       <c r="AC16" t="n">
-        <v>-4.750188708607174</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1.050527554719566</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>9.351495253995337</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>5.751858390037212</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1.056862255984558</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>3.631862930097124</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1.774426381447031</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1.054841964071938</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>6.329717282927256</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1.587701050276959</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1.049942640836273</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>14.0135466347168</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5.728176408919389</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>1.034902628201185</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>15.47779791741563</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>4.95165154422918</v>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>no_attack</t>
+        <v>49.47948915488653</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -2748,134 +1998,89 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>1.060161420073931</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-244.0048367645182</v>
+        <v>-67.12150046840965</v>
       </c>
       <c r="E17" t="n">
-        <v>18.27173458429265</v>
+        <v>-23.19755042389669</v>
       </c>
       <c r="F17" t="n">
-        <v>1.044755413910682</v>
+        <v>1.000054344528559</v>
       </c>
       <c r="G17" t="n">
-        <v>-17.44010569161</v>
+        <v>-162.9983465677964</v>
       </c>
       <c r="H17" t="n">
-        <v>-34.12298826532198</v>
+        <v>-13.76065450496574</v>
       </c>
       <c r="I17" t="n">
-        <v>1.010174197742037</v>
+        <v>1.000081169274124</v>
       </c>
       <c r="J17" t="n">
-        <v>97.96625399809206</v>
+        <v>-85.00331353871677</v>
       </c>
       <c r="K17" t="n">
-        <v>-8.188098254965118</v>
+        <v>4.272249231794704</v>
       </c>
       <c r="L17" t="n">
-        <v>1.016578348605613</v>
+        <v>0.9874607510170049</v>
       </c>
       <c r="M17" t="n">
-        <v>49.71631895905414</v>
+        <v>0.002223672496454213</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.841193150959376</v>
+        <v>0.004030759297693538</v>
       </c>
       <c r="O17" t="n">
-        <v>1.018749716959432</v>
+        <v>0.9761357669494322</v>
       </c>
       <c r="P17" t="n">
-        <v>7.91022133830879</v>
+        <v>88.61796037777138</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.568401386551002</v>
+        <v>29.6215335773358</v>
       </c>
       <c r="R17" t="n">
-        <v>1.069992723837567</v>
+        <v>1.003663325129998</v>
       </c>
       <c r="S17" t="n">
-        <v>11.64640001413206</v>
+        <v>8.394715413445155e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.737566960511665</v>
+        <v>-0.002193772942316822</v>
       </c>
       <c r="U17" t="n">
-        <v>1.061117779224822</v>
+        <v>0.9862792074892897</v>
       </c>
       <c r="V17" t="n">
-        <v>0.002659357458175304</v>
+        <v>98.46147958125147</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.0002045001031953106</v>
+        <v>34.54634554465733</v>
       </c>
       <c r="X17" t="n">
-        <v>1.089962039123623</v>
+        <v>0.9966172089367211</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.000966187554879578</v>
+        <v>-0.002943295581286687</v>
       </c>
       <c r="Z17" t="n">
-        <v>-17.88914324059932</v>
+        <v>-0.001462221359607706</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.055582845309128</v>
+        <v>0.958574902152948</v>
       </c>
       <c r="AB17" t="n">
-        <v>30.68762264415471</v>
+        <v>123.0747977848611</v>
       </c>
       <c r="AC17" t="n">
-        <v>-4.813225726022578</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1.050549350122215</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>9.368497984011304</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>5.717691152215053</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.056844872143534</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>3.633282296685664</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1.763570380872726</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1.054986456032904</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>6.351560913049991</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1.580148247708213</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1.049770223481384</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>14.03788567584482</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>5.722258181315887</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1.034883448451032</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>15.5026980441671</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>4.927701272727634</v>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>no_attack</t>
+        <v>49.35989853614044</v>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -2887,134 +2092,89 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>1.060074501529833</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-244.68835294164</v>
+        <v>-67.85934594102015</v>
       </c>
       <c r="E18" t="n">
-        <v>18.37407845165953</v>
+        <v>-23.26660661472622</v>
       </c>
       <c r="F18" t="n">
-        <v>1.044882234966827</v>
+        <v>1.000096335873921</v>
       </c>
       <c r="G18" t="n">
-        <v>-17.38262573559876</v>
+        <v>-162.9988161109122</v>
       </c>
       <c r="H18" t="n">
-        <v>-34.28818006611707</v>
+        <v>-13.80863602064341</v>
       </c>
       <c r="I18" t="n">
-        <v>1.009917360269289</v>
+        <v>1.00012825014893</v>
       </c>
       <c r="J18" t="n">
-        <v>98.18982482287038</v>
+        <v>-84.99378906152326</v>
       </c>
       <c r="K18" t="n">
-        <v>-8.300722473759112</v>
+        <v>4.215047900828012</v>
       </c>
       <c r="L18" t="n">
-        <v>1.016601640310628</v>
+        <v>0.9873302999666494</v>
       </c>
       <c r="M18" t="n">
-        <v>49.82464355572568</v>
+        <v>-0.003056252343189502</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.83309605335053</v>
+        <v>-0.001173298459032425</v>
       </c>
       <c r="O18" t="n">
-        <v>1.018596559937725</v>
+        <v>0.9763667826142404</v>
       </c>
       <c r="P18" t="n">
-        <v>7.923319453413431</v>
+        <v>88.82351152078316</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.567239198879416</v>
+        <v>29.63283592080456</v>
       </c>
       <c r="R18" t="n">
-        <v>1.069832041332336</v>
+        <v>1.003880021312896</v>
       </c>
       <c r="S18" t="n">
-        <v>11.68394658696102</v>
+        <v>0.001217059081414318</v>
       </c>
       <c r="T18" t="n">
-        <v>-5.735086262800411</v>
+        <v>0.005216207246626562</v>
       </c>
       <c r="U18" t="n">
-        <v>1.061065385092757</v>
+        <v>0.9862436006823708</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01344981911035943</v>
+        <v>98.68966843386922</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01188585402096755</v>
+        <v>34.57705306550061</v>
       </c>
       <c r="X18" t="n">
-        <v>1.090072188244851</v>
+        <v>0.9965527036036669</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.005909311346829965</v>
+        <v>0.0005629542742575318</v>
       </c>
       <c r="Z18" t="n">
-        <v>-17.9020259798559</v>
+        <v>0.001466039835835234</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.055501679030308</v>
+        <v>0.9586548324772216</v>
       </c>
       <c r="AB18" t="n">
-        <v>30.7478455156226</v>
+        <v>123.374741457497</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.849768131828596</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1.050760610167285</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>9.385160762711578</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>5.703732703515638</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1.056879380651925</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>3.651065219379522</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1.763196752874128</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1.054897535605669</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>6.358623877682286</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1.568552880215717</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1.049967716004562</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>14.07515817539422</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>5.705402038366822</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>1.0350355289458</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>15.5329046083469</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>4.916393224856488</v>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>no_attack</t>
+        <v>49.39108873579474</v>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -3026,132 +2186,2343 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>1.060069402482195</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-247.0765004827651</v>
+        <v>-67.43441985537287</v>
       </c>
       <c r="E19" t="n">
-        <v>18.71619504716768</v>
+        <v>-23.3159822031877</v>
       </c>
       <c r="F19" t="n">
-        <v>1.045126416831005</v>
+        <v>0.9999548163510548</v>
       </c>
       <c r="G19" t="n">
-        <v>-17.19519094512271</v>
+        <v>-162.9966630642278</v>
       </c>
       <c r="H19" t="n">
-        <v>-35.003437822803</v>
+        <v>-13.84660156615574</v>
       </c>
       <c r="I19" t="n">
-        <v>1.010049577097561</v>
+        <v>1.000144553442486</v>
       </c>
       <c r="J19" t="n">
-        <v>98.96559713823204</v>
+        <v>-85.00063347541838</v>
       </c>
       <c r="K19" t="n">
-        <v>-8.761287215496685</v>
+        <v>4.190968169589675</v>
       </c>
       <c r="L19" t="n">
-        <v>1.016451536656718</v>
+        <v>0.9872923062380942</v>
       </c>
       <c r="M19" t="n">
-        <v>50.21307964495864</v>
+        <v>-0.0004459301093089185</v>
       </c>
       <c r="N19" t="n">
-        <v>-3.859458285006171</v>
+        <v>0.007767188604597939</v>
       </c>
       <c r="O19" t="n">
-        <v>1.018327207320667</v>
+        <v>0.97619185658153</v>
       </c>
       <c r="P19" t="n">
-        <v>7.982452082349175</v>
+        <v>88.71444013440976</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.571595199065069</v>
+        <v>29.66400732462191</v>
       </c>
       <c r="R19" t="n">
-        <v>1.069929143868462</v>
+        <v>1.003643420055054</v>
       </c>
       <c r="S19" t="n">
-        <v>11.77287607750244</v>
+        <v>-0.001657984277624544</v>
       </c>
       <c r="T19" t="n">
-        <v>-5.990702796123498</v>
+        <v>0.00310201688265796</v>
       </c>
       <c r="U19" t="n">
-        <v>1.060916335670685</v>
+        <v>0.9861082768172791</v>
       </c>
       <c r="V19" t="n">
-        <v>0.000949679013160209</v>
+        <v>98.56807720884616</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.003922516954610317</v>
+        <v>34.61649518485682</v>
       </c>
       <c r="X19" t="n">
-        <v>1.089974969701698</v>
+        <v>0.9966826448418792</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.003215466600005132</v>
+        <v>0.003064715555354156</v>
       </c>
       <c r="Z19" t="n">
-        <v>-18.02098842124158</v>
+        <v>-0.003309368530740814</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.055419700901903</v>
+        <v>0.9584223502717754</v>
       </c>
       <c r="AB19" t="n">
-        <v>30.99247464522371</v>
+        <v>123.2006692459758</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.782863884800484</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1.050429958226239</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>9.454547637223939</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>5.725660510714651</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1.05663910198049</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>3.673996816064222</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1.773052478206137</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1.054717332599617</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>6.409899988516575</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1.581112833882155</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1.049708723012207</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>14.18042854060756</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>5.72482508879397</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>1.034617021288222</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>15.65303375436658</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>4.939609604522587</v>
-      </c>
-      <c r="AS19" t="inlineStr">
+        <v>49.45168601800441</v>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-64.75163075811771</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-23.53456350585271</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.000044449307687</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-163.0052867385798</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-13.98468957374492</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.000104664240358</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-85.00651732956878</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.087387556861926</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.9871870365130698</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.001247240771663761</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.001870647475292839</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.9757572568895144</v>
+      </c>
+      <c r="P20" t="n">
+        <v>87.93849236750316</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>29.82150864405313</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.003499576218333</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.00417124645384442</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-0.002121582967122944</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.9862649625122296</v>
+      </c>
+      <c r="V20" t="n">
+        <v>97.70646468353003</v>
+      </c>
+      <c r="W20" t="n">
+        <v>34.79603066306738</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.996491658499164</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.003934289280574006</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.006730678007393817</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.9581496319020757</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>122.1238890034126</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>49.71342657033143</v>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-61.79759513331676</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-23.90262742979218</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.000010828747746</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-162.9997892223087</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-14.24431813490116</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.999965369582045</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-85.00416192805928</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.889722579968319</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.987094336505877</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.003935790822407558</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01018606082757721</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.975630501887622</v>
+      </c>
+      <c r="P21" t="n">
+        <v>87.08948086219472</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>30.06754339125393</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.003549527713444</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.0106128172631913</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.01027887402855421</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.9858618872846473</v>
+      </c>
+      <c r="V21" t="n">
+        <v>96.76116773412072</v>
+      </c>
+      <c r="W21" t="n">
+        <v>35.08110920934585</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.9963755776093465</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-0.00723154515809842</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.0002447890876710687</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.9578218558889162</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>120.9463951660129</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>50.11678154691671</v>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-63.76207418543856</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-24.02679683464851</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9999881196286072</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-162.996182835156</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-14.35182789230527</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9999439794917463</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-85.00002305200049</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.805312082543115</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.9867988545493067</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.002996867482846935</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.007365552624320577</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.9756522869781208</v>
+      </c>
+      <c r="P22" t="n">
+        <v>87.63977060784764</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>30.10688707314787</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.003510033971196</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.005188077309523456</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.00283831801286032</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.9856853005878851</v>
+      </c>
+      <c r="V22" t="n">
+        <v>97.39374513909078</v>
+      </c>
+      <c r="W22" t="n">
+        <v>35.13263168299849</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.9963980792484399</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.001722001616363882</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-0.004929218539854959</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.9574550934957742</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>121.7408027764938</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>50.17621937615746</v>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-61.46356696628398</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-24.19170964778075</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9998882288048612</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-162.9983290540968</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-14.45949458729553</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.999956867423042</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-85.00501339405531</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.721249435185068</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.9868952514927785</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.001022429838639466</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.001164900391877667</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.9754005398587615</v>
+      </c>
+      <c r="P23" t="n">
+        <v>86.97597645599723</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>30.23644118886798</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.003420987994099</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.003257960849999623</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.002446812156062132</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.985701617641381</v>
+      </c>
+      <c r="V23" t="n">
+        <v>96.63812977452017</v>
+      </c>
+      <c r="W23" t="n">
+        <v>35.26592153493906</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.9963242042831368</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.002089843015049251</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.01397169698294845</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.9572872820369318</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>120.8132466392288</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>50.38431898111998</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-58.98788422874592</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-23.9102355718136</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.000021511706452</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-162.9988840859738</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-14.20559136064076</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.999934995588063</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-84.99155747307319</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.948885607144758</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9867643320481503</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.003502278138358497</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.006464426819308536</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.975764433897085</v>
+      </c>
+      <c r="P24" t="n">
+        <v>86.26596017115561</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>30.09824042670323</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.003575730023398</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-0.005995511331202792</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0014362137525688</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.986080199208914</v>
+      </c>
+      <c r="V24" t="n">
+        <v>95.86170048367504</v>
+      </c>
+      <c r="W24" t="n">
+        <v>35.11480000024228</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.9963615436001808</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.008966404737078462</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-0.001311251219470134</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.9577116498558141</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>119.8208011528687</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>50.16732352752769</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-58.97106108124901</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-23.6216531179215</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.999924932110282</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-162.9932737467863</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-13.98594231215209</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.000137553962365</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-85.00514999590632</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.124968606049892</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9870698197491057</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.006965677633838961</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.0005009535295641653</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.9759110640338975</v>
+      </c>
+      <c r="P25" t="n">
+        <v>86.27613068879042</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>29.94636637337271</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.003548810703526</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.0007535407894982237</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.0002351647728024886</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.9861349961267827</v>
+      </c>
+      <c r="V25" t="n">
+        <v>95.86982036966714</v>
+      </c>
+      <c r="W25" t="n">
+        <v>34.93668662366115</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.9965328857849216</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-0.003904976971914476</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.006195664969236976</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.9578368197016426</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>119.8261536324899</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>49.91250784778135</v>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-57.50002879077313</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-23.74469551253464</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.000035218531958</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-162.9951148362876</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-14.04276849846477</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.000056620228947</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-85.00468263301941</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.09564874380908</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.986968513138384</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.0005287096700240101</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.002549507368647986</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.9759299458038319</v>
+      </c>
+      <c r="P26" t="n">
+        <v>85.84955941522009</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>30.00949122675121</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.003615170259294</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.004073027055406417</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-0.0006730303200884807</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.9863512778431628</v>
+      </c>
+      <c r="V26" t="n">
+        <v>95.38679301563444</v>
+      </c>
+      <c r="W26" t="n">
+        <v>35.01508825105654</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.9963270064103453</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.00406122855868001</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.005232079409663002</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.9577768535408079</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>119.2302398490069</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>50.02246565742809</v>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-60.1784181797031</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-23.60104105795768</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.000097184639916</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-163.0040772769884</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-13.97741371734004</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9999579058305648</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-85.00509160916931</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.125157434892778</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9870032687342796</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.002532357837269181</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00316734360426164</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.9760538484984581</v>
+      </c>
+      <c r="P27" t="n">
+        <v>86.62446398668679</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>29.91590056916678</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.003620451222818</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0003961812313505048</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.01258210501846056</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.9861438628713409</v>
+      </c>
+      <c r="V27" t="n">
+        <v>96.24751774932112</v>
+      </c>
+      <c r="W27" t="n">
+        <v>34.89913484277554</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.996514700985945</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0.003117487984298438</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.006735101324289977</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>120.3016732704865</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>49.86461378648459</v>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-61.26115938121908</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-23.6732903662041</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.000079059442819</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-163.001123229775</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-14.05209212182871</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.00012502450429</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-84.99494882063068</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.05035151600953</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9869310520548152</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.003919074786322717</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.00122700180918423</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.9759081880096987</v>
+      </c>
+      <c r="P28" t="n">
+        <v>86.92852671727323</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>29.95479270514188</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.003620651421919</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0004242404174955788</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-0.001902804992916546</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.9861277091697386</v>
+      </c>
+      <c r="V28" t="n">
+        <v>96.59076792965732</v>
+      </c>
+      <c r="W28" t="n">
+        <v>34.9352522341015</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.996428191624449</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.004500519270419653</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.002291914855772061</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>120.7306325933893</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>49.91037645321716</v>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-59.22150675523566</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-24.12423978409893</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.000086115341319</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-162.999934668203</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-14.3723243045072</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9998235663537254</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-84.99431671894631</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.805382162400379</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.986854037056534</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.004447289996250129</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.005638739406293867</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.975719351217717</v>
+      </c>
+      <c r="P29" t="n">
+        <v>86.34275888595789</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>30.21617267865627</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.003351223469324</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.0112192808213309</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-0.007737256628982189</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.9859168195416127</v>
+      </c>
+      <c r="V29" t="n">
+        <v>95.93886618102978</v>
+      </c>
+      <c r="W29" t="n">
+        <v>35.24602932888124</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.9961540388071816</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.0002043796054556772</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.001272190839583449</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>119.9248235933063</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>50.35915270584975</v>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-60.98071813447604</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-24.52984988851351</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9999125502755448</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-163.0024880502112</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-14.71507383825757</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.000034150957406</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-84.99594385783872</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.509486791215389</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9864215394524946</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.006782206334154934</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.001639960957836273</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.9748789309667817</v>
+      </c>
+      <c r="P30" t="n">
+        <v>86.85092723448872</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>30.42391216285731</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.003390663463368</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.001373117945652897</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-0.0006445054283856767</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.985561375992521</v>
+      </c>
+      <c r="V30" t="n">
+        <v>96.49466050935052</v>
+      </c>
+      <c r="W30" t="n">
+        <v>35.48655955009644</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.9961095384980635</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-0.005965328165379227</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.001631679172164358</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>120.6170747765652</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>50.69852796668908</v>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-61.73771457781145</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-24.53727401095924</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.000021530724152</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-162.9961845257957</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-14.72879599086579</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.99999182649784</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-85.00059950138936</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.492170525524588</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9864266101713803</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.00351516423403048</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.01874818492464488</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.9751146824097762</v>
+      </c>
+      <c r="P31" t="n">
+        <v>87.05842943201958</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>30.42083831128881</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.00338706306467</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.004853767190538416</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.002962776856322705</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.9856400064603295</v>
+      </c>
+      <c r="V31" t="n">
+        <v>96.73837511539188</v>
+      </c>
+      <c r="W31" t="n">
+        <v>35.48479100736978</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.9960005302947176</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.004128023047870137</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.0005275390126636176</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>120.9179689050436</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>50.69307754315904</v>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-62.72615973549369</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-24.70993035835187</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9998683379465229</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-163.0061560370985</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-14.87306060093111</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9998646217222165</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-85.00424496010966</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.354984256591171</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9864442258187324</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.001170277589660481</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.002794401216467732</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.9748853109266559</v>
+      </c>
+      <c r="P32" t="n">
+        <v>87.34738804167891</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>30.50031622509635</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.003217348791531</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.005131488505750933</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-0.00902190381090506</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.9854773946666294</v>
+      </c>
+      <c r="V32" t="n">
+        <v>97.05435865780055</v>
+      </c>
+      <c r="W32" t="n">
+        <v>35.58185780590788</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.9959502703086173</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-0.001125920838925958</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.00161947480217723</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>121.3240563128558</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>50.83317034448047</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-65.28003958097842</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-24.29453179251452</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.000082416840961</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-162.9851201769452</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-14.5814265126401</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.000006326029129</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-85.00681214406835</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.588958022667073</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9867321244460852</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.005302907131878666</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.004355422009746741</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.9754459719756537</v>
+      </c>
+      <c r="P33" t="n">
+        <v>88.07750755197449</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>30.24616085059764</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.003315422578036</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-0.003306967196496214</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-0.01019956286212184</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.9857446673748665</v>
+      </c>
+      <c r="V33" t="n">
+        <v>97.87407156408631</v>
+      </c>
+      <c r="W33" t="n">
+        <v>35.27732470585207</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.9962340908407353</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.001981381120510815</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.006126514456218839</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>122.3318444396055</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>50.39594299694286</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-66.75109415949471</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-24.05109871441755</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9999980744423659</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-163.0060568128694</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-14.40777435797295</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.999970072450867</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-85.00506736450733</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.72697330365558</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.9869747102155036</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.0002777619100647106</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.005127695492760921</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.9755010662298468</v>
+      </c>
+      <c r="P34" t="n">
+        <v>88.5044316819652</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>30.08140787119721</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.003370380574893</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.002428965267206846</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.002570467591774951</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.9857197543445168</v>
+      </c>
+      <c r="V34" t="n">
+        <v>98.34041113608737</v>
+      </c>
+      <c r="W34" t="n">
+        <v>35.08640539826581</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.9961980931537632</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.005049751065143912</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.0005071186840767472</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>122.9191374739862</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>50.13779492457153</v>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9998789888583645</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-63.97736225190593</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-24.24324236234278</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.00011223808495</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-162.9979886381724</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-14.5243000148185</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9998808984848917</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-85.00427960641265</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.636546807789102</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9868543578902933</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.00285830808715558</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00217533936579662</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.9752895549894888</v>
+      </c>
+      <c r="P35" t="n">
+        <v>87.70593612605659</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>30.22813264856004</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.003677230196896</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-0.001357249699096685</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.001213461975426173</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.9856562125966952</v>
+      </c>
+      <c r="V35" t="n">
+        <v>97.45359135616449</v>
+      </c>
+      <c r="W35" t="n">
+        <v>35.27186897254538</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.9961187389428369</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.00441600030425262</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.001378517875299923</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.9571420520741883</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>121.8215071151328</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>50.38677771744656</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.999941675109931</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-61.39586276265508</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-23.98409194846884</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9999586114124944</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-163.0029163383826</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-14.28302289060151</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.000031064386901</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-84.99292557557843</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.852390810706182</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.9869667557023623</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.003772021758894905</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.01185840251545207</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.9754163523445447</v>
+      </c>
+      <c r="P36" t="n">
+        <v>86.96634198745156</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>30.11069432755096</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.003302751058576</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.004820795523711038</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-0.002317226038558543</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.9859621291644369</v>
+      </c>
+      <c r="V36" t="n">
+        <v>96.62681603490626</v>
+      </c>
+      <c r="W36" t="n">
+        <v>35.13599030160549</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.9962776253990355</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.004958298791902497</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-0.003589124627839921</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.9577162163085224</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>120.7852680018369</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>50.18155949411543</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9999544848210491</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-63.29826143005288</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-23.5370205660527</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.000111294286387</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-162.9935193522479</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-13.98159196499404</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.9999118166255545</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-85.01001694939002</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.107343660946906</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.9870937398730065</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.001445442794255506</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.005062331301279692</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.9757549374368096</v>
+      </c>
+      <c r="P37" t="n">
+        <v>87.51935961094298</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>29.84720347921016</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.003770181915042</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.003901721925112415</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.006086975596860972</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.9862838080948391</v>
+      </c>
+      <c r="V37" t="n">
+        <v>97.23405181297335</v>
+      </c>
+      <c r="W37" t="n">
+        <v>34.82052066444236</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.9964568916132658</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-0.006877945837075904</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-0.003428948524054907</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.9579215105271577</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>121.5606327632211</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>49.75190609509182</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9998537244931526</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-65.83940488706907</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-23.20677184560893</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9998455844445094</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-163.0054875167854</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-13.74412517335956</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9999688646494683</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-85.00275584272146</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.285330466392312</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9873258893744719</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.003107920251699174</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.003477757828473041</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.9762455090426779</v>
+      </c>
+      <c r="P38" t="n">
+        <v>88.24425269286283</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>29.63355152896092</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.003900773052179</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.003328188044760482</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.00242311722918022</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.9863997246347928</v>
+      </c>
+      <c r="V38" t="n">
+        <v>98.04993019889885</v>
+      </c>
+      <c r="W38" t="n">
+        <v>34.58044306073726</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.9966888987790031</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-0.00285926847942212</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.007089031397797715</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.9584138643541893</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>122.5632638338836</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>49.38867714204092</v>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9999130296079835</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-67.94386665421354</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-23.1720646843591</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9999946142648108</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-163.0009287144754</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-13.74304945380638</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9999678383937647</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-84.99926243639554</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.279058723634144</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9873042708560914</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.003217645004892344</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.008653205937994421</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.9762977393265994</v>
+      </c>
+      <c r="P39" t="n">
+        <v>88.84851295548198</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>29.57465691136091</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.003825813957855</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.005791261317452361</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.005464123227965046</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.9862952293753103</v>
+      </c>
+      <c r="V39" t="n">
+        <v>98.72430366480114</v>
+      </c>
+      <c r="W39" t="n">
+        <v>34.51144881960322</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.9966485254324721</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-0.001694133963408641</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.004138296789158353</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.9585480230776934</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>123.4002263725118</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>49.30714096071988</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.000061243353868</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-65.93520499757395</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-23.01571581396808</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9999670325791082</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-162.9939908785955</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-13.60208133029322</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.9999528631768653</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-84.99334304817528</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.40739728875207</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9873941151314101</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0007798322631557021</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.002889635195886807</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.9764662364635711</v>
+      </c>
+      <c r="P40" t="n">
+        <v>88.28053169616044</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>29.53611897232567</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.003794787733793</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.001698774956457971</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.004972821492206779</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.9865950230308751</v>
+      </c>
+      <c r="V40" t="n">
+        <v>98.09059445908531</v>
+      </c>
+      <c r="W40" t="n">
+        <v>34.44807343828816</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.996840664234748</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.002752648815459274</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>7.765979547458954e-05</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.9584250301937246</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>122.5940490745213</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>49.21576190577293</v>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9999921769116429</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-66.75083473001079</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-22.64415128444097</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9999727373311782</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-162.9935951667313</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-13.338967888446</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9999659218598647</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-85.00105982836725</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.635023755889429</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9877134229604018</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.003957797842349716</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.002374542383253413</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.9768536901927022</v>
+      </c>
+      <c r="P41" t="n">
+        <v>88.50911762539003</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>29.31603878620391</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.003943597482387</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-0.002926504177987008</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.006768955302625329</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.9870925866768128</v>
+      </c>
+      <c r="V41" t="n">
+        <v>98.34311440075815</v>
+      </c>
+      <c r="W41" t="n">
+        <v>34.20443245993908</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.996731786005669</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-0.009953202377671116</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.009980534097704344</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.9589854643527654</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>122.9428511875199</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>48.85745540811963</v>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9999658995365597</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-69.15735537625196</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-23.03991179497325</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.000057065573454</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-162.995795612119</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-13.65531926348797</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.000067556764399</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-85.00891142444151</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.346830910168426</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.9873667863047469</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.002583385953411318</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.00266607843963026</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.9764607563330977</v>
+      </c>
+      <c r="P42" t="n">
+        <v>89.19799629313728</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>29.48479732138534</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.00365192884769</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.003343213125347344</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-0.0013582671877175</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.9864416036572108</v>
+      </c>
+      <c r="V42" t="n">
+        <v>99.10981355323344</v>
+      </c>
+      <c r="W42" t="n">
+        <v>34.40652092852295</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.9966431711866329</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-0.0002956684332060322</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.002790905349062973</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.9586332022818561</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>123.8933191674256</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>49.1410638084486</v>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9999367853573969</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-66.7992985709427</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-23.08678438319093</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9999174843572636</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-162.9946998482503</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-13.66110461385249</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9998902886371268</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-84.99748409137786</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4.361130828066301</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.9874320682043021</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.00505285639693183</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.006778629482205204</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.9763724047345441</v>
+      </c>
+      <c r="P43" t="n">
+        <v>88.52240211669644</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>29.54926754868122</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.003843802631524</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-0.00190482855561484</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.002149832292615221</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.986400250628042</v>
+      </c>
+      <c r="V43" t="n">
+        <v>98.35879270110358</v>
+      </c>
+      <c r="W43" t="n">
+        <v>34.47525074696756</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.996625119601836</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.0007679139678264588</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>-0.004738339471394754</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.9587052392603922</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>122.9556773474154</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>49.25233799538028</v>
+      </c>
+      <c r="AD43" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>

--- a/data_exports/data_export.xlsx
+++ b/data_exports/data_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AS35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,6 +576,81 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>V_bus_9</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P_bus_9</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Q_bus_9</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>V_bus_10</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>P_bus_10</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Q_bus_10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>V_bus_11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>P_bus_11</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Q_bus_11</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>V_bus_12</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P_bus_12</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Q_bus_12</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>V_bus_13</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>P_bus_13</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Q_bus_13</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
           <t>label</t>
         </is>
       </c>
@@ -588,87 +663,132 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.000038564081079</v>
+        <v>1.060058440965118</v>
       </c>
       <c r="D2" t="n">
-        <v>-69.09627281914663</v>
+        <v>-230.5451102992008</v>
       </c>
       <c r="E2" t="n">
-        <v>-23.98045147767853</v>
+        <v>16.28748421406733</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999230764152137</v>
+        <v>1.04489826061246</v>
       </c>
       <c r="G2" t="n">
-        <v>-163.0028934460019</v>
+        <v>-18.44489525939585</v>
       </c>
       <c r="H2" t="n">
-        <v>-14.379090097176</v>
+        <v>-30.31037375488826</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000242356910262</v>
+        <v>1.00999920920647</v>
       </c>
       <c r="J2" t="n">
-        <v>-85.0032924554021</v>
+        <v>93.59287163153036</v>
       </c>
       <c r="K2" t="n">
-        <v>3.734521561769668</v>
+        <v>-5.722198690494686</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9870692944703056</v>
+        <v>1.017961118877078</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003115409993415549</v>
+        <v>47.48951115440393</v>
       </c>
       <c r="N2" t="n">
-        <v>0.004958797251264075</v>
+        <v>-3.857052548940991</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9755873661421121</v>
+        <v>1.019622944198767</v>
       </c>
       <c r="P2" t="n">
-        <v>89.17691551908324</v>
+        <v>7.555771298919614</v>
       </c>
       <c r="Q2" t="n">
-        <v>30.01411367864828</v>
+        <v>1.581420931227442</v>
       </c>
       <c r="R2" t="n">
-        <v>1.003438210616665</v>
+        <v>1.070137891319802</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005648088323132672</v>
+        <v>11.1325399781017</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.003749657840966365</v>
+        <v>-4.891735269542601</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9858100012900275</v>
+        <v>1.061753505443104</v>
       </c>
       <c r="V2" t="n">
-        <v>99.08754924900396</v>
+        <v>0.000179033466236385</v>
       </c>
       <c r="W2" t="n">
-        <v>35.01677171477613</v>
+        <v>-0.005402944621491013</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9961532559552843</v>
+        <v>1.089946557163818</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.002493608404919069</v>
+        <v>0.01528630232524023</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.008935218233878148</v>
+        <v>-17.48259789855536</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9577317185416521</v>
+        <v>1.056216806336291</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.8627620484512</v>
+        <v>29.3106731616381</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.02531088800657</v>
-      </c>
-      <c r="AD2" t="inlineStr">
+        <v>-4.763526544256417</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.051507969144152</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>8.946504277396077</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5.7413834846541</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1.057179056844991</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>3.471168021917558</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1.779927866451796</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.055320981629069</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>6.050218119640613</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.5825404039179</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.050657726474383</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>13.41555757338676</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>5.746042114606132</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.035932492148296</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>14.80632640541888</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>4.955603316381179</v>
+      </c>
+      <c r="AS2" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -682,87 +802,132 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999371115121025</v>
+        <v>1.060030627587322</v>
       </c>
       <c r="D3" t="n">
-        <v>-66.2775465614135</v>
+        <v>-228.7094287262526</v>
       </c>
       <c r="E3" t="n">
-        <v>-23.92203709203077</v>
+        <v>16.01562643708881</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999086286636254</v>
+        <v>1.044959083931459</v>
       </c>
       <c r="G3" t="n">
-        <v>-162.9963314637316</v>
+        <v>-18.57408116319188</v>
       </c>
       <c r="H3" t="n">
-        <v>-14.30346660181725</v>
+        <v>-29.76440869650631</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9998014794985107</v>
+        <v>1.009869109975041</v>
       </c>
       <c r="J3" t="n">
-        <v>-85.01120335831661</v>
+        <v>93.00292652048886</v>
       </c>
       <c r="K3" t="n">
-        <v>3.815130680125498</v>
+        <v>-5.360296141553897</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9868272146993934</v>
+        <v>1.018111091244396</v>
       </c>
       <c r="M3" t="n">
-        <v>-4.955422028058364e-05</v>
+        <v>47.18986834374665</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.005276378010191389</v>
+        <v>-3.824003413760326</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9755229596246626</v>
+        <v>1.019827231287378</v>
       </c>
       <c r="P3" t="n">
-        <v>88.37044915125668</v>
+        <v>7.50311344468478</v>
       </c>
       <c r="Q3" t="n">
-        <v>30.01944233361813</v>
+        <v>1.570299735390219</v>
       </c>
       <c r="R3" t="n">
-        <v>1.003450605209451</v>
+        <v>1.069938854566996</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.005346609029586562</v>
+        <v>11.05815198434965</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.003431742128464234</v>
+        <v>-4.544066375385353</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9857962475367704</v>
+        <v>1.061942878467179</v>
       </c>
       <c r="V3" t="n">
-        <v>98.18939107385653</v>
+        <v>-0.007112769393187851</v>
       </c>
       <c r="W3" t="n">
-        <v>35.01710680149218</v>
+        <v>-0.009483284344666469</v>
       </c>
       <c r="X3" t="n">
-        <v>0.996215758607541</v>
+        <v>1.090004812697406</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.005343517213336394</v>
+        <v>0.006077067745057647</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.008162029391292574</v>
+        <v>-17.32660286401871</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.957422912899184</v>
+        <v>1.056678241211391</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.737390481451</v>
+        <v>29.13018392494817</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.03143623778017</v>
-      </c>
-      <c r="AD3" t="inlineStr">
+        <v>-4.953677112259817</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.051621038524077</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>8.882890375035968</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5.686271679152106</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1.057263338095537</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3.453388209055761</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1.77149399769049</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.055388344194958</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6.021182621818588</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.570090903180811</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.050706936033118</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13.32722494075429</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5.684686626732621</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.036422474536222</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>14.70596903069089</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>4.891795373171701</v>
+      </c>
+      <c r="AS3" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -776,87 +941,132 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.000093417536063</v>
+        <v>1.060043061509506</v>
       </c>
       <c r="D4" t="n">
-        <v>-63.9273283886353</v>
+        <v>-227.5305432691174</v>
       </c>
       <c r="E4" t="n">
-        <v>-23.44509115874609</v>
+        <v>15.84234642082069</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000102455551452</v>
+        <v>1.044913966402631</v>
       </c>
       <c r="G4" t="n">
-        <v>-163.0042528237305</v>
+        <v>-18.65928213332327</v>
       </c>
       <c r="H4" t="n">
-        <v>-13.91392300397375</v>
+        <v>-29.40028660067829</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000090387320491</v>
+        <v>1.009811679446569</v>
       </c>
       <c r="J4" t="n">
-        <v>-85.00055229679515</v>
+        <v>92.61469636752165</v>
       </c>
       <c r="K4" t="n">
-        <v>4.155810381536059</v>
+        <v>-5.140433484497756</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9871824211110503</v>
+        <v>1.018180296155383</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003098341988715985</v>
+        <v>46.9966712093772</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0003246148032404885</v>
+        <v>-3.796607547772425</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9759306945974449</v>
+        <v>1.020144220749585</v>
       </c>
       <c r="P4" t="n">
-        <v>87.68865047274231</v>
+        <v>7.477622051091282</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.79179840427727</v>
+        <v>1.549991920275174</v>
       </c>
       <c r="R4" t="n">
-        <v>1.003736596434583</v>
+        <v>1.070037170140981</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.003020011493043393</v>
+        <v>11.01344843904354</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.0005861588061496563</v>
+        <v>-4.270365156967598</v>
       </c>
       <c r="U4" t="n">
-        <v>0.986293454953223</v>
+        <v>1.062148854773784</v>
       </c>
       <c r="V4" t="n">
-        <v>97.43999945706787</v>
+        <v>-0.01179836614855566</v>
       </c>
       <c r="W4" t="n">
-        <v>34.76468563053086</v>
+        <v>0.00590732743712053</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9965863150784963</v>
+        <v>1.090174605293442</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.003697654535588598</v>
+        <v>-0.0009183189121014248</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.003509863893655762</v>
+        <v>-17.21693303035327</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9582223803732469</v>
+        <v>1.057117319353644</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.8142170083044</v>
+        <v>28.99683567357608</v>
       </c>
       <c r="AC4" t="n">
-        <v>49.66476250904462</v>
-      </c>
-      <c r="AD4" t="inlineStr">
+        <v>-5.103735807689047</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.052145865616352</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8.844991795223795</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>5.630595446117389</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1.057490986533712</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>3.449366905736809</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1.749460405993555</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.055511238431465</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>6.000928799770225</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1.54373902599056</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.050868059283008</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>13.28002442524179</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5.634231593743923</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.036897329621699</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>14.6461492699529</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>4.85148467012452</v>
+      </c>
+      <c r="AS4" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -870,87 +1080,132 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>1.000138039567588</v>
+        <v>1.059976233642491</v>
       </c>
       <c r="D5" t="n">
-        <v>-61.61114573504645</v>
+        <v>-229.6635779242516</v>
       </c>
       <c r="E5" t="n">
-        <v>-23.32936494567983</v>
+        <v>16.15468769698724</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999889169887928</v>
+        <v>1.044851121013435</v>
       </c>
       <c r="G5" t="n">
-        <v>-163.0006790338367</v>
+        <v>-18.50147417847379</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.78510101361908</v>
+        <v>-30.01712612276486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9998768498975301</v>
+        <v>1.010077797048508</v>
       </c>
       <c r="J5" t="n">
-        <v>-85.00512566858632</v>
+        <v>93.31813080303492</v>
       </c>
       <c r="K5" t="n">
-        <v>4.276128596157613</v>
+        <v>-5.531896980028399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9871107588140811</v>
+        <v>1.018031737800012</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001308508289849939</v>
+        <v>47.34655172493117</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.005230724716653735</v>
+        <v>-3.817261473493578</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9761487536379402</v>
+        <v>1.019835776223848</v>
       </c>
       <c r="P5" t="n">
-        <v>87.03420146945315</v>
+        <v>7.530072748900312</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.7411065902382</v>
+        <v>1.562500471501878</v>
       </c>
       <c r="R5" t="n">
-        <v>1.003543395602961</v>
+        <v>1.069975428760454</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.005301425151552725</v>
+        <v>11.08504499150815</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.01053582788886596</v>
+        <v>-4.541446165748568</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9864960351560272</v>
+        <v>1.061851731873697</v>
       </c>
       <c r="V5" t="n">
-        <v>96.71044476688402</v>
+        <v>-0.001414752669744664</v>
       </c>
       <c r="W5" t="n">
-        <v>34.71485358491397</v>
+        <v>0.009905607085619324</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9965901893802785</v>
+        <v>1.090132199950172</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.0009486663162992826</v>
+        <v>-0.003786317871552799</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.004586057770851595</v>
+        <v>-17.33916042264692</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.958239477864533</v>
+        <v>1.056602257289457</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.8801205818084</v>
+        <v>29.22697600694091</v>
       </c>
       <c r="AC5" t="n">
-        <v>49.58464693983849</v>
-      </c>
-      <c r="AD5" t="inlineStr">
+        <v>-4.995883541795126</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.05184662133463</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.91747506883317</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5.66030381329012</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.057343343047003</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3.462712152887609</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.753463720619663</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.055498352994525</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>6.042346550592806</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.564143850276216</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.05070970716601</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>13.36863691699078</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>5.667772767133392</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.036432468156294</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>14.7615194596766</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.88644577109245</v>
+      </c>
+      <c r="AS5" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -964,87 +1219,132 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9997803690743601</v>
+        <v>1.06011059479634</v>
       </c>
       <c r="D6" t="n">
-        <v>-63.51948368482341</v>
+        <v>-226.9672486038377</v>
       </c>
       <c r="E6" t="n">
-        <v>-23.32506753123901</v>
+        <v>15.75352162274612</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000138206723036</v>
+        <v>1.045019475175563</v>
       </c>
       <c r="G6" t="n">
-        <v>-162.9890821738307</v>
+        <v>-18.69954875153022</v>
       </c>
       <c r="H6" t="n">
-        <v>-13.8195125475794</v>
+        <v>-29.25352479518283</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9998719130316861</v>
+        <v>1.010017157122188</v>
       </c>
       <c r="J6" t="n">
-        <v>-84.99883061849702</v>
+        <v>92.44076526022607</v>
       </c>
       <c r="K6" t="n">
-        <v>4.242378509139764</v>
+        <v>-5.032999247511634</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9872941094789999</v>
+        <v>1.018326806739654</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01239771324691272</v>
+        <v>46.89968069261369</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003087019262574838</v>
+        <v>-3.790557333565277</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9761163259450066</v>
+        <v>1.020060498334665</v>
       </c>
       <c r="P6" t="n">
-        <v>87.58446940496569</v>
+        <v>7.460612687116946</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.73159142931253</v>
+        <v>1.556008111249365</v>
       </c>
       <c r="R6" t="n">
-        <v>1.003484104924022</v>
+        <v>1.070025639155356</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.003222239990657049</v>
+        <v>10.99669501065414</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.002654783967882722</v>
+        <v>-4.270904678862546</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9864566562539077</v>
+        <v>1.062294418425748</v>
       </c>
       <c r="V6" t="n">
-        <v>97.30896641675385</v>
+        <v>-0.001550930211826102</v>
       </c>
       <c r="W6" t="n">
-        <v>34.69565499472837</v>
+        <v>-0.001310191092685963</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9965681577226473</v>
+        <v>1.089991230313431</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.004517943026805687</v>
+        <v>0.003499501025579543</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.008291337986954089</v>
+        <v>-17.20783516840752</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9583784756433883</v>
+        <v>1.056849623883201</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.6352585798852</v>
+        <v>28.94418532518702</v>
       </c>
       <c r="AC6" t="n">
-        <v>49.55329071507799</v>
-      </c>
-      <c r="AD6" t="inlineStr">
+        <v>-5.086103100731934</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.052138524020739</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>8.82407286894996</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>5.633182726624032</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.057544916757197</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3.441268118717294</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1.745456566774471</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.055563196676983</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>5.985848504418763</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.550003851056203</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.051035589281478</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>13.24089760122055</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.634321670879221</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.03695245856147</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>14.62625201321024</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>4.865734996837738</v>
+      </c>
+      <c r="AS6" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1058,87 +1358,132 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.00006495684955</v>
+        <v>1.059975517891355</v>
       </c>
       <c r="D7" t="n">
-        <v>-65.23253300965864</v>
+        <v>-226.5359922495914</v>
       </c>
       <c r="E7" t="n">
-        <v>-23.02119181965267</v>
+        <v>15.6914657765986</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999454448237308</v>
+        <v>1.044910808271843</v>
       </c>
       <c r="G7" t="n">
-        <v>-163.0027339040576</v>
+        <v>-18.73517061127787</v>
       </c>
       <c r="H7" t="n">
-        <v>-13.60600138576902</v>
+        <v>-29.13240099987737</v>
       </c>
       <c r="I7" t="n">
-        <v>1.000116437646491</v>
+        <v>1.010049010226812</v>
       </c>
       <c r="J7" t="n">
-        <v>-85.00504125618916</v>
+        <v>92.29121233115943</v>
       </c>
       <c r="K7" t="n">
-        <v>4.428834392329011</v>
+        <v>-4.955963838640605</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9873663400011773</v>
+        <v>1.018360370296048</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002592631609536556</v>
+        <v>46.83302135714015</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0009482457966838841</v>
+        <v>-3.792179882145713</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9763959457496511</v>
+        <v>1.019900191190924</v>
       </c>
       <c r="P7" t="n">
-        <v>88.07516847534424</v>
+        <v>7.443581257287353</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.54134617151151</v>
+        <v>1.558413438015778</v>
       </c>
       <c r="R7" t="n">
-        <v>1.003906157376912</v>
+        <v>1.070062088176931</v>
       </c>
       <c r="S7" t="n">
-        <v>0.003929860748852359</v>
+        <v>10.97633172459295</v>
       </c>
       <c r="T7" t="n">
-        <v>0.006197405061314133</v>
+        <v>-4.2382182550942</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9864696295254638</v>
+        <v>1.062040009059128</v>
       </c>
       <c r="V7" t="n">
-        <v>97.86310302523566</v>
+        <v>-0.009871374466348875</v>
       </c>
       <c r="W7" t="n">
-        <v>34.46493259363812</v>
+        <v>0.005314431520477897</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9966994369763034</v>
+        <v>1.090262704737947</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.001941128684406456</v>
+        <v>0.005898890704667408</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.00467834715684968</v>
+        <v>-17.19662023916437</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9586645938831038</v>
+        <v>1.057025957788189</v>
       </c>
       <c r="AB7" t="n">
-        <v>122.3276097915651</v>
+        <v>28.90086140648545</v>
       </c>
       <c r="AC7" t="n">
-        <v>49.22662357756519</v>
-      </c>
-      <c r="AD7" t="inlineStr">
+        <v>-5.088119027111095</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.052134471737863</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8.818626703837294</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5.642652664001441</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.057820447852259</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>3.430346272267166</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1.756502874180924</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.055509937306244</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>5.969253627499637</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.540657312079254</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.05085257415397</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>13.2280937289557</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.639145826038069</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.03683825171576</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>14.59852056862674</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>4.86199460136566</v>
+      </c>
+      <c r="AS7" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1152,87 +1497,132 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.000292630996735</v>
+        <v>1.060070337494992</v>
       </c>
       <c r="D8" t="n">
-        <v>-66.23192157602281</v>
+        <v>-224.2110656107502</v>
       </c>
       <c r="E8" t="n">
-        <v>-23.48658340190124</v>
+        <v>15.34186487140895</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000020744977124</v>
+        <v>1.04500690965653</v>
       </c>
       <c r="G8" t="n">
-        <v>-162.9979665681088</v>
+        <v>-18.90618456184422</v>
       </c>
       <c r="H8" t="n">
-        <v>-13.97179176198051</v>
+        <v>-28.46195156712387</v>
       </c>
       <c r="I8" t="n">
-        <v>0.999986583771425</v>
+        <v>1.01003570589603</v>
       </c>
       <c r="J8" t="n">
-        <v>-84.99718136423755</v>
+        <v>91.52933419561681</v>
       </c>
       <c r="K8" t="n">
-        <v>4.092177086003535</v>
+        <v>-4.51105323167317</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9871413716789207</v>
+        <v>1.018487257046096</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0005837759490906708</v>
+        <v>46.44393352327467</v>
       </c>
       <c r="N8" t="n">
-        <v>0.004588636656930179</v>
+        <v>-3.752410238896969</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9759050872189166</v>
+        <v>1.020351356541042</v>
       </c>
       <c r="P8" t="n">
-        <v>88.35844020082604</v>
+        <v>7.381589243829994</v>
       </c>
       <c r="Q8" t="n">
-        <v>29.78808636273551</v>
+        <v>1.540393353361506</v>
       </c>
       <c r="R8" t="n">
-        <v>1.003670353518674</v>
+        <v>1.06997680459872</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.00429143791506563</v>
+        <v>10.87921288666882</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01232177079409354</v>
+        <v>-3.922565628728186</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9861772720954275</v>
+        <v>1.062479914256051</v>
       </c>
       <c r="V8" t="n">
-        <v>98.17677016916312</v>
+        <v>0.00305004514539346</v>
       </c>
       <c r="W8" t="n">
-        <v>34.75426054731762</v>
+        <v>-0.0004199352770336041</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9964401090560475</v>
+        <v>1.090145468867113</v>
       </c>
       <c r="Y8" t="n">
-        <v>-3.320806847073207e-05</v>
+        <v>-0.002806312270445387</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0003549069373187401</v>
+        <v>-17.05532726439831</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9583000423741742</v>
+        <v>1.057541958665445</v>
       </c>
       <c r="AB8" t="n">
-        <v>122.7364975801364</v>
+        <v>28.67209587513952</v>
       </c>
       <c r="AC8" t="n">
-        <v>49.63971411555691</v>
-      </c>
-      <c r="AD8" t="inlineStr">
+        <v>-5.22165860045991</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.052486765815682</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>8.745204960078746</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5.60093821565337</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.057786928946218</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>3.390744972754737</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1.742330653595904</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.055643052768551</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>5.929869662111145</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.545423346203835</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.051283222743412</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>13.11271633823429</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>5.599056152009712</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1.037393315631695</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>14.47910085879755</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>4.833134320010942</v>
+      </c>
+      <c r="AS8" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1246,87 +1636,132 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.000029245892926</v>
+        <v>1.06000866060105</v>
       </c>
       <c r="D9" t="n">
-        <v>-65.63487711245325</v>
+        <v>-222.7922493264361</v>
       </c>
       <c r="E9" t="n">
-        <v>-23.49501398427041</v>
+        <v>15.13472321579595</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999753809325622</v>
+        <v>1.044897886994405</v>
       </c>
       <c r="G9" t="n">
-        <v>-162.9997359287421</v>
+        <v>-19.02131940249348</v>
       </c>
       <c r="H9" t="n">
-        <v>-13.97374233699108</v>
+        <v>-28.05733487195311</v>
       </c>
       <c r="I9" t="n">
-        <v>1.000086285090572</v>
+        <v>1.009972327326322</v>
       </c>
       <c r="J9" t="n">
-        <v>-85.00236826521811</v>
+        <v>91.07263034696469</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1048912035434</v>
+        <v>-4.248826291323732</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9870701142147305</v>
+        <v>1.018570402766937</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.005039916405072174</v>
+        <v>46.19972328106385</v>
       </c>
       <c r="N9" t="n">
-        <v>0.006838943210012823</v>
+        <v>-3.72802597868244</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9760789878470704</v>
+        <v>1.020405535620572</v>
       </c>
       <c r="P9" t="n">
-        <v>88.19122292042128</v>
+        <v>7.354987300291549</v>
       </c>
       <c r="Q9" t="n">
-        <v>29.79676896819587</v>
+        <v>1.527903185763848</v>
       </c>
       <c r="R9" t="n">
-        <v>1.003594636869316</v>
+        <v>1.069993462351943</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.004336949196992332</v>
+        <v>10.81709646071283</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.0006293848987320428</v>
+        <v>-3.660713665933222</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9862518249287207</v>
+        <v>1.062571523988784</v>
       </c>
       <c r="V9" t="n">
-        <v>97.99374126987499</v>
+        <v>-0.005387806855573309</v>
       </c>
       <c r="W9" t="n">
-        <v>34.76841839261027</v>
+        <v>0.002186629683654538</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9966525772588228</v>
+        <v>1.089899503203726</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.005973697213390631</v>
+        <v>-0.00932078465699707</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.001018640317635198</v>
+        <v>-16.93907207555987</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.9582016985193262</v>
+        <v>1.057683617220641</v>
       </c>
       <c r="AB9" t="n">
-        <v>122.4833454692113</v>
+        <v>28.518150868252</v>
       </c>
       <c r="AC9" t="n">
-        <v>49.66721234457322</v>
-      </c>
-      <c r="AD9" t="inlineStr">
+        <v>-5.355170690226498</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.052696010569123</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>8.702477119988275</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>5.555819419457426</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.05800601556976</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>3.385241853602688</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1.725155210743047</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.055763608842694</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>5.90737502089101</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.530428957071446</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.051381672647905</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>13.05766844106282</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5.551090461594842</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1.03764246978269</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>14.4062750111541</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>4.788203378658462</v>
+      </c>
+      <c r="AS9" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1340,87 +1775,132 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1.000113825858546</v>
+        <v>1.060260164776542</v>
       </c>
       <c r="D10" t="n">
-        <v>-67.51766517400792</v>
+        <v>-222.8127738659908</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31537099972256</v>
+        <v>15.13151624490927</v>
       </c>
       <c r="F10" t="n">
-        <v>1.000093549240949</v>
+        <v>1.045072231789001</v>
       </c>
       <c r="G10" t="n">
-        <v>-162.9961088272471</v>
+        <v>-19.02562120970097</v>
       </c>
       <c r="H10" t="n">
-        <v>-13.84900618529633</v>
+        <v>-28.06037138779666</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9998562295813358</v>
+        <v>1.010018073164297</v>
       </c>
       <c r="J10" t="n">
-        <v>-84.99853953079578</v>
+        <v>91.07923236524259</v>
       </c>
       <c r="K10" t="n">
-        <v>4.194846256820045</v>
+        <v>-4.242928528413899</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9872282627901614</v>
+        <v>1.01878920315882</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.001983950501377516</v>
+        <v>46.21662225707703</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0001777141192649172</v>
+        <v>-3.725057177038806</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9761536735657887</v>
+        <v>1.020404384068345</v>
       </c>
       <c r="P10" t="n">
-        <v>88.72159934559961</v>
+        <v>7.344135401340731</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.66672759860057</v>
+        <v>1.529076621621057</v>
       </c>
       <c r="R10" t="n">
-        <v>1.003716470731834</v>
+        <v>1.069901999031766</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001366049670005069</v>
+        <v>10.82595829582336</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.008254052893391636</v>
+        <v>-3.635044660829144</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9860734551039434</v>
+        <v>1.062700803802046</v>
       </c>
       <c r="V10" t="n">
-        <v>98.57429411131143</v>
+        <v>-0.006306133865698626</v>
       </c>
       <c r="W10" t="n">
-        <v>34.61104822222237</v>
+        <v>-0.007404994921224144</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9964622079472252</v>
+        <v>1.089981390848428</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004479307661174502</v>
+        <v>0.001617422356409504</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.001049084125934362</v>
+        <v>-16.93426280097288</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.958492222847113</v>
+        <v>1.057669372106017</v>
       </c>
       <c r="AB10" t="n">
-        <v>123.2303655689156</v>
+        <v>28.5168442794256</v>
       </c>
       <c r="AC10" t="n">
-        <v>49.4430698537128</v>
-      </c>
-      <c r="AD10" t="inlineStr">
+        <v>-5.396529748881184</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.052568631028035</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8.709284417630723</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5.544359974301314</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.05795885089593</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>3.388611345175783</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1.716907467786772</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.055814035101223</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>5.893804189579053</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.530352872733634</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.051276989951169</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>13.05549736275341</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>5.55377725009097</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.037826901206679</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>14.41342465146205</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>4.777716233928563</v>
+      </c>
+      <c r="AS10" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1434,87 +1914,132 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>1.000090200615082</v>
+        <v>1.059972475409829</v>
       </c>
       <c r="D11" t="n">
-        <v>-68.72266400708509</v>
+        <v>-220.1794648410459</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.37945745738731</v>
+        <v>14.71152682246637</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999727812590546</v>
+        <v>1.044973802421678</v>
       </c>
       <c r="G11" t="n">
-        <v>-163.0067121701025</v>
+        <v>-19.2189888490275</v>
       </c>
       <c r="H11" t="n">
-        <v>-13.90746260426289</v>
+        <v>-27.34965683828611</v>
       </c>
       <c r="I11" t="n">
-        <v>1.000168018682038</v>
+        <v>1.010018695817031</v>
       </c>
       <c r="J11" t="n">
-        <v>-85.00952453940285</v>
+        <v>90.20474090674665</v>
       </c>
       <c r="K11" t="n">
-        <v>4.130423486022138</v>
+        <v>-3.778147651263809</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9871728396512419</v>
+        <v>1.01891317551543</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0006820690378175945</v>
+        <v>45.76921322966889</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0001015803197675227</v>
+        <v>-3.739324831167994</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9761031749820366</v>
+        <v>1.020594036925788</v>
       </c>
       <c r="P11" t="n">
-        <v>89.07343250583131</v>
+        <v>7.28252585776667</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.68073601585254</v>
+        <v>1.541390594847326</v>
       </c>
       <c r="R11" t="n">
-        <v>1.003563237979874</v>
+        <v>1.070076627186715</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.001838347697884278</v>
+        <v>10.72775281914702</v>
       </c>
       <c r="T11" t="n">
-        <v>0.00988455194279372</v>
+        <v>-3.529305327696615</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9860505798511271</v>
+        <v>1.062783475824549</v>
       </c>
       <c r="V11" t="n">
-        <v>98.98496809697022</v>
+        <v>0.003075274993068782</v>
       </c>
       <c r="W11" t="n">
-        <v>34.63158834977702</v>
+        <v>0.004102823333177593</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9965060284304852</v>
+        <v>1.090038530492629</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.008206893066234254</v>
+        <v>0.006163163636571584</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.002011240438016886</v>
+        <v>-16.86940660548292</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.958451825454651</v>
+        <v>1.057830170827743</v>
       </c>
       <c r="AB11" t="n">
-        <v>123.7097435748202</v>
+        <v>28.24952309129706</v>
       </c>
       <c r="AC11" t="n">
-        <v>49.45985534779545</v>
-      </c>
-      <c r="AD11" t="inlineStr">
+        <v>-5.327847113563892</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.05287734231136</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>8.620633669330642</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5.55880651267751</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1.057990173644034</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>3.345548129266787</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1.725536312166463</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.055957111300454</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5.838339748728379</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.530548218317363</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.051359826486949</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>12.92747683801192</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5.568465257556211</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1.037820381608134</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>14.26507652014539</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>4.795876655114947</v>
+      </c>
+      <c r="AS11" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1528,87 +2053,132 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>1.000109421317784</v>
+        <v>1.06006267039174</v>
       </c>
       <c r="D12" t="n">
-        <v>-70.89324408080718</v>
+        <v>-222.1494854453165</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.74746920254063</v>
+        <v>15.03005158432682</v>
       </c>
       <c r="F12" t="n">
-        <v>1.000141416289194</v>
+        <v>1.045041412211174</v>
       </c>
       <c r="G12" t="n">
-        <v>-162.9992766613311</v>
+        <v>-19.07130281659044</v>
       </c>
       <c r="H12" t="n">
-        <v>-14.19887474087853</v>
+        <v>-27.87430689132553</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9999663691745416</v>
+        <v>1.010103449747566</v>
       </c>
       <c r="J12" t="n">
-        <v>-85.00249646565442</v>
+        <v>90.85121934224134</v>
       </c>
       <c r="K12" t="n">
-        <v>3.870062969729774</v>
+        <v>-4.134035147591438</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9872131526621366</v>
+        <v>1.018716343276923</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01241928829131706</v>
+        <v>46.10017630708793</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.002550033943926496</v>
+        <v>-3.729700549137384</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9757947937596053</v>
+        <v>1.020560960621767</v>
       </c>
       <c r="P12" t="n">
-        <v>89.70066539732829</v>
+        <v>7.33028953744402</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.83617696634055</v>
+        <v>1.529564733811001</v>
       </c>
       <c r="R12" t="n">
-        <v>1.003396307218636</v>
+        <v>1.070002164520703</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0003572819502196094</v>
+        <v>10.80559919929995</v>
       </c>
       <c r="T12" t="n">
-        <v>0.002694894207263068</v>
+        <v>-3.62198053258318</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9858631771261055</v>
+        <v>1.062597758606339</v>
       </c>
       <c r="V12" t="n">
-        <v>99.66682646903337</v>
+        <v>0.003165783152278655</v>
       </c>
       <c r="W12" t="n">
-        <v>34.81663674362505</v>
+        <v>0.003877887988389387</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9963783324269808</v>
+        <v>1.090131399605202</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.006133215023422898</v>
+        <v>0.002885242549893112</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.002492759795635796</v>
+        <v>-16.92886631317629</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9579406060956729</v>
+        <v>1.057644981784624</v>
       </c>
       <c r="AB12" t="n">
-        <v>124.5755438549669</v>
+        <v>28.45729909034202</v>
       </c>
       <c r="AC12" t="n">
-        <v>49.7392044130922</v>
-      </c>
-      <c r="AD12" t="inlineStr">
+        <v>-5.353885670988243</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.052833773433497</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>8.683799798135</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5.551264901343766</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1.058069133964627</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>3.374001406620496</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1.72469045594769</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.055857653383643</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>5.885953768623978</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.535779300525025</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.051397014021107</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>13.01977358602348</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5.548689490292965</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.03769233142577</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>14.37616720049548</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>4.792793905677572</v>
+      </c>
+      <c r="AS12" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1622,87 +2192,132 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999730469715538</v>
+        <v>1.059955752153239</v>
       </c>
       <c r="D13" t="n">
-        <v>-68.39600969065839</v>
+        <v>-221.4155300369394</v>
       </c>
       <c r="E13" t="n">
-        <v>-23.67621134545745</v>
+        <v>14.92165971609661</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000085352242258</v>
+        <v>1.045188156129956</v>
       </c>
       <c r="G13" t="n">
-        <v>-163.0024435264373</v>
+        <v>-19.12064060239902</v>
       </c>
       <c r="H13" t="n">
-        <v>-14.14209086456844</v>
+        <v>-27.65859183068624</v>
       </c>
       <c r="I13" t="n">
-        <v>1.000074947358211</v>
+        <v>1.01001855266509</v>
       </c>
       <c r="J13" t="n">
-        <v>-85.00572881361845</v>
+        <v>90.6338416938214</v>
       </c>
       <c r="K13" t="n">
-        <v>3.943707872912073</v>
+        <v>-3.989898767997156</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9872923395151212</v>
+        <v>1.018857224269701</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.009696059553640165</v>
+        <v>45.99105370276138</v>
       </c>
       <c r="N13" t="n">
-        <v>0.003189756614398628</v>
+        <v>-3.719104284248877</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9759106508014673</v>
+        <v>1.020692622659273</v>
       </c>
       <c r="P13" t="n">
-        <v>88.98965505619965</v>
+        <v>7.312596988562742</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.86223014190229</v>
+        <v>1.521584312937263</v>
       </c>
       <c r="R13" t="n">
-        <v>1.003431229061986</v>
+        <v>1.069923407398174</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.003742242827349626</v>
+        <v>10.77348114527008</v>
       </c>
       <c r="T13" t="n">
-        <v>0.005062690288267473</v>
+        <v>-3.507482594010419</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9859009940863336</v>
+        <v>1.062725239094459</v>
       </c>
       <c r="V13" t="n">
-        <v>98.87068498273</v>
+        <v>-0.002167443136736658</v>
       </c>
       <c r="W13" t="n">
-        <v>34.83326270556896</v>
+        <v>-0.001466963034702413</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9963951352736183</v>
+        <v>1.089925167682284</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.003029774971082832</v>
+        <v>-0.007538700112476823</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0006902512281453173</v>
+        <v>-16.86743645324331</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.9577769513822919</v>
+        <v>1.057902368908268</v>
       </c>
       <c r="AB13" t="n">
-        <v>123.5834845654974</v>
+        <v>28.38104731434945</v>
       </c>
       <c r="AC13" t="n">
-        <v>49.76120745945011</v>
-      </c>
-      <c r="AD13" t="inlineStr">
+        <v>-5.426536145569447</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.053005935579359</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>8.663890439009162</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>5.530151749208753</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.058113302099965</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>3.374939394517575</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1.714459701437808</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.055823623790244</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>5.878659985823446</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.520147044036607</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.051389667633905</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>12.98540681270176</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>5.526503130278228</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.037941233888104</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>14.33567435434753</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>4.782047292219658</v>
+      </c>
+      <c r="AS13" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
@@ -1716,89 +2331,134 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999523105662684</v>
+        <v>4.240401661856599</v>
       </c>
       <c r="D14" t="n">
-        <v>-70.37682021432593</v>
+        <v>-222.5867100973131</v>
       </c>
       <c r="E14" t="n">
-        <v>-23.69758482076709</v>
+        <v>15.10685789907446</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999473057394381</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-162.9969163239572</v>
+        <v>-19.03350301905899</v>
       </c>
       <c r="H14" t="n">
-        <v>-14.16559066463137</v>
+        <v>-27.95820296223162</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9999503998823198</v>
+        <v>1.009996675984249</v>
       </c>
       <c r="J14" t="n">
-        <v>-85.00514925459711</v>
+        <v>90.99633425357575</v>
       </c>
       <c r="K14" t="n">
-        <v>3.910730180024489</v>
+        <v>-4.192660366102376</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9871428431545995</v>
+        <v>1.018616847676942</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006116545714538199</v>
+        <v>46.1817867889061</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.008476276263740659</v>
+        <v>-3.696861959070675</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9757461974497248</v>
+        <v>1.020430996900062</v>
       </c>
       <c r="P14" t="n">
-        <v>89.54608245470641</v>
+        <v>7.34604320758708</v>
       </c>
       <c r="Q14" t="n">
-        <v>29.82896689389467</v>
+        <v>1.508904562132277</v>
       </c>
       <c r="R14" t="n">
-        <v>1.003576717369914</v>
+        <v>1.069945794344256</v>
       </c>
       <c r="S14" t="n">
-        <v>0.002516763296473614</v>
+        <v>10.82033607975892</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.003313493630076805</v>
+        <v>-3.416401953766524</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9859911423291392</v>
+        <v>1.062815756470327</v>
       </c>
       <c r="V14" t="n">
-        <v>99.4896786545721</v>
+        <v>0.004908062196741511</v>
       </c>
       <c r="W14" t="n">
-        <v>34.80434605661186</v>
+        <v>-0.004620200554090584</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9963622986321251</v>
+        <v>1.089791542681753</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.004231487720997327</v>
+        <v>-0.0006514675271688649</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.002488784257032357</v>
+        <v>-16.84974084566068</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.9580455663708286</v>
+        <v>1.057992880832997</v>
       </c>
       <c r="AB14" t="n">
-        <v>124.3661807334874</v>
+        <v>28.50230564961644</v>
       </c>
       <c r="AC14" t="n">
-        <v>49.71236659893319</v>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>no_attack</t>
+        <v>-5.549236009511247</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1.053099161301642</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>8.703705141917814</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>5.491944897359597</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1.058185838896168</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>3.38522260320452</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1.697786109861321</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.056129572571073</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>5.90613343940192</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.520267259266077</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.051431582668805</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>13.03902624797805</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>5.490946733933279</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>14.39013880535649</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>4.732730640604342</v>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -1810,89 +2470,134 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>1.000074752229636</v>
+        <v>2.120263944235228</v>
       </c>
       <c r="D15" t="n">
-        <v>-67.36570781840926</v>
+        <v>-220.3167421612541</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.35583467537152</v>
+        <v>14.76375624088872</v>
       </c>
       <c r="F15" t="n">
-        <v>1.000181564033922</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-163.0060867199274</v>
+        <v>-19.21100245243132</v>
       </c>
       <c r="H15" t="n">
-        <v>-13.88423901507266</v>
+        <v>-27.34037457763871</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9999686257295776</v>
+        <v>1.009995661560162</v>
       </c>
       <c r="J15" t="n">
-        <v>-85.00016393249393</v>
+        <v>90.26613894316225</v>
       </c>
       <c r="K15" t="n">
-        <v>4.158411503363578</v>
+        <v>-3.7743164656474</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9872338158788205</v>
+        <v>1.018929205114498</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002595654227428819</v>
+        <v>45.80498126152326</v>
       </c>
       <c r="N15" t="n">
-        <v>0.002738146871401512</v>
+        <v>-3.694772178074854</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9760736082792505</v>
+        <v>1.020619871692803</v>
       </c>
       <c r="P15" t="n">
-        <v>88.69379629043139</v>
+        <v>7.296761365746454</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.69222299971289</v>
+        <v>1.510223143254835</v>
       </c>
       <c r="R15" t="n">
-        <v>1.003756639919417</v>
+        <v>1.070030719410809</v>
       </c>
       <c r="S15" t="n">
-        <v>0.00491455698980946</v>
+        <v>10.7323203408357</v>
       </c>
       <c r="T15" t="n">
-        <v>0.003261256325282292</v>
+        <v>-3.259816326419732</v>
       </c>
       <c r="U15" t="n">
-        <v>0.986186956354671</v>
+        <v>1.062993758781441</v>
       </c>
       <c r="V15" t="n">
-        <v>98.54436565604753</v>
+        <v>-0.004387008612422316</v>
       </c>
       <c r="W15" t="n">
-        <v>34.64459571329778</v>
+        <v>-0.0004942214058983185</v>
       </c>
       <c r="X15" t="n">
-        <v>0.9965596727496916</v>
+        <v>1.090060012005227</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.00152688170728237</v>
+        <v>-0.002053954703637205</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.00191967763066005</v>
+        <v>-16.77396178190661</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.9583821007312604</v>
+        <v>1.058208176846424</v>
       </c>
       <c r="AB15" t="n">
-        <v>123.1697215562068</v>
+        <v>28.27012997568848</v>
       </c>
       <c r="AC15" t="n">
-        <v>49.49775113241359</v>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>no_attack</t>
+        <v>-5.561263568239796</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.05328797534118</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>8.616933355997688</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>5.497068251917258</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1.058345800632057</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>3.353513230509217</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1.699075501272778</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.056037607489823</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>5.849950772872834</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.517908721881371</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.051478698549528</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>12.93104475258234</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>5.490224103896559</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>14.27457034570673</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>4.740099984276901</v>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -1904,87 +2609,132 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
+        <v>2.119992068774595</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-219.9170837602003</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14.69593042184525</v>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="n">
-        <v>-69.3388141134516</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-23.40402092972642</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9999098170493156</v>
-      </c>
       <c r="G16" t="n">
-        <v>-162.9993633472851</v>
+        <v>-19.22814263416322</v>
       </c>
       <c r="H16" t="n">
-        <v>-13.93548305708882</v>
+        <v>-27.23740120025842</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9999530992123423</v>
+        <v>1.009993787653796</v>
       </c>
       <c r="J16" t="n">
-        <v>-85.00969002141531</v>
+        <v>90.11783177993716</v>
       </c>
       <c r="K16" t="n">
-        <v>4.107791545272094</v>
+        <v>-3.700538038729842</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9872536605341068</v>
+        <v>1.019199569130589</v>
       </c>
       <c r="M16" t="n">
-        <v>2.052504459517906e-05</v>
+        <v>45.72771449880054</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001782135621289836</v>
+        <v>-3.70363532653014</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9759648894925463</v>
+        <v>1.020656838865577</v>
       </c>
       <c r="P16" t="n">
-        <v>89.25842681220367</v>
+        <v>7.270346150856011</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.69137434766457</v>
+        <v>1.518694892288022</v>
       </c>
       <c r="R16" t="n">
-        <v>1.003511839246304</v>
+        <v>1.069931575040682</v>
       </c>
       <c r="S16" t="n">
-        <v>0.008291008624369598</v>
+        <v>10.71101920825074</v>
       </c>
       <c r="T16" t="n">
-        <v>0.00531800836699668</v>
+        <v>-3.260370445255211</v>
       </c>
       <c r="U16" t="n">
-        <v>0.9863446482903513</v>
+        <v>1.062942551041642</v>
       </c>
       <c r="V16" t="n">
-        <v>99.17883176199612</v>
+        <v>-0.008951902030188834</v>
       </c>
       <c r="W16" t="n">
-        <v>34.63703009107208</v>
+        <v>-0.006316693748398244</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9963197270680283</v>
+        <v>1.089941086938432</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.005074210772039419</v>
+        <v>-0.002148313571817826</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.000921193563093954</v>
+        <v>-16.7703586701478</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.9582417062212221</v>
+        <v>1.058219253905783</v>
       </c>
       <c r="AB16" t="n">
-        <v>123.9652473523682</v>
+        <v>28.22822313153684</v>
       </c>
       <c r="AC16" t="n">
-        <v>49.47948915488653</v>
-      </c>
-      <c r="AD16" t="inlineStr">
+        <v>-5.536253035649401</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1.053031813228124</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>8.607067504708029</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>5.494769569739452</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1.058190529667228</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>3.346335055006712</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1.702312809668896</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.056232296513676</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>5.834801523913124</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.514387155315527</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.051678641370577</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>12.9175194947049</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>5.498203990317498</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>14.25915073225259</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>4.740554176026895</v>
+      </c>
+      <c r="AS16" t="inlineStr">
         <is>
           <t>attack</t>
         </is>
@@ -1998,87 +2748,132 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
+        <v>2.119983921646485</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-217.4434381076762</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.29386639900443</v>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>-67.12150046840965</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-23.19755042389669</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.000054344528559</v>
-      </c>
       <c r="G17" t="n">
-        <v>-162.9983465677964</v>
+        <v>-19.42306957008456</v>
       </c>
       <c r="H17" t="n">
-        <v>-13.76065450496574</v>
+        <v>-26.59232820625187</v>
       </c>
       <c r="I17" t="n">
-        <v>1.000081169274124</v>
+        <v>1.009994814847579</v>
       </c>
       <c r="J17" t="n">
-        <v>-85.00331353871677</v>
+        <v>89.31795078144027</v>
       </c>
       <c r="K17" t="n">
-        <v>4.272249231794704</v>
+        <v>-3.282689273136731</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9874607510170049</v>
+        <v>1.018967738273286</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002223672496454213</v>
+        <v>45.3245265861699</v>
       </c>
       <c r="N17" t="n">
-        <v>0.004030759297693538</v>
+        <v>-3.723322651364833</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9761357669494322</v>
+        <v>1.020816300659356</v>
       </c>
       <c r="P17" t="n">
-        <v>88.61796037777138</v>
+        <v>7.210203043134535</v>
       </c>
       <c r="Q17" t="n">
-        <v>29.6215335773358</v>
+        <v>1.524439357452382</v>
       </c>
       <c r="R17" t="n">
-        <v>1.003663325129998</v>
+        <v>1.069878624193797</v>
       </c>
       <c r="S17" t="n">
-        <v>8.394715413445155e-05</v>
+        <v>10.62067885777475</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.002193772942316822</v>
+        <v>-3.253409972130711</v>
       </c>
       <c r="U17" t="n">
-        <v>0.9862792074892897</v>
+        <v>1.062894188697544</v>
       </c>
       <c r="V17" t="n">
-        <v>98.46147958125147</v>
+        <v>-0.007977326936274471</v>
       </c>
       <c r="W17" t="n">
-        <v>34.54634554465733</v>
+        <v>-0.004752359978375111</v>
       </c>
       <c r="X17" t="n">
-        <v>0.9966172089367211</v>
+        <v>1.08996636062587</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.002943295581286687</v>
+        <v>-0.006632885900072692</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.001462221359607706</v>
+        <v>-16.742841345569</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.958574902152948</v>
+        <v>1.058356692477288</v>
       </c>
       <c r="AB17" t="n">
-        <v>123.0747977848611</v>
+        <v>27.97538689994936</v>
       </c>
       <c r="AC17" t="n">
-        <v>49.35989853614044</v>
-      </c>
-      <c r="AD17" t="inlineStr">
+        <v>-5.428561510255322</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.05310505349656</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>8.526554519109366</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>5.532119113329667</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.058189098540685</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>3.322773443990225</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1.720735692831397</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.056141712978223</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>5.779791109870605</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.527570845903737</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.051450636892754</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>12.7978018777087</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5.544071658562576</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>14.13588238900978</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>4.776592756573688</v>
+      </c>
+      <c r="AS17" t="inlineStr">
         <is>
           <t>attack</t>
         </is>
@@ -2092,87 +2887,132 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
+        <v>2.120106257417952</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-215.4787799245919</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13.98537549684193</v>
+      </c>
+      <c r="F18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>-67.85934594102015</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-23.26660661472622</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.000096335873921</v>
-      </c>
       <c r="G18" t="n">
-        <v>-162.9988161109122</v>
+        <v>-19.57957547697441</v>
       </c>
       <c r="H18" t="n">
-        <v>-13.80863602064341</v>
+        <v>-26.03968239715222</v>
       </c>
       <c r="I18" t="n">
-        <v>1.00012825014893</v>
+        <v>1.010007625664974</v>
       </c>
       <c r="J18" t="n">
-        <v>-84.99378906152326</v>
+        <v>88.67209382598823</v>
       </c>
       <c r="K18" t="n">
-        <v>4.215047900828012</v>
+        <v>-2.91439525306235</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9873302999666494</v>
+        <v>1.019331764062275</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.003056252343189502</v>
+        <v>44.99433542705798</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.001173298459032425</v>
+        <v>-3.714461892605087</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9763667826142404</v>
+        <v>1.021083370491791</v>
       </c>
       <c r="P18" t="n">
-        <v>88.82351152078316</v>
+        <v>7.156755876860888</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.63283592080456</v>
+        <v>1.517525288602794</v>
       </c>
       <c r="R18" t="n">
-        <v>1.003880021312896</v>
+        <v>1.070107651737247</v>
       </c>
       <c r="S18" t="n">
-        <v>0.001217059081414318</v>
+        <v>10.5407468171975</v>
       </c>
       <c r="T18" t="n">
-        <v>0.005216207246626562</v>
+        <v>-3.032208011076125</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9862436006823708</v>
+        <v>1.063021953330578</v>
       </c>
       <c r="V18" t="n">
-        <v>98.68966843386922</v>
+        <v>-0.009422944181162459</v>
       </c>
       <c r="W18" t="n">
-        <v>34.57705306550061</v>
+        <v>-0.00162549082369786</v>
       </c>
       <c r="X18" t="n">
-        <v>0.9965527036036669</v>
+        <v>1.089995779093395</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0005629542742575318</v>
+        <v>0.004121997249170227</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.001466039835835234</v>
+        <v>-16.6497211511293</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.9586548324772216</v>
+        <v>1.058241347737293</v>
       </c>
       <c r="AB18" t="n">
-        <v>123.374741457497</v>
+        <v>27.75838619855067</v>
       </c>
       <c r="AC18" t="n">
-        <v>49.39108873579474</v>
-      </c>
-      <c r="AD18" t="inlineStr">
+        <v>-5.49699294339185</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1.053457903284448</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>8.466248171866098</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>5.515411415316049</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.058398033211983</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>3.295881316402415</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1.715215657871926</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.056241288639912</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>5.737874076086355</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.522492621162584</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.051803529869479</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>12.70503140141506</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5.519225203418658</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>14.02168310598757</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>4.76391411374087</v>
+      </c>
+      <c r="AS18" t="inlineStr">
         <is>
           <t>attack</t>
         </is>
@@ -2186,87 +3026,132 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
+        <v>2.119731550734816</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-214.1603933029935</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13.77548175624801</v>
+      </c>
+      <c r="F19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="n">
-        <v>-67.43441985537287</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-23.3159822031877</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9999548163510548</v>
-      </c>
       <c r="G19" t="n">
-        <v>-162.9966630642278</v>
+        <v>-19.66741076168185</v>
       </c>
       <c r="H19" t="n">
-        <v>-13.84660156615574</v>
+        <v>-25.66273129624264</v>
       </c>
       <c r="I19" t="n">
-        <v>1.000144553442486</v>
+        <v>1.009958092261868</v>
       </c>
       <c r="J19" t="n">
-        <v>-85.00063347541838</v>
+        <v>88.24909010595297</v>
       </c>
       <c r="K19" t="n">
-        <v>4.190968169589675</v>
+        <v>-2.65917375446119</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9872923062380942</v>
+        <v>1.019428787380781</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0004459301093089185</v>
+        <v>44.78871576097594</v>
       </c>
       <c r="N19" t="n">
-        <v>0.007767188604597939</v>
+        <v>-3.686269339249856</v>
       </c>
       <c r="O19" t="n">
-        <v>0.97619185658153</v>
+        <v>1.02116563920062</v>
       </c>
       <c r="P19" t="n">
-        <v>88.71444013440976</v>
+        <v>7.120330531310421</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.66400732462191</v>
+        <v>1.503030665251661</v>
       </c>
       <c r="R19" t="n">
-        <v>1.003643420055054</v>
+        <v>1.069981304708943</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.001657984277624544</v>
+        <v>10.49425377520368</v>
       </c>
       <c r="T19" t="n">
-        <v>0.00310201688265796</v>
+        <v>-2.774300158483158</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9861082768172791</v>
+        <v>1.063269780162835</v>
       </c>
       <c r="V19" t="n">
-        <v>98.56807720884616</v>
+        <v>-0.00533413634862237</v>
       </c>
       <c r="W19" t="n">
-        <v>34.61649518485682</v>
+        <v>-0.001209534628990307</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9966826448418792</v>
+        <v>1.090047036578808</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.003064715555354156</v>
+        <v>0.005403938733294964</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.003309368530740814</v>
+        <v>-16.52862590130339</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.9584223502717754</v>
+        <v>1.058564672774631</v>
       </c>
       <c r="AB19" t="n">
-        <v>123.2006692459758</v>
+        <v>27.63861682399317</v>
       </c>
       <c r="AC19" t="n">
-        <v>49.45168601800441</v>
-      </c>
-      <c r="AD19" t="inlineStr">
+        <v>-5.649558143370121</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.053735986919676</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>8.436267649147382</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>5.470264431092164</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.058749999038578</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>3.273235342361836</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1.695308474918996</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.056286485383428</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>5.71556897416524</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.509288904075357</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.051878393982465</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>12.65044156993761</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>5.467830781140048</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>13.95883761562183</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>4.716828869433745</v>
+      </c>
+      <c r="AS19" t="inlineStr">
         <is>
           <t>attack</t>
         </is>
@@ -2280,89 +3165,134 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.059942838528056</v>
       </c>
       <c r="D20" t="n">
-        <v>-64.75163075811771</v>
+        <v>-211.6378229367288</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.53456350585271</v>
+        <v>13.37976329447334</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000044449307687</v>
+        <v>1.044988422059046</v>
       </c>
       <c r="G20" t="n">
-        <v>-163.0052867385798</v>
+        <v>-19.86745390692037</v>
       </c>
       <c r="H20" t="n">
-        <v>-13.98468957374492</v>
+        <v>-24.9804679999309</v>
       </c>
       <c r="I20" t="n">
-        <v>1.000104664240358</v>
+        <v>1.010113057719597</v>
       </c>
       <c r="J20" t="n">
-        <v>-85.00651732956878</v>
+        <v>87.42010506091911</v>
       </c>
       <c r="K20" t="n">
-        <v>4.087387556861926</v>
+        <v>-2.198356687563432</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9871870365130698</v>
+        <v>1.019649547473281</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.001247240771663761</v>
+        <v>44.35030704616614</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.001870647475292839</v>
+        <v>-3.656699382866206</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9757572568895144</v>
+        <v>1.021303980811235</v>
       </c>
       <c r="P20" t="n">
-        <v>87.93849236750316</v>
+        <v>7.044409482399971</v>
       </c>
       <c r="Q20" t="n">
-        <v>29.82150864405313</v>
+        <v>1.507331696348579</v>
       </c>
       <c r="R20" t="n">
-        <v>1.003499576218333</v>
+        <v>1.070034879433628</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.00417124645384442</v>
+        <v>10.3938663506966</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.002121582967122944</v>
+        <v>-2.536955206421687</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9862649625122296</v>
+        <v>1.063423406602233</v>
       </c>
       <c r="V20" t="n">
-        <v>97.70646468353003</v>
+        <v>-0.008243452125996175</v>
       </c>
       <c r="W20" t="n">
-        <v>34.79603066306738</v>
+        <v>-0.01481620927491401</v>
       </c>
       <c r="X20" t="n">
-        <v>0.996491658499164</v>
+        <v>1.090022936223231</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.003934289280574006</v>
+        <v>-0.001482014435069615</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.006730678007393817</v>
+        <v>-16.42016696068896</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.9581496319020757</v>
+        <v>1.05888598995792</v>
       </c>
       <c r="AB20" t="n">
-        <v>122.1238890034126</v>
+        <v>27.36833478492897</v>
       </c>
       <c r="AC20" t="n">
-        <v>49.71342657033143</v>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.703705792977843</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.053723982699741</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>8.34987304385708</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>5.44479026707407</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.058740583367192</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>3.246415173052873</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1.692668924949289</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.056341866359124</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>5.660169857048627</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.503078775545995</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.051909584715386</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>12.53240996386227</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>5.4501914062829</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.039116515235821</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>13.83024833252064</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>4.700760484632029</v>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2374,89 +3304,134 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.059929130731907</v>
       </c>
       <c r="D21" t="n">
-        <v>-61.79759513331676</v>
+        <v>-210.2763616098546</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.90262742979218</v>
+        <v>13.15887531045434</v>
       </c>
       <c r="F21" t="n">
-        <v>1.000010828747746</v>
+        <v>1.044930491008884</v>
       </c>
       <c r="G21" t="n">
-        <v>-162.9997892223087</v>
+        <v>-19.96344628330865</v>
       </c>
       <c r="H21" t="n">
-        <v>-14.24431813490116</v>
+        <v>-24.60204967084305</v>
       </c>
       <c r="I21" t="n">
-        <v>0.999965369582045</v>
+        <v>1.009821015406241</v>
       </c>
       <c r="J21" t="n">
-        <v>-85.00416192805928</v>
+        <v>86.96582219585774</v>
       </c>
       <c r="K21" t="n">
-        <v>3.889722579968319</v>
+        <v>-1.95993228506326</v>
       </c>
       <c r="L21" t="n">
-        <v>0.987094336505877</v>
+        <v>1.019768139677314</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003935790822407558</v>
+        <v>44.12448068036036</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01018606082757721</v>
+        <v>-3.657105620931622</v>
       </c>
       <c r="O21" t="n">
-        <v>0.975630501887622</v>
+        <v>1.021678925401489</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08948086219472</v>
+        <v>7.012304039604775</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.06754339125393</v>
+        <v>1.512034159026829</v>
       </c>
       <c r="R21" t="n">
-        <v>1.003549527713444</v>
+        <v>1.069901220955795</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.0106128172631913</v>
+        <v>10.34458709369379</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01027887402855421</v>
+        <v>-2.415503284596897</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9858618872846473</v>
+        <v>1.063613569582684</v>
       </c>
       <c r="V21" t="n">
-        <v>96.76116773412072</v>
+        <v>0.004364904146282067</v>
       </c>
       <c r="W21" t="n">
-        <v>35.08110920934585</v>
+        <v>-0.003566267366287549</v>
       </c>
       <c r="X21" t="n">
-        <v>0.9963755776093465</v>
+        <v>1.089987882495146</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.00723154515809842</v>
+        <v>0.007482674192540089</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0002447890876710687</v>
+        <v>-16.3620636422284</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.9578218558889162</v>
+        <v>1.058897727069075</v>
       </c>
       <c r="AB21" t="n">
-        <v>120.9463951660129</v>
+        <v>27.23866607927115</v>
       </c>
       <c r="AC21" t="n">
-        <v>50.11678154691671</v>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.733397566145854</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1.054185910945563</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>8.309220749404687</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>5.441508615244009</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1.058660146292731</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>3.225301883783559</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1.685094894715261</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.056646901173011</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>5.631266290404247</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.501576686792174</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.052007726803934</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>12.46461632550959</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>5.446892441636478</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.039234400248446</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>13.76200893966997</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>4.696503560541856</v>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2468,89 +3443,134 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.060073490360289</v>
       </c>
       <c r="D22" t="n">
-        <v>-63.76207418543856</v>
+        <v>-212.1940505065647</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.02679683464851</v>
+        <v>13.48158804153665</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999881196286072</v>
+        <v>1.044968784985026</v>
       </c>
       <c r="G22" t="n">
-        <v>-162.996182835156</v>
+        <v>-19.81625560156586</v>
       </c>
       <c r="H22" t="n">
-        <v>-14.35182789230527</v>
+        <v>-25.09799094274439</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9999439794917463</v>
+        <v>1.010018129259259</v>
       </c>
       <c r="J22" t="n">
-        <v>-85.00002305200049</v>
+        <v>87.59988520202977</v>
       </c>
       <c r="K22" t="n">
-        <v>3.805312082543115</v>
+        <v>-2.282237253317353</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9867988545493067</v>
+        <v>1.019645621599734</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.002996867482846935</v>
+        <v>44.44688018703584</v>
       </c>
       <c r="N22" t="n">
-        <v>0.007365552624320577</v>
+        <v>-3.62423675315732</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9756522869781208</v>
+        <v>1.021297415011362</v>
       </c>
       <c r="P22" t="n">
-        <v>87.63977060784764</v>
+        <v>7.065959403223149</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.10688707314787</v>
+        <v>1.490448188397909</v>
       </c>
       <c r="R22" t="n">
-        <v>1.003510033971196</v>
+        <v>1.069983974002886</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.005188077309523456</v>
+        <v>10.40802649409306</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.00283831801286032</v>
+        <v>-2.355644189382223</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9856853005878851</v>
+        <v>1.063666168862284</v>
       </c>
       <c r="V22" t="n">
-        <v>97.39374513909078</v>
+        <v>0.0009638479487993936</v>
       </c>
       <c r="W22" t="n">
-        <v>35.13263168299849</v>
+        <v>0.001934228519157036</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9963980792484399</v>
+        <v>1.089965523487636</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.001722001616363882</v>
+        <v>0.003036838440205489</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.004929218539854959</v>
+        <v>-16.3663914466647</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.9574550934957742</v>
+        <v>1.058948936416625</v>
       </c>
       <c r="AB22" t="n">
-        <v>121.7408027764938</v>
+        <v>27.43503878470443</v>
       </c>
       <c r="AC22" t="n">
-        <v>50.17621937615746</v>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.872052823623314</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1.054059800769276</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>8.377136649615837</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>5.39432576026182</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1.058966204694329</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>3.2554458830859</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1.67047931656137</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.056312593754256</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>5.670321451025179</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.483564080008049</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.052059961569486</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>12.54612675643496</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>5.39292799476516</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.039355921304992</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>13.86547742775335</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>4.655397685257113</v>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2562,89 +3582,134 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.059965758661888</v>
       </c>
       <c r="D23" t="n">
-        <v>-61.46356696628398</v>
+        <v>-211.6266351993065</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.19170964778075</v>
+        <v>13.38605885915713</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998882288048612</v>
+        <v>1.044852304582315</v>
       </c>
       <c r="G23" t="n">
-        <v>-162.9983290540968</v>
+        <v>-19.86515107045983</v>
       </c>
       <c r="H23" t="n">
-        <v>-14.45949458729553</v>
+        <v>-24.95972267215546</v>
       </c>
       <c r="I23" t="n">
-        <v>0.999956867423042</v>
+        <v>1.009954386410674</v>
       </c>
       <c r="J23" t="n">
-        <v>-85.00501339405531</v>
+        <v>87.41097527349018</v>
       </c>
       <c r="K23" t="n">
-        <v>3.721249435185068</v>
+        <v>-2.184734666829292</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9868952514927785</v>
+        <v>1.019619363955417</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.001022429838639466</v>
+        <v>44.34822836006164</v>
       </c>
       <c r="N23" t="n">
-        <v>0.001164900391877667</v>
+        <v>-3.660796534593938</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9754005398587615</v>
+        <v>1.021382605096991</v>
       </c>
       <c r="P23" t="n">
-        <v>86.97597645599723</v>
+        <v>7.052879200013455</v>
       </c>
       <c r="Q23" t="n">
-        <v>30.23644118886798</v>
+        <v>1.502592358377131</v>
       </c>
       <c r="R23" t="n">
-        <v>1.003420987994099</v>
+        <v>1.070180627453639</v>
       </c>
       <c r="S23" t="n">
-        <v>0.003257960849999623</v>
+        <v>10.39284717145706</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.002446812156062132</v>
+        <v>-2.481634715349597</v>
       </c>
       <c r="U23" t="n">
-        <v>0.985701617641381</v>
+        <v>1.063451043928786</v>
       </c>
       <c r="V23" t="n">
-        <v>96.63812977452017</v>
+        <v>-0.00613760319455706</v>
       </c>
       <c r="W23" t="n">
-        <v>35.26592153493906</v>
+        <v>0.001646559924081288</v>
       </c>
       <c r="X23" t="n">
-        <v>0.9963242042831368</v>
+        <v>1.089977730020351</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.002089843015049251</v>
+        <v>0.006558724019248813</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01397169698294845</v>
+        <v>-16.40304876321649</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.9572872820369318</v>
+        <v>1.058840590074956</v>
       </c>
       <c r="AB23" t="n">
-        <v>120.8132466392288</v>
+        <v>27.37413100724459</v>
       </c>
       <c r="AC23" t="n">
-        <v>50.38431898111998</v>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.744296491302826</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1.054063892732812</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>8.355715547684298</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>5.439167294735778</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.058751554023206</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>3.246297414268755</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1.689226358733145</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.056262149534013</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>5.652787848830027</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.503783099832734</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.052064540022432</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>12.52819085260169</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>5.439259272564271</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.039053888771118</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>13.81948577131097</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>4.684143848048656</v>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2656,89 +3721,134 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1.060125803619635</v>
       </c>
       <c r="D24" t="n">
-        <v>-58.98788422874592</v>
+        <v>-214.2706515147215</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.9102355718136</v>
+        <v>13.8118982385304</v>
       </c>
       <c r="F24" t="n">
-        <v>1.000021511706452</v>
+        <v>1.04508946388878</v>
       </c>
       <c r="G24" t="n">
-        <v>-162.9988840859738</v>
+        <v>-19.6591329875902</v>
       </c>
       <c r="H24" t="n">
-        <v>-14.20559136064076</v>
+        <v>-25.6539269018969</v>
       </c>
       <c r="I24" t="n">
-        <v>0.999934995588063</v>
+        <v>1.009903189392137</v>
       </c>
       <c r="J24" t="n">
-        <v>-84.99155747307319</v>
+        <v>88.27069801764527</v>
       </c>
       <c r="K24" t="n">
-        <v>3.948885607144758</v>
+        <v>-2.662960435339049</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9867643320481503</v>
+        <v>1.019636103215185</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003502278138358497</v>
+        <v>44.79108340277626</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.006464426819308536</v>
+        <v>-3.624528122270084</v>
       </c>
       <c r="O24" t="n">
-        <v>0.975764433897085</v>
+        <v>1.021239246333604</v>
       </c>
       <c r="P24" t="n">
-        <v>86.26596017115561</v>
+        <v>7.124215301559735</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.09824042670323</v>
+        <v>1.495749272355755</v>
       </c>
       <c r="R24" t="n">
-        <v>1.003575730023398</v>
+        <v>1.069850911095169</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.005995511331202792</v>
+        <v>10.49250475962736</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0014362137525688</v>
+        <v>-2.501854984882112</v>
       </c>
       <c r="U24" t="n">
-        <v>0.986080199208914</v>
+        <v>1.063398522450026</v>
       </c>
       <c r="V24" t="n">
-        <v>95.86170048367504</v>
+        <v>0.000947601746651309</v>
       </c>
       <c r="W24" t="n">
-        <v>35.11480000024228</v>
+        <v>-0.007243610702309448</v>
       </c>
       <c r="X24" t="n">
-        <v>0.9963615436001808</v>
+        <v>1.089840357946659</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.008966404737078462</v>
+        <v>-0.002689887953680854</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.001311251219470134</v>
+        <v>-16.42226005769706</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.9577116498558141</v>
+        <v>1.058916232575186</v>
       </c>
       <c r="AB24" t="n">
-        <v>119.8208011528687</v>
+        <v>27.64603676667651</v>
       </c>
       <c r="AC24" t="n">
-        <v>50.16732352752769</v>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.872022251376397</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.053921416393053</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>8.436133004565583</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>5.398280663799001</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.058856641689454</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>3.291929777358625</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.676616386825623</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.056380928652069</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>5.715725587765398</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.49584837744785</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.052090191485296</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>12.65405657716382</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>5.384502024891232</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.039201515552868</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>13.97174101560333</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>4.649365116368995</v>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2750,89 +3860,134 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.059833610617767</v>
       </c>
       <c r="D25" t="n">
-        <v>-58.97106108124901</v>
+        <v>-215.603632540168</v>
       </c>
       <c r="E25" t="n">
-        <v>-23.6216531179215</v>
+        <v>14.02317214019761</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999924932110282</v>
+        <v>1.045056215069304</v>
       </c>
       <c r="G25" t="n">
-        <v>-162.9932737467863</v>
+        <v>-19.55521918469217</v>
       </c>
       <c r="H25" t="n">
-        <v>-13.98594231215209</v>
+        <v>-26.03390272720594</v>
       </c>
       <c r="I25" t="n">
-        <v>1.000137553962365</v>
+        <v>1.010096015915845</v>
       </c>
       <c r="J25" t="n">
-        <v>-85.00514999590632</v>
+        <v>88.71932110226776</v>
       </c>
       <c r="K25" t="n">
-        <v>4.124968606049892</v>
+        <v>-2.907397789987863</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9870698197491057</v>
+        <v>1.019504641303357</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006965677633838961</v>
+        <v>45.01388268029816</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.0005009535295641653</v>
+        <v>-3.657495440294388</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9759110640338975</v>
+        <v>1.021010584512612</v>
       </c>
       <c r="P25" t="n">
-        <v>86.27613068879042</v>
+        <v>7.155378159972028</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.94636637337271</v>
+        <v>1.493667432072017</v>
       </c>
       <c r="R25" t="n">
-        <v>1.003548810703526</v>
+        <v>1.070039323763377</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0007535407894982237</v>
+        <v>10.54478756166502</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0002351647728024886</v>
+        <v>-2.731520262769006</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9861349961267827</v>
+        <v>1.063296679655301</v>
       </c>
       <c r="V25" t="n">
-        <v>95.86982036966714</v>
+        <v>-0.008428375385206186</v>
       </c>
       <c r="W25" t="n">
-        <v>34.93668662366115</v>
+        <v>-0.001648319845837341</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9965328857849216</v>
+        <v>1.089996767673304</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.003904976971914476</v>
+        <v>0.001495947700944317</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.006195664969236976</v>
+        <v>-16.53482881666687</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.9578368197016426</v>
+        <v>1.0587793878429</v>
       </c>
       <c r="AB25" t="n">
-        <v>119.8261536324899</v>
+        <v>27.78717240271063</v>
       </c>
       <c r="AC25" t="n">
-        <v>49.91250784778135</v>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.739876934778507</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.053452798500478</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>8.470704542533262</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>5.442127378494869</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1.058525591273396</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>3.295110183011768</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1.683318087204892</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.056126278331206</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>5.744762671323584</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.499461520621207</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.051971561539117</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>12.71709933989222</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5.437512637032114</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.039018670248075</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>14.04539983373419</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>4.683015388806498</v>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2844,89 +3999,134 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.060083373591504</v>
       </c>
       <c r="D26" t="n">
-        <v>-57.50002879077313</v>
+        <v>-215.9793265048006</v>
       </c>
       <c r="E26" t="n">
-        <v>-23.74469551253464</v>
+        <v>14.09068661909131</v>
       </c>
       <c r="F26" t="n">
-        <v>1.000035218531958</v>
+        <v>1.045099213690003</v>
       </c>
       <c r="G26" t="n">
-        <v>-162.9951148362876</v>
+        <v>-19.54234399374196</v>
       </c>
       <c r="H26" t="n">
-        <v>-14.04276849846477</v>
+        <v>-26.12606752281618</v>
       </c>
       <c r="I26" t="n">
-        <v>1.000056620228947</v>
+        <v>1.010091199055953</v>
       </c>
       <c r="J26" t="n">
-        <v>-85.00468263301941</v>
+        <v>88.84232499334514</v>
       </c>
       <c r="K26" t="n">
-        <v>4.09564874380908</v>
+        <v>-2.951699864902864</v>
       </c>
       <c r="L26" t="n">
-        <v>0.986968513138384</v>
+        <v>1.019368047970181</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0005287096700240101</v>
+        <v>45.07294544418144</v>
       </c>
       <c r="N26" t="n">
-        <v>0.002549507368647986</v>
+        <v>-3.633904045485111</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9759299458038319</v>
+        <v>1.021246196929889</v>
       </c>
       <c r="P26" t="n">
-        <v>85.84955941522009</v>
+        <v>7.166481649077306</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.00949122675121</v>
+        <v>1.48552048436342</v>
       </c>
       <c r="R26" t="n">
-        <v>1.003615170259294</v>
+        <v>1.06998451556989</v>
       </c>
       <c r="S26" t="n">
-        <v>0.004073027055406417</v>
+        <v>10.56077522386051</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.0006730303200884807</v>
+        <v>-2.637763659307711</v>
       </c>
       <c r="U26" t="n">
-        <v>0.9863512778431628</v>
+        <v>1.063157420362216</v>
       </c>
       <c r="V26" t="n">
-        <v>95.38679301563444</v>
+        <v>-0.009743537616463483</v>
       </c>
       <c r="W26" t="n">
-        <v>35.01508825105654</v>
+        <v>-0.002323012222485214</v>
       </c>
       <c r="X26" t="n">
-        <v>0.9963270064103453</v>
+        <v>1.08990052041279</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.00406122855868001</v>
+        <v>-0.002366304677882318</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.005232079409663002</v>
+        <v>-16.49952351498074</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.9577768535408079</v>
+        <v>1.058644433350773</v>
       </c>
       <c r="AB26" t="n">
-        <v>119.2302398490069</v>
+        <v>27.81503987261756</v>
       </c>
       <c r="AC26" t="n">
-        <v>50.02246565742809</v>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.838631958964619</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1.053637662663794</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>8.490326310267619</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>5.39698288936859</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1.058739099708985</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>3.303362656085958</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1.671541161254803</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.0565150714484</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>5.760325518265848</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.485731164859502</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.051669846467602</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>12.72533374041281</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>5.402783783902795</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.038970048064705</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>14.05396229170667</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>4.657281355045598</v>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2938,89 +4138,134 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1.059954411577841</v>
       </c>
       <c r="D27" t="n">
-        <v>-60.1784181797031</v>
+        <v>-217.035401694497</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.60104105795768</v>
+        <v>14.24334274088015</v>
       </c>
       <c r="F27" t="n">
-        <v>1.000097184639916</v>
+        <v>1.04497860783486</v>
       </c>
       <c r="G27" t="n">
-        <v>-163.0040772769884</v>
+        <v>-19.45145313281497</v>
       </c>
       <c r="H27" t="n">
-        <v>-13.97741371734004</v>
+        <v>-26.41408511516797</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9999579058305648</v>
+        <v>1.010159029867916</v>
       </c>
       <c r="J27" t="n">
-        <v>-85.00509160916931</v>
+        <v>89.18796464198475</v>
       </c>
       <c r="K27" t="n">
-        <v>4.125157434892778</v>
+        <v>-3.160373410664833</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9870032687342796</v>
+        <v>1.019216572636106</v>
       </c>
       <c r="M27" t="n">
-        <v>0.002532357837269181</v>
+        <v>45.25321162777344</v>
       </c>
       <c r="N27" t="n">
-        <v>0.00316734360426164</v>
+        <v>-3.639293961078188</v>
       </c>
       <c r="O27" t="n">
-        <v>0.9760538484984581</v>
+        <v>1.020972207949822</v>
       </c>
       <c r="P27" t="n">
-        <v>86.62446398668679</v>
+        <v>7.194393832946981</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.91590056916678</v>
+        <v>1.49649983331088</v>
       </c>
       <c r="R27" t="n">
-        <v>1.003620451222818</v>
+        <v>1.070045118588931</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0003961812313505048</v>
+        <v>10.6089904038964</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.01258210501846056</v>
+        <v>-2.777133231845045</v>
       </c>
       <c r="U27" t="n">
-        <v>0.9861438628713409</v>
+        <v>1.063207533566013</v>
       </c>
       <c r="V27" t="n">
-        <v>96.24751774932112</v>
+        <v>-0.0002500909257234457</v>
       </c>
       <c r="W27" t="n">
-        <v>34.89913484277554</v>
+        <v>-0.002017275686621911</v>
       </c>
       <c r="X27" t="n">
-        <v>0.996514700985945</v>
+        <v>1.09008428017149</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.003117487984298438</v>
+        <v>-0.001361116335285798</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.006735101324289977</v>
+        <v>-16.55997228088673</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1.058697667971222</v>
       </c>
       <c r="AB27" t="n">
-        <v>120.3016732704865</v>
+        <v>27.93653438004514</v>
       </c>
       <c r="AC27" t="n">
-        <v>49.86461378648459</v>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.777048037696582</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.053748979820707</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>8.520720184307452</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>5.416937495025189</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.05844747678893</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>3.31603224271169</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1.682661233950747</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.056256986152745</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>5.771278677135071</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.498453572635246</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.051836025489155</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>12.77893417543416</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>5.415370914742091</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.03861429129411</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>14.10653849736155</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>4.671672304744771</v>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -3032,89 +4277,134 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.059934632965446</v>
       </c>
       <c r="D28" t="n">
-        <v>-61.26115938121908</v>
+        <v>-219.4989523668229</v>
       </c>
       <c r="E28" t="n">
-        <v>-23.6732903662041</v>
+        <v>14.64146076273798</v>
       </c>
       <c r="F28" t="n">
-        <v>1.000079059442819</v>
+        <v>1.044734777193743</v>
       </c>
       <c r="G28" t="n">
-        <v>-163.001123229775</v>
+        <v>-19.27360325773749</v>
       </c>
       <c r="H28" t="n">
-        <v>-14.05209212182871</v>
+        <v>-27.11031999862402</v>
       </c>
       <c r="I28" t="n">
-        <v>1.00012502450429</v>
+        <v>1.00999232495699</v>
       </c>
       <c r="J28" t="n">
-        <v>-84.99494882063068</v>
+        <v>90.00152247785724</v>
       </c>
       <c r="K28" t="n">
-        <v>4.05035151600953</v>
+        <v>-3.622450680593406</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9869310520548152</v>
+        <v>1.018999162179596</v>
       </c>
       <c r="M28" t="n">
-        <v>0.003919074786322717</v>
+        <v>45.65629208417538</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.00122700180918423</v>
+        <v>-3.684754605955848</v>
       </c>
       <c r="O28" t="n">
-        <v>0.9759081880096987</v>
+        <v>1.020781762014972</v>
       </c>
       <c r="P28" t="n">
-        <v>86.92852671727323</v>
+        <v>7.256638693050999</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.95479270514188</v>
+        <v>1.515027958640644</v>
       </c>
       <c r="R28" t="n">
-        <v>1.003620651421919</v>
+        <v>1.070040812068402</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0004242404174955788</v>
+        <v>10.70001746105933</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.001902804992916546</v>
+        <v>-3.138948732121996</v>
       </c>
       <c r="U28" t="n">
-        <v>0.9861277091697386</v>
+        <v>1.062994972082094</v>
       </c>
       <c r="V28" t="n">
-        <v>96.59076792965732</v>
+        <v>-0.0049129279707336</v>
       </c>
       <c r="W28" t="n">
-        <v>34.9352522341015</v>
+        <v>-0.006494142865390346</v>
       </c>
       <c r="X28" t="n">
-        <v>0.996428191624449</v>
+        <v>1.090136388471071</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.004500519270419653</v>
+        <v>0.004072993113194664</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.002291914855772061</v>
+        <v>-16.71597472629949</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1.058357546712808</v>
       </c>
       <c r="AB28" t="n">
-        <v>120.7306325933893</v>
+        <v>28.1866397179489</v>
       </c>
       <c r="AC28" t="n">
-        <v>49.91037645321716</v>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.611779582506866</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1.053337577531221</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>8.600758771027987</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>5.470071169614495</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1.058387081674814</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>3.348141188965432</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1.689291692710706</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.056081076770601</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>5.826026325833529</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.505495601825902</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.05163766444382</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>12.9034800021167</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>5.47253713974406</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.038374809982937</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>14.23747345423777</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>4.715926069367053</v>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -3126,89 +4416,134 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.059795898929863</v>
       </c>
       <c r="D29" t="n">
-        <v>-59.22150675523566</v>
+        <v>-220.5526367904671</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.12423978409893</v>
+        <v>14.78751036362486</v>
       </c>
       <c r="F29" t="n">
-        <v>1.000086115341319</v>
+        <v>1.045156222802954</v>
       </c>
       <c r="G29" t="n">
-        <v>-162.999934668203</v>
+        <v>-19.18805120052743</v>
       </c>
       <c r="H29" t="n">
-        <v>-14.3723243045072</v>
+        <v>-27.40905155603317</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9998235663537254</v>
+        <v>1.009861598026921</v>
       </c>
       <c r="J29" t="n">
-        <v>-84.99431671894631</v>
+        <v>90.33662353220473</v>
       </c>
       <c r="K29" t="n">
-        <v>3.805382162400379</v>
+        <v>-3.822660055709127</v>
       </c>
       <c r="L29" t="n">
-        <v>0.986854037056534</v>
+        <v>1.018690524760059</v>
       </c>
       <c r="M29" t="n">
-        <v>0.004447289996250129</v>
+        <v>45.8317113324904</v>
       </c>
       <c r="N29" t="n">
-        <v>0.005638739406293867</v>
+        <v>-3.692086752922327</v>
       </c>
       <c r="O29" t="n">
-        <v>0.975719351217717</v>
+        <v>1.020726048166295</v>
       </c>
       <c r="P29" t="n">
-        <v>86.34275888595789</v>
+        <v>7.28188632615434</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.21617267865627</v>
+        <v>1.51314966829587</v>
       </c>
       <c r="R29" t="n">
-        <v>1.003351223469324</v>
+        <v>1.06987567002101</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.0112192808213309</v>
+        <v>10.73964514310707</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.007737256628982189</v>
+        <v>-3.302975154185154</v>
       </c>
       <c r="U29" t="n">
-        <v>0.9859168195416127</v>
+        <v>1.062856078030264</v>
       </c>
       <c r="V29" t="n">
-        <v>95.93886618102978</v>
+        <v>0.001432457728811969</v>
       </c>
       <c r="W29" t="n">
-        <v>35.24602932888124</v>
+        <v>0.007097533334882031</v>
       </c>
       <c r="X29" t="n">
-        <v>0.9961540388071816</v>
+        <v>1.090066121436628</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0002043796054556772</v>
+        <v>0.00199648003459099</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.001272190839583449</v>
+        <v>-16.79061489385668</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1.058050866382854</v>
       </c>
       <c r="AB29" t="n">
-        <v>119.9248235933063</v>
+        <v>28.28856719621551</v>
       </c>
       <c r="AC29" t="n">
-        <v>50.35915270584975</v>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.533805225449553</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.053128079714696</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>8.637126237767148</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>5.498648607194695</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.058013607259874</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>3.364791817837035</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.709956678523055</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.05595636078723</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>5.846536090000374</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.518411591547337</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.051369487316949</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>12.94379885268277</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>5.496182348703409</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.038013026414129</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>14.28324960672044</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>4.733011048280596</v>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -3220,89 +4555,134 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1.060100793831098</v>
       </c>
       <c r="D30" t="n">
-        <v>-60.98071813447604</v>
+        <v>-218.3374469262594</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.52984988851351</v>
+        <v>14.44671855597542</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9999125502755448</v>
+        <v>1.044768885343845</v>
       </c>
       <c r="G30" t="n">
-        <v>-163.0024880502112</v>
+        <v>-19.35878018290627</v>
       </c>
       <c r="H30" t="n">
-        <v>-14.71507383825757</v>
+        <v>-26.81945247931287</v>
       </c>
       <c r="I30" t="n">
-        <v>1.000034150957406</v>
+        <v>1.009867592791721</v>
       </c>
       <c r="J30" t="n">
-        <v>-84.99594385783872</v>
+        <v>89.6128220198859</v>
       </c>
       <c r="K30" t="n">
-        <v>3.509486791215389</v>
+        <v>-3.430305475592327</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9864215394524946</v>
+        <v>1.019195308436303</v>
       </c>
       <c r="M30" t="n">
-        <v>0.006782206334154934</v>
+        <v>45.4708462589306</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.001639960957836273</v>
+        <v>-3.70425547348887</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9748789309667817</v>
+        <v>1.020836634601902</v>
       </c>
       <c r="P30" t="n">
-        <v>86.85092723448872</v>
+        <v>7.222599963069843</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42391216285731</v>
+        <v>1.520946670815455</v>
       </c>
       <c r="R30" t="n">
-        <v>1.003390663463368</v>
+        <v>1.07010343434537</v>
       </c>
       <c r="S30" t="n">
-        <v>0.001373117945652897</v>
+        <v>10.64621485613434</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.0006445054283856767</v>
+        <v>-3.205357130635728</v>
       </c>
       <c r="U30" t="n">
-        <v>0.985561375992521</v>
+        <v>1.062886511419751</v>
       </c>
       <c r="V30" t="n">
-        <v>96.49466050935052</v>
+        <v>0.004079150468820478</v>
       </c>
       <c r="W30" t="n">
-        <v>35.48655955009644</v>
+        <v>-0.0005780087643798666</v>
       </c>
       <c r="X30" t="n">
-        <v>0.9961095384980635</v>
+        <v>1.089948600227209</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.005965328165379227</v>
+        <v>0.007670881457010736</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.001631679172164358</v>
+        <v>-16.74027301759448</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1.058109101243031</v>
       </c>
       <c r="AB30" t="n">
-        <v>120.6170747765652</v>
+        <v>28.06372498591974</v>
       </c>
       <c r="AC30" t="n">
-        <v>50.69852796668908</v>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.491626199255245</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1.053278953534405</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>8.556842297376154</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>5.510535789004002</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1.058282481274779</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>3.330399403569028</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1.714792312866092</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.056120049670332</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>5.804637027708326</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.516908995546064</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.051592707790945</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>12.84287661753601</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>5.516366568959965</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.038463504001274</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>14.17557107248349</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>4.758413166382393</v>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -3314,89 +4694,134 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.060105091709276</v>
       </c>
       <c r="D31" t="n">
-        <v>-61.73771457781145</v>
+        <v>-216.1645702709025</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.53727401095924</v>
+        <v>14.09535735453889</v>
       </c>
       <c r="F31" t="n">
-        <v>1.000021530724152</v>
+        <v>1.044956696728516</v>
       </c>
       <c r="G31" t="n">
-        <v>-162.9961845257957</v>
+        <v>-19.51857614039633</v>
       </c>
       <c r="H31" t="n">
-        <v>-14.72879599086579</v>
+        <v>-26.23127801279302</v>
       </c>
       <c r="I31" t="n">
-        <v>0.99999182649784</v>
+        <v>1.009909999045708</v>
       </c>
       <c r="J31" t="n">
-        <v>-85.00059950138936</v>
+        <v>88.89398013477604</v>
       </c>
       <c r="K31" t="n">
-        <v>3.492170525524588</v>
+        <v>-3.038532807716837</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9864266101713803</v>
+        <v>1.01930245958804</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.00351516423403048</v>
+        <v>45.11367990934063</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01874818492464488</v>
+        <v>-3.721438063672598</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9751146824097762</v>
+        <v>1.020974969661743</v>
       </c>
       <c r="P31" t="n">
-        <v>87.05842943201958</v>
+        <v>7.172414327431975</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.42083831128881</v>
+        <v>1.526296144074754</v>
       </c>
       <c r="R31" t="n">
-        <v>1.00338706306467</v>
+        <v>1.069926213105621</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.004853767190538416</v>
+        <v>10.56663068273744</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.002962776856322705</v>
+        <v>-3.148479395744473</v>
       </c>
       <c r="U31" t="n">
-        <v>0.9856400064603295</v>
+        <v>1.062899882918341</v>
       </c>
       <c r="V31" t="n">
-        <v>96.73837511539188</v>
+        <v>-0.006471410949617126</v>
       </c>
       <c r="W31" t="n">
-        <v>35.48479100736978</v>
+        <v>-0.0075407411343105</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9960005302947176</v>
+        <v>1.090098590302162</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.004128023047870137</v>
+        <v>-0.0047177580382812</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.0005275390126636176</v>
+        <v>-16.69003741979799</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.05807350664613</v>
       </c>
       <c r="AB31" t="n">
-        <v>120.9179689050436</v>
+        <v>27.84637756544491</v>
       </c>
       <c r="AC31" t="n">
-        <v>50.69307754315904</v>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.44450035364197</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1.053281841360328</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>8.495301857388581</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>5.535465364633009</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1.058038977627897</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>3.307496847677227</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1.709275256138806</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.056163517832571</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>5.752320356781742</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.514131195314804</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.051455998554325</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>12.74290226484513</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>5.53325623333776</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.038167210921565</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>14.05179295465204</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>4.774745459103528</v>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -3408,89 +4833,134 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.059929041425971</v>
       </c>
       <c r="D32" t="n">
-        <v>-62.72615973549369</v>
+        <v>-215.7831269620038</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.70993035835187</v>
+        <v>14.02290993758388</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9998683379465229</v>
+        <v>1.045070361982512</v>
       </c>
       <c r="G32" t="n">
-        <v>-163.0061560370985</v>
+        <v>-19.5370822005026</v>
       </c>
       <c r="H32" t="n">
-        <v>-14.87306060093111</v>
+        <v>-26.14325017193195</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9998646217222165</v>
+        <v>1.010032726555174</v>
       </c>
       <c r="J32" t="n">
-        <v>-85.00424496010966</v>
+        <v>88.78181352331511</v>
       </c>
       <c r="K32" t="n">
-        <v>3.354984256591171</v>
+        <v>-2.974976814407309</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9864442258187324</v>
+        <v>1.019334072621568</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001170277589660481</v>
+        <v>45.04619971563113</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.002794401216467732</v>
+        <v>-3.724291594379352</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9748853109266559</v>
+        <v>1.020969501120912</v>
       </c>
       <c r="P32" t="n">
-        <v>87.34738804167891</v>
+        <v>7.155904009381612</v>
       </c>
       <c r="Q32" t="n">
-        <v>30.50031622509635</v>
+        <v>1.520087451851016</v>
       </c>
       <c r="R32" t="n">
-        <v>1.003217348791531</v>
+        <v>1.070016824182378</v>
       </c>
       <c r="S32" t="n">
-        <v>0.005131488505750933</v>
+        <v>10.55532604693786</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.00902190381090506</v>
+        <v>-3.153644644702565</v>
       </c>
       <c r="U32" t="n">
-        <v>0.9854773946666294</v>
+        <v>1.063049516375294</v>
       </c>
       <c r="V32" t="n">
-        <v>97.05435865780055</v>
+        <v>0.001552998141269483</v>
       </c>
       <c r="W32" t="n">
-        <v>35.58185780590788</v>
+        <v>-0.006448270418905908</v>
       </c>
       <c r="X32" t="n">
-        <v>0.9959502703086173</v>
+        <v>1.090002147802743</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.001125920838925958</v>
+        <v>0.003564881998574717</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.00161947480217723</v>
+        <v>-16.70073106943179</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1.058316453290721</v>
       </c>
       <c r="AB32" t="n">
-        <v>121.3240563128558</v>
+        <v>27.80531890926227</v>
       </c>
       <c r="AC32" t="n">
-        <v>50.83317034448047</v>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.414651400316905</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1.053174109943925</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>8.476997013159075</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>5.540987836218153</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.058167727568789</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>3.298306861476521</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1.722987909317992</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.056178644474079</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>5.741570057867954</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.52247784193554</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.051585696835504</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>12.71919326798436</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>5.545851543761978</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.03825772072726</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>14.03408630492527</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>4.779103254383204</v>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -3502,89 +4972,134 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1.060003973173316</v>
       </c>
       <c r="D33" t="n">
-        <v>-65.28003958097842</v>
+        <v>-216.1043154751895</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.29453179251452</v>
+        <v>14.08689539780425</v>
       </c>
       <c r="F33" t="n">
-        <v>1.000082416840961</v>
+        <v>1.045062102096696</v>
       </c>
       <c r="G33" t="n">
-        <v>-162.9851201769452</v>
+        <v>-19.52080689442456</v>
       </c>
       <c r="H33" t="n">
-        <v>-14.5814265126401</v>
+        <v>-26.21326284374831</v>
       </c>
       <c r="I33" t="n">
-        <v>1.000006326029129</v>
+        <v>1.010079722278647</v>
       </c>
       <c r="J33" t="n">
-        <v>-85.00681214406835</v>
+        <v>88.88303944945173</v>
       </c>
       <c r="K33" t="n">
-        <v>3.588958022667073</v>
+        <v>-3.024673867176948</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9867321244460852</v>
+        <v>1.019252717220512</v>
       </c>
       <c r="M33" t="n">
-        <v>0.005302907131878666</v>
+        <v>45.10822136520216</v>
       </c>
       <c r="N33" t="n">
-        <v>0.004355422009746741</v>
+        <v>-3.715793267164555</v>
       </c>
       <c r="O33" t="n">
-        <v>0.9754459719756537</v>
+        <v>1.020912421473658</v>
       </c>
       <c r="P33" t="n">
-        <v>88.07750755197449</v>
+        <v>7.179010306138952</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.24616085059764</v>
+        <v>1.521088097114361</v>
       </c>
       <c r="R33" t="n">
-        <v>1.003315422578036</v>
+        <v>1.069974357221657</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.003306967196496214</v>
+        <v>10.56747112116833</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.01019956286212184</v>
+        <v>-3.10221137742233</v>
       </c>
       <c r="U33" t="n">
-        <v>0.9857446673748665</v>
+        <v>1.062982736898982</v>
       </c>
       <c r="V33" t="n">
-        <v>97.87407156408631</v>
+        <v>-0.006214880529696349</v>
       </c>
       <c r="W33" t="n">
-        <v>35.27732470585207</v>
+        <v>0.0001978102425435228</v>
       </c>
       <c r="X33" t="n">
-        <v>0.9962340908407353</v>
+        <v>1.090033956608107</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.001981381120510815</v>
+        <v>-0.004747251388898428</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.006126514456218839</v>
+        <v>-16.67991129843538</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1.058253532988245</v>
       </c>
       <c r="AB33" t="n">
-        <v>122.3318444396055</v>
+        <v>27.82924534548804</v>
       </c>
       <c r="AC33" t="n">
-        <v>50.39594299694286</v>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.457280291726089</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1.053191133713341</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>8.493983036114763</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>5.524001730867473</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.058271170259066</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>3.302848421743225</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1.698799138134636</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.056046354608662</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>5.754559549204622</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.522174497379699</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.051552312282372</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>12.73919050129674</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>5.520002492898465</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.038358552025908</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>14.04805649030379</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>4.755784089428871</v>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -3596,89 +5111,134 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.059969331774726</v>
       </c>
       <c r="D34" t="n">
-        <v>-66.75109415949471</v>
+        <v>-217.8159104201233</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.05109871441755</v>
+        <v>14.35585352401426</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9999980744423659</v>
+        <v>1.045066696313469</v>
       </c>
       <c r="G34" t="n">
-        <v>-163.0060568128694</v>
+        <v>-19.38958064903222</v>
       </c>
       <c r="H34" t="n">
-        <v>-14.40777435797295</v>
+        <v>-26.67722647352577</v>
       </c>
       <c r="I34" t="n">
-        <v>0.999970072450867</v>
+        <v>1.009901130167636</v>
       </c>
       <c r="J34" t="n">
-        <v>-85.00506736450733</v>
+        <v>89.45003754340742</v>
       </c>
       <c r="K34" t="n">
-        <v>3.72697330365558</v>
+        <v>-3.331020411820623</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9869747102155036</v>
+        <v>1.019093167548427</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0002777619100647106</v>
+        <v>45.39458636739947</v>
       </c>
       <c r="N34" t="n">
-        <v>0.005127695492760921</v>
+        <v>-3.708020172398414</v>
       </c>
       <c r="O34" t="n">
-        <v>0.9755010662298468</v>
+        <v>1.021036381987983</v>
       </c>
       <c r="P34" t="n">
-        <v>88.5044316819652</v>
+        <v>7.219775292378888</v>
       </c>
       <c r="Q34" t="n">
-        <v>30.08140787119721</v>
+        <v>1.516899651864265</v>
       </c>
       <c r="R34" t="n">
-        <v>1.003370380574893</v>
+        <v>1.069787930029267</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.002428965267206846</v>
+        <v>10.63346576975208</v>
       </c>
       <c r="T34" t="n">
-        <v>0.002570467591774951</v>
+        <v>-3.184150301445245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.9857197543445168</v>
+        <v>1.062792174179546</v>
       </c>
       <c r="V34" t="n">
-        <v>98.34041113608737</v>
+        <v>-0.007604708017232295</v>
       </c>
       <c r="W34" t="n">
-        <v>35.08640539826581</v>
+        <v>-0.004476209723376029</v>
       </c>
       <c r="X34" t="n">
-        <v>0.9961980931537632</v>
+        <v>1.089979977588019</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.005049751065143912</v>
+        <v>0.003550990159923267</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0005071186840767472</v>
+        <v>-16.72421335837115</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1.058059515489528</v>
       </c>
       <c r="AB34" t="n">
-        <v>122.9191374739862</v>
+        <v>28.0069769016781</v>
       </c>
       <c r="AC34" t="n">
-        <v>50.13779492457153</v>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>attack</t>
+        <v>-5.479668693406712</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1.053173814564421</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>8.540776770048806</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>5.519253310409165</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1.058215472193015</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>3.324791374468758</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1.710159974275014</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.05607774449352</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>5.792316893781775</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.515005417746154</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.05162621779953</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>12.82106765636551</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>5.521481173485247</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.038233728286348</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>14.14112819203427</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>4.762543775902681</v>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -3690,839 +5250,132 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9998789888583645</v>
+        <v>1.059996638514553</v>
       </c>
       <c r="D35" t="n">
-        <v>-63.97736225190593</v>
+        <v>-217.3907050496666</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.24324236234278</v>
+        <v>14.2892327597672</v>
       </c>
       <c r="F35" t="n">
-        <v>1.00011223808495</v>
+        <v>1.045043914591084</v>
       </c>
       <c r="G35" t="n">
-        <v>-162.9979886381724</v>
+        <v>-19.42993306635879</v>
       </c>
       <c r="H35" t="n">
-        <v>-14.5243000148185</v>
+        <v>-26.54386255258089</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9998808984848917</v>
+        <v>1.009949363632975</v>
       </c>
       <c r="J35" t="n">
-        <v>-85.00427960641265</v>
+        <v>89.30702778473841</v>
       </c>
       <c r="K35" t="n">
-        <v>3.636546807789102</v>
+        <v>-3.241478158129183</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9868543578902933</v>
+        <v>1.019324637510396</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00285830808715558</v>
+        <v>45.3016988938223</v>
       </c>
       <c r="N35" t="n">
-        <v>0.00217533936579662</v>
+        <v>-3.683407981716895</v>
       </c>
       <c r="O35" t="n">
-        <v>0.9752895549894888</v>
+        <v>1.02083442011455</v>
       </c>
       <c r="P35" t="n">
-        <v>87.70593612605659</v>
+        <v>7.203760832049183</v>
       </c>
       <c r="Q35" t="n">
-        <v>30.22813264856004</v>
+        <v>1.516887221422459</v>
       </c>
       <c r="R35" t="n">
-        <v>1.003677230196896</v>
+        <v>1.070014301591438</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.001357249699096685</v>
+        <v>10.61385313355074</v>
       </c>
       <c r="T35" t="n">
-        <v>0.001213461975426173</v>
+        <v>-3.051538632045639</v>
       </c>
       <c r="U35" t="n">
-        <v>0.9856562125966952</v>
+        <v>1.063133179835098</v>
       </c>
       <c r="V35" t="n">
-        <v>97.45359135616449</v>
+        <v>0.004016157157301736</v>
       </c>
       <c r="W35" t="n">
-        <v>35.27186897254538</v>
+        <v>0.01131713151639826</v>
       </c>
       <c r="X35" t="n">
-        <v>0.9961187389428369</v>
+        <v>1.089888070071291</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.00441600030425262</v>
+        <v>-0.001505812102085301</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.001378517875299923</v>
+        <v>-16.67128065608356</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.9571420520741883</v>
+        <v>1.058318610287589</v>
       </c>
       <c r="AB35" t="n">
-        <v>121.8215071151328</v>
+        <v>27.96410808617497</v>
       </c>
       <c r="AC35" t="n">
-        <v>50.38677771744656</v>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>no_attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>34</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.999941675109931</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-61.39586276265508</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-23.98409194846884</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.9999586114124944</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-163.0029163383826</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-14.28302289060151</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.000031064386901</v>
-      </c>
-      <c r="J36" t="n">
-        <v>-84.99292557557843</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.852390810706182</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.9869667557023623</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.003772021758894905</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.01185840251545207</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.9754163523445447</v>
-      </c>
-      <c r="P36" t="n">
-        <v>86.96634198745156</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>30.11069432755096</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.003302751058576</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.004820795523711038</v>
-      </c>
-      <c r="T36" t="n">
-        <v>-0.002317226038558543</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.9859621291644369</v>
-      </c>
-      <c r="V36" t="n">
-        <v>96.62681603490626</v>
-      </c>
-      <c r="W36" t="n">
-        <v>35.13599030160549</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.9962776253990355</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.004958298791902497</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>-0.003589124627839921</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0.9577162163085224</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>120.7852680018369</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>50.18155949411543</v>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>no_attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>35</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.9999544848210491</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-63.29826143005288</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-23.5370205660527</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.000111294286387</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-162.9935193522479</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-13.98159196499404</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.9999118166255545</v>
-      </c>
-      <c r="J37" t="n">
-        <v>-85.01001694939002</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.107343660946906</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.9870937398730065</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.001445442794255506</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.005062331301279692</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.9757549374368096</v>
-      </c>
-      <c r="P37" t="n">
-        <v>87.51935961094298</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>29.84720347921016</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.003770181915042</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.003901721925112415</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.006086975596860972</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.9862838080948391</v>
-      </c>
-      <c r="V37" t="n">
-        <v>97.23405181297335</v>
-      </c>
-      <c r="W37" t="n">
-        <v>34.82052066444236</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.9964568916132658</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>-0.006877945837075904</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>-0.003428948524054907</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0.9579215105271577</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>121.5606327632211</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>49.75190609509182</v>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>no_attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>36</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.9998537244931526</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-65.83940488706907</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-23.20677184560893</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.9998455844445094</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-163.0054875167854</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-13.74412517335956</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.9999688646494683</v>
-      </c>
-      <c r="J38" t="n">
-        <v>-85.00275584272146</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.285330466392312</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.9873258893744719</v>
-      </c>
-      <c r="M38" t="n">
-        <v>-0.003107920251699174</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-0.003477757828473041</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.9762455090426779</v>
-      </c>
-      <c r="P38" t="n">
-        <v>88.24425269286283</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>29.63355152896092</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.003900773052179</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.003328188044760482</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.00242311722918022</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.9863997246347928</v>
-      </c>
-      <c r="V38" t="n">
-        <v>98.04993019889885</v>
-      </c>
-      <c r="W38" t="n">
-        <v>34.58044306073726</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.9966888987790031</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>-0.00285926847942212</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0.007089031397797715</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0.9584138643541893</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>122.5632638338836</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>49.38867714204092</v>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>no_attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>37</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.9999130296079835</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-67.94386665421354</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-23.1720646843591</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.9999946142648108</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-163.0009287144754</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-13.74304945380638</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.9999678383937647</v>
-      </c>
-      <c r="J39" t="n">
-        <v>-84.99926243639554</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.279058723634144</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.9873042708560914</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-0.003217645004892344</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-0.008653205937994421</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.9762977393265994</v>
-      </c>
-      <c r="P39" t="n">
-        <v>88.84851295548198</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>29.57465691136091</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.003825813957855</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.005791261317452361</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.005464123227965046</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.9862952293753103</v>
-      </c>
-      <c r="V39" t="n">
-        <v>98.72430366480114</v>
-      </c>
-      <c r="W39" t="n">
-        <v>34.51144881960322</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.9966485254324721</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>-0.001694133963408641</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0.004138296789158353</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0.9585480230776934</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>123.4002263725118</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>49.30714096071988</v>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>no_attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>38</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.000061243353868</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-65.93520499757395</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-23.01571581396808</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.9999670325791082</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-162.9939908785955</v>
-      </c>
-      <c r="H40" t="n">
-        <v>-13.60208133029322</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.9999528631768653</v>
-      </c>
-      <c r="J40" t="n">
-        <v>-84.99334304817528</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4.40739728875207</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.9873941151314101</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.0007798322631557021</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.002889635195886807</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.9764662364635711</v>
-      </c>
-      <c r="P40" t="n">
-        <v>88.28053169616044</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>29.53611897232567</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.003794787733793</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.001698774956457971</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0.004972821492206779</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0.9865950230308751</v>
-      </c>
-      <c r="V40" t="n">
-        <v>98.09059445908531</v>
-      </c>
-      <c r="W40" t="n">
-        <v>34.44807343828816</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0.996840664234748</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0.002752648815459274</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>7.765979547458954e-05</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0.9584250301937246</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>122.5940490745213</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>49.21576190577293</v>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>no_attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>39</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.9999921769116429</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-66.75083473001079</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-22.64415128444097</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.9999727373311782</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-162.9935951667313</v>
-      </c>
-      <c r="H41" t="n">
-        <v>-13.338967888446</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.9999659218598647</v>
-      </c>
-      <c r="J41" t="n">
-        <v>-85.00105982836725</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.635023755889429</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.9877134229604018</v>
-      </c>
-      <c r="M41" t="n">
-        <v>-0.003957797842349716</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.002374542383253413</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.9768536901927022</v>
-      </c>
-      <c r="P41" t="n">
-        <v>88.50911762539003</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>29.31603878620391</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.003943597482387</v>
-      </c>
-      <c r="S41" t="n">
-        <v>-0.002926504177987008</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.006768955302625329</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.9870925866768128</v>
-      </c>
-      <c r="V41" t="n">
-        <v>98.34311440075815</v>
-      </c>
-      <c r="W41" t="n">
-        <v>34.20443245993908</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.996731786005669</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>-0.009953202377671116</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.009980534097704344</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0.9589854643527654</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>122.9428511875199</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>48.85745540811963</v>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>no_attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>40</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.9999658995365597</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-69.15735537625196</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-23.03991179497325</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.000057065573454</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-162.995795612119</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-13.65531926348797</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.000067556764399</v>
-      </c>
-      <c r="J42" t="n">
-        <v>-85.00891142444151</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.346830910168426</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.9873667863047469</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.002583385953411318</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-0.00266607843963026</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.9764607563330977</v>
-      </c>
-      <c r="P42" t="n">
-        <v>89.19799629313728</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>29.48479732138534</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.00365192884769</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.003343213125347344</v>
-      </c>
-      <c r="T42" t="n">
-        <v>-0.0013582671877175</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0.9864416036572108</v>
-      </c>
-      <c r="V42" t="n">
-        <v>99.10981355323344</v>
-      </c>
-      <c r="W42" t="n">
-        <v>34.40652092852295</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.9966431711866329</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>-0.0002956684332060322</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0.002790905349062973</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0.9586332022818561</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>123.8933191674256</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>49.1410638084486</v>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>no_attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>41</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.9999367853573969</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-66.7992985709427</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-23.08678438319093</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.9999174843572636</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-162.9946998482503</v>
-      </c>
-      <c r="H43" t="n">
-        <v>-13.66110461385249</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.9998902886371268</v>
-      </c>
-      <c r="J43" t="n">
-        <v>-84.99748409137786</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4.361130828066301</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.9874320682043021</v>
-      </c>
-      <c r="M43" t="n">
-        <v>-0.00505285639693183</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-0.006778629482205204</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.9763724047345441</v>
-      </c>
-      <c r="P43" t="n">
-        <v>88.52240211669644</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>29.54926754868122</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.003843802631524</v>
-      </c>
-      <c r="S43" t="n">
-        <v>-0.00190482855561484</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.002149832292615221</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0.986400250628042</v>
-      </c>
-      <c r="V43" t="n">
-        <v>98.35879270110358</v>
-      </c>
-      <c r="W43" t="n">
-        <v>34.47525074696756</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.996625119601836</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0.0007679139678264588</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>-0.004738339471394754</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0.9587052392603922</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>122.9556773474154</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>49.25233799538028</v>
-      </c>
-      <c r="AD43" t="inlineStr">
+        <v>-5.56657518705014</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.053140428205815</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>8.530603979042239</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>5.486280019951658</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1.058443367967721</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>3.31691421568889</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1.696454621277927</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.056266518612964</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>5.777469887836117</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.522567685817362</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.051579381193007</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>12.80497620718251</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>5.498088702133315</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.038470781586757</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>14.12824979726543</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>4.740136565215552</v>
+      </c>
+      <c r="AS35" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>

--- a/data_exports/data_export.xlsx
+++ b/data_exports/data_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,31 +591,31 @@
         <v>1.000162434536366</v>
       </c>
       <c r="D2" t="n">
-        <v>-74.58100089057788</v>
+        <v>-74.65240474144811</v>
       </c>
       <c r="E2" t="n">
-        <v>-24.63043880600868</v>
+        <v>-24.75502816355342</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999388243586348</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G2" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H2" t="n">
-        <v>-14.89869016350661</v>
+        <v>-14.99491081688165</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999471828247737</v>
+        <v>0.9999471828247736</v>
       </c>
       <c r="J2" t="n">
-        <v>-85.01030070354749</v>
+        <v>-85.01030070354751</v>
       </c>
       <c r="K2" t="n">
-        <v>3.254831387080349</v>
+        <v>3.173502975646789</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9866409759991589</v>
+        <v>0.9865710720863752</v>
       </c>
       <c r="M2" t="n">
         <v>-0.001612086020067537</v>
@@ -624,16 +624,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9750681864601495</v>
+        <v>0.9749585900330783</v>
       </c>
       <c r="P2" t="n">
-        <v>90.74871933669128</v>
+        <v>90.76864386999499</v>
       </c>
       <c r="Q2" t="n">
-        <v>30.25472115642451</v>
+        <v>30.32113674138821</v>
       </c>
       <c r="R2" t="n">
-        <v>1.002917790522508</v>
+        <v>1.002870190863152</v>
       </c>
       <c r="S2" t="n">
         <v>0.005668847211677187</v>
@@ -642,16 +642,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U2" t="n">
-        <v>0.985371095002589</v>
+        <v>0.985279182614417</v>
       </c>
       <c r="V2" t="n">
-        <v>100.8285445530686</v>
+        <v>100.850682923406</v>
       </c>
       <c r="W2" t="n">
-        <v>35.29641968303813</v>
+        <v>35.37390453216243</v>
       </c>
       <c r="X2" t="n">
-        <v>0.995834644216643</v>
+        <v>0.9957748217938215</v>
       </c>
       <c r="Y2" t="n">
         <v>-0.0008621410377521787</v>
@@ -660,13 +660,13 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9570643075702682</v>
+        <v>0.9569239152705037</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.0381657196668</v>
+        <v>126.0658386825886</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.41640755357498</v>
+        <v>50.52710019518114</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -685,31 +685,31 @@
         <v>1.000162434536366</v>
       </c>
       <c r="D3" t="n">
-        <v>-77.22938054638786</v>
+        <v>-77.37352745000263</v>
       </c>
       <c r="E3" t="n">
-        <v>-25.20997923527315</v>
+        <v>-25.46255489894425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999388243586349</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G3" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H3" t="n">
-        <v>-15.34723740672763</v>
+        <v>-15.54190465608212</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9999471828247737</v>
+        <v>0.9999471828247739</v>
       </c>
       <c r="J3" t="n">
         <v>-85.01030070354749</v>
       </c>
       <c r="K3" t="n">
-        <v>2.85970853643011</v>
+        <v>2.69516298899959</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9863750879544927</v>
+        <v>0.9862335004253827</v>
       </c>
       <c r="M3" t="n">
         <v>-0.001612086020067537</v>
@@ -718,16 +718,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9745680466164358</v>
+        <v>0.9743462272540053</v>
       </c>
       <c r="P3" t="n">
-        <v>91.50561960984253</v>
+        <v>91.54580544616975</v>
       </c>
       <c r="Q3" t="n">
-        <v>30.50702124747492</v>
+        <v>30.6411073221486</v>
       </c>
       <c r="R3" t="n">
-        <v>1.002686534206215</v>
+        <v>1.002590229520887</v>
       </c>
       <c r="S3" t="n">
         <v>0.005668847211677187</v>
@@ -736,16 +736,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U3" t="n">
-        <v>0.984916694334007</v>
+        <v>0.9847308066038239</v>
       </c>
       <c r="V3" t="n">
-        <v>101.66954485657</v>
+        <v>101.7141957858224</v>
       </c>
       <c r="W3" t="n">
-        <v>35.59076978926361</v>
+        <v>35.74720354304957</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9955557731979884</v>
+        <v>0.995434744834501</v>
       </c>
       <c r="Y3" t="n">
         <v>-0.0008621410377521787</v>
@@ -754,13 +754,13 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9564646164943376</v>
+        <v>0.9561804746413407</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.0894160990436</v>
+        <v>127.1452297606092</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.83690770532566</v>
+        <v>51.06038449644846</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -779,31 +779,31 @@
         <v>1.000162434536366</v>
       </c>
       <c r="D4" t="n">
-        <v>-77.22864793532078</v>
+        <v>-81.62547066760392</v>
       </c>
       <c r="E4" t="n">
-        <v>-25.20981714525104</v>
+        <v>-26.8516054271545</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999938824358635</v>
+        <v>0.9999388243586349</v>
       </c>
       <c r="G4" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H4" t="n">
-        <v>-15.34711289431317</v>
+        <v>-16.19280257446252</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999471828247737</v>
+        <v>0.9999471828247736</v>
       </c>
       <c r="J4" t="n">
-        <v>-85.01030070354749</v>
+        <v>-85.01030070354746</v>
       </c>
       <c r="K4" t="n">
-        <v>2.859818248129562</v>
+        <v>2.16080096524402</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9863751621949631</v>
+        <v>1.005668030564467</v>
       </c>
       <c r="M4" t="n">
         <v>-0.001612086020067537</v>
@@ -812,34 +812,34 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9745681856903764</v>
+        <v>0.9542437273368046</v>
       </c>
       <c r="P4" t="n">
-        <v>91.50541028667934</v>
+        <v>92.76053665161345</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.50695147308719</v>
+        <v>30.99188934903444</v>
       </c>
       <c r="R4" t="n">
-        <v>1.002686598417933</v>
+        <v>1.00225256112154</v>
       </c>
       <c r="S4" t="n">
-        <v>0.005668847211677187</v>
+        <v>0.005782790931425973</v>
       </c>
       <c r="T4" t="n">
         <v>0.002512471694509341</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9849168203298244</v>
+        <v>0.9840686415464556</v>
       </c>
       <c r="V4" t="n">
-        <v>101.6693122752775</v>
+        <v>103.0638971252043</v>
       </c>
       <c r="W4" t="n">
-        <v>35.59068838581125</v>
+        <v>36.15644924108305</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9955558506098077</v>
+        <v>0.9752289906337451</v>
       </c>
       <c r="Y4" t="n">
         <v>-0.0008621410377521787</v>
@@ -848,17 +848,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9564647831853623</v>
+        <v>0.9553173018612898</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.089125372428</v>
+        <v>128.8323564348365</v>
       </c>
       <c r="AC4" t="n">
-        <v>50.83679141467946</v>
+        <v>51.64502120792485</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -870,13 +870,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>1.000162434536366</v>
+        <v>0.9802592209749112</v>
       </c>
       <c r="D5" t="n">
-        <v>-76.28870977329663</v>
+        <v>-82.37877681357485</v>
       </c>
       <c r="E5" t="n">
-        <v>-25.00265242645992</v>
+        <v>-26.95561674780767</v>
       </c>
       <c r="F5" t="n">
         <v>0.999938824358635</v>
@@ -885,37 +885,37 @@
         <v>-162.9926894603148</v>
       </c>
       <c r="H5" t="n">
-        <v>-15.18755706841642</v>
+        <v>-16.34503029124096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9999471828247737</v>
+        <v>0.9800482527683148</v>
       </c>
       <c r="J5" t="n">
         <v>-85.01030070354749</v>
       </c>
       <c r="K5" t="n">
-        <v>3.000394529233807</v>
+        <v>1.706147815742787</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9864701056216555</v>
+        <v>0.9855089628028603</v>
       </c>
       <c r="M5" t="n">
         <v>-0.001612086020067537</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00572361854919807</v>
+        <v>0.005609718648146696</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9747462953114017</v>
+        <v>0.9730679766329055</v>
       </c>
       <c r="P5" t="n">
-        <v>91.2368254904313</v>
+        <v>91.12324973619218</v>
       </c>
       <c r="Q5" t="n">
-        <v>30.41742320767118</v>
+        <v>31.31354557401229</v>
       </c>
       <c r="R5" t="n">
-        <v>1.002768874466785</v>
+        <v>0.9820713748149996</v>
       </c>
       <c r="S5" t="n">
         <v>0.005668847211677187</v>
@@ -924,16 +924,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9850783395680357</v>
+        <v>1.003372887865629</v>
       </c>
       <c r="V5" t="n">
-        <v>101.3708847238908</v>
+        <v>103.3004330890536</v>
       </c>
       <c r="W5" t="n">
-        <v>35.48623874282591</v>
+        <v>36.53171483689054</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9956550496439029</v>
+        <v>0.9749340090816326</v>
       </c>
       <c r="Y5" t="n">
         <v>-0.0008621410377521787</v>
@@ -942,17 +942,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.9566782908594588</v>
+        <v>0.9546191888742993</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.7160909331946</v>
+        <v>129.1280263896482</v>
       </c>
       <c r="AC5" t="n">
-        <v>50.68757763898611</v>
+        <v>52.18111491622127</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -967,31 +967,31 @@
         <v>1.000162434536366</v>
       </c>
       <c r="D6" t="n">
-        <v>-75.09951747145004</v>
+        <v>-85.29193662552348</v>
       </c>
       <c r="E6" t="n">
-        <v>-24.7428869596978</v>
+        <v>-26.47143392059139</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999938824358635</v>
+        <v>0.9999388243586349</v>
       </c>
       <c r="G6" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H6" t="n">
-        <v>-14.98626086505339</v>
+        <v>-16.28305687133235</v>
       </c>
       <c r="I6" t="n">
         <v>0.9999471828247736</v>
       </c>
       <c r="J6" t="n">
-        <v>-85.01030070354749</v>
+        <v>-86.71900611003156</v>
       </c>
       <c r="K6" t="n">
-        <v>3.177707627647697</v>
+        <v>2.015664718058138</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9865893156036126</v>
+        <v>0.9858697117102567</v>
       </c>
       <c r="M6" t="n">
         <v>-0.001612086020067537</v>
@@ -1000,16 +1000,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9749706817917241</v>
+        <v>0.9735261203089192</v>
       </c>
       <c r="P6" t="n">
-        <v>90.89694252900127</v>
+        <v>91.9432157853791</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.3041288871945</v>
+        <v>30.9573376493794</v>
       </c>
       <c r="R6" t="n">
-        <v>1.00287265174968</v>
+        <v>1.002192535214899</v>
       </c>
       <c r="S6" t="n">
         <v>0.005668847211677187</v>
@@ -1018,16 +1018,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9852822998487885</v>
+        <v>0.983945220954032</v>
       </c>
       <c r="V6" t="n">
-        <v>100.9932369889685</v>
+        <v>104.2300049393063</v>
       </c>
       <c r="W6" t="n">
-        <v>35.35406203560312</v>
+        <v>36.11613892481884</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9957801996509585</v>
+        <v>0.9949739577092985</v>
       </c>
       <c r="Y6" t="n">
         <v>-0.0008621410377521787</v>
@@ -1036,17 +1036,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9569473576766742</v>
+        <v>0.9552664009343514</v>
       </c>
       <c r="AB6" t="n">
-        <v>126.2440312645418</v>
+        <v>130.2899912024639</v>
       </c>
       <c r="AC6" t="n">
-        <v>50.49875377152497</v>
+        <v>51.58743504183312</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -1061,49 +1061,49 @@
         <v>1.000162434536366</v>
       </c>
       <c r="D7" t="n">
-        <v>-77.62361932776935</v>
+        <v>-84.26991335165626</v>
       </c>
       <c r="E7" t="n">
-        <v>-25.29735666283923</v>
+        <v>-25.92410939256891</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999388243586349</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G7" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H7" t="n">
-        <v>-15.41427890551392</v>
+        <v>-16.19949882811511</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9999471828247739</v>
+        <v>0.9999471828247737</v>
       </c>
       <c r="J7" t="n">
-        <v>-85.01030070354749</v>
+        <v>-85.01030070354751</v>
       </c>
       <c r="K7" t="n">
-        <v>2.800633784168332</v>
+        <v>2.373630290242835</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9863350761376599</v>
+        <v>0.9861088245403603</v>
       </c>
       <c r="M7" t="n">
         <v>-0.001612086020067537</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00572361854919807</v>
+        <v>0.005838663171775899</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9744931431830496</v>
+        <v>0.9739789556700911</v>
       </c>
       <c r="P7" t="n">
-        <v>91.61825677307934</v>
+        <v>93.04427146533676</v>
       </c>
       <c r="Q7" t="n">
-        <v>30.54456696855386</v>
+        <v>30.74519382124921</v>
       </c>
       <c r="R7" t="n">
-        <v>1.002651959123819</v>
+        <v>1.022550305743159</v>
       </c>
       <c r="S7" t="n">
         <v>0.005668847211677187</v>
@@ -1112,16 +1112,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U7" t="n">
-        <v>0.984848866812332</v>
+        <v>0.9843541182043748</v>
       </c>
       <c r="V7" t="n">
-        <v>101.7946972601664</v>
+        <v>103.3791580293413</v>
       </c>
       <c r="W7" t="n">
-        <v>35.63457313052238</v>
+        <v>35.86863779200028</v>
       </c>
       <c r="X7" t="n">
-        <v>0.995514092194473</v>
+        <v>0.9754194093409675</v>
       </c>
       <c r="Y7" t="n">
         <v>-0.0008621410377521787</v>
@@ -1130,17 +1130,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9563748442174425</v>
+        <v>0.9558012629319471</v>
       </c>
       <c r="AB7" t="n">
-        <v>127.2458566035391</v>
+        <v>129.2264325650077</v>
       </c>
       <c r="AC7" t="n">
-        <v>50.8994839071239</v>
+        <v>51.23386199494947</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -1155,31 +1155,31 @@
         <v>1.000162434536366</v>
       </c>
       <c r="D8" t="n">
-        <v>-80.31300242781627</v>
+        <v>-88.47970649865559</v>
       </c>
       <c r="E8" t="n">
-        <v>-25.90109068113951</v>
+        <v>-25.85922970759189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999388243586349</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G8" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H8" t="n">
-        <v>-15.87349419138826</v>
+        <v>-15.77917037045995</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999471828247739</v>
+        <v>0.9999471828247737</v>
       </c>
       <c r="J8" t="n">
         <v>-85.01030070354749</v>
       </c>
       <c r="K8" t="n">
-        <v>2.395862591593987</v>
+        <v>2.415185402118828</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9860591339920451</v>
+        <v>0.9863150640795809</v>
       </c>
       <c r="M8" t="n">
         <v>-0.001612086020067537</v>
@@ -1188,16 +1188,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9739790345252261</v>
+        <v>0.9741084382119318</v>
       </c>
       <c r="P8" t="n">
-        <v>92.38639028559656</v>
+        <v>94.72539194696904</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.80061147272627</v>
+        <v>30.51284085167895</v>
       </c>
       <c r="R8" t="n">
-        <v>1.002415056011847</v>
+        <v>1.002426365197727</v>
       </c>
       <c r="S8" t="n">
         <v>0.005668847211677187</v>
@@ -1206,16 +1206,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U8" t="n">
-        <v>0.98438488141907</v>
+        <v>0.9843905550393531</v>
       </c>
       <c r="V8" t="n">
-        <v>102.6481789407411</v>
+        <v>105.2470696755994</v>
       </c>
       <c r="W8" t="n">
-        <v>35.93329171872352</v>
+        <v>35.59755932750164</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9952285896176428</v>
+        <v>0.9952872323984612</v>
       </c>
       <c r="Y8" t="n">
         <v>-0.0008621410377521787</v>
@@ -1224,13 +1224,13 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9557589594524841</v>
+        <v>0.9560805158467115</v>
       </c>
       <c r="AB8" t="n">
-        <v>128.3127087042575</v>
+        <v>131.5613221228303</v>
       </c>
       <c r="AC8" t="n">
-        <v>51.32622474741124</v>
+        <v>50.8466070456657</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1249,31 +1249,31 @@
         <v>1.000162434536366</v>
       </c>
       <c r="D9" t="n">
-        <v>-81.63623238988988</v>
+        <v>-88.48147682987398</v>
       </c>
       <c r="E9" t="n">
-        <v>-26.20306001398991</v>
+        <v>-24.76029405945906</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999388243586352</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G9" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.10064274304113</v>
+        <v>-14.93178955885236</v>
       </c>
       <c r="I9" t="n">
         <v>0.9999471828247737</v>
       </c>
       <c r="J9" t="n">
-        <v>-85.01030070354751</v>
+        <v>-85.01030070354749</v>
       </c>
       <c r="K9" t="n">
-        <v>2.195564207645992</v>
+        <v>3.127164338209246</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9859214441143215</v>
+        <v>0.9869472588304656</v>
       </c>
       <c r="M9" t="n">
         <v>-0.001612086020067537</v>
@@ -1282,16 +1282,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9737240674642783</v>
+        <v>0.9750767615028081</v>
       </c>
       <c r="P9" t="n">
-        <v>92.76417024444352</v>
+        <v>94.73082991426605</v>
       </c>
       <c r="Q9" t="n">
-        <v>30.92653812567525</v>
+        <v>29.91315861800665</v>
       </c>
       <c r="R9" t="n">
-        <v>1.002297826103641</v>
+        <v>1.002843069920852</v>
       </c>
       <c r="S9" t="n">
         <v>0.005668847211677187</v>
@@ -1300,16 +1300,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U9" t="n">
-        <v>0.984155765880069</v>
+        <v>0.9851929909167875</v>
       </c>
       <c r="V9" t="n">
-        <v>103.0679344505711</v>
+        <v>105.253111861485</v>
       </c>
       <c r="W9" t="n">
-        <v>36.08020614716399</v>
+        <v>34.89793005488396</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9950873675119339</v>
+        <v>0.9958140656156265</v>
       </c>
       <c r="Y9" t="n">
         <v>-0.0008621410377521787</v>
@@ -1318,13 +1318,13 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.9554536944560263</v>
+        <v>0.9573318072331345</v>
       </c>
       <c r="AB9" t="n">
-        <v>128.8374030915449</v>
+        <v>131.5688748551873</v>
       </c>
       <c r="AC9" t="n">
-        <v>51.53610250232622</v>
+        <v>49.84713665621188</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1340,34 +1340,34 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D10" t="n">
-        <v>-81.81423943897961</v>
+        <v>-90.66062449544668</v>
       </c>
       <c r="E10" t="n">
-        <v>-26.24393040605864</v>
+        <v>-25.79991220023896</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999388243586349</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G10" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H10" t="n">
-        <v>-16.13126065830158</v>
+        <v>-15.70597138942486</v>
       </c>
       <c r="I10" t="n">
         <v>0.9999471828247737</v>
       </c>
       <c r="J10" t="n">
-        <v>-85.01030070354751</v>
+        <v>-85.01030070354749</v>
       </c>
       <c r="K10" t="n">
-        <v>2.168561467688226</v>
+        <v>2.460117650692842</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9859028245383258</v>
+        <v>0.9864148828946204</v>
       </c>
       <c r="M10" t="n">
         <v>-0.001612086020067537</v>
@@ -1376,16 +1376,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9736896664079356</v>
+        <v>0.9741951387797022</v>
       </c>
       <c r="P10" t="n">
-        <v>92.81498304343592</v>
+        <v>95.34970931184844</v>
       </c>
       <c r="Q10" t="n">
-        <v>30.94347572533939</v>
+        <v>30.39879058158628</v>
       </c>
       <c r="R10" t="n">
-        <v>1.002282022041</v>
+        <v>1.002452662985855</v>
       </c>
       <c r="S10" t="n">
         <v>0.005668847211677187</v>
@@ -1394,16 +1394,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9841249025310383</v>
+        <v>0.9844388716079873</v>
       </c>
       <c r="V10" t="n">
-        <v>103.1243931161182</v>
+        <v>105.9407556365765</v>
       </c>
       <c r="W10" t="n">
-        <v>36.0999666801055</v>
+        <v>35.4645006790602</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9950683318511401</v>
+        <v>0.9953327415197966</v>
       </c>
       <c r="Y10" t="n">
         <v>-0.0008621410377521787</v>
@@ -1412,17 +1412,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.9562354113525577</v>
       </c>
       <c r="AB10" t="n">
-        <v>128.9079764234789</v>
+        <v>132.4284295740518</v>
       </c>
       <c r="AC10" t="n">
-        <v>51.56433183509979</v>
+        <v>50.65652326217792</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -1434,52 +1434,52 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D11" t="n">
-        <v>-84.52883561490374</v>
+        <v>-84.76400457173261</v>
       </c>
       <c r="E11" t="n">
-        <v>-26.87450393322675</v>
+        <v>-26.18204775523847</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999938824358635</v>
+        <v>0.9999388243586349</v>
       </c>
       <c r="G11" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H11" t="n">
-        <v>-16.59997440657145</v>
+        <v>-16.38717649343766</v>
       </c>
       <c r="I11" t="n">
         <v>0.9999471828247736</v>
       </c>
       <c r="J11" t="n">
-        <v>-85.01030070354749</v>
+        <v>-86.71900611003156</v>
       </c>
       <c r="K11" t="n">
-        <v>1.755072407172923</v>
+        <v>2.203338742713646</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9856160235364922</v>
+        <v>0.9860210888861816</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.001612086020067537</v>
+        <v>-0.001644488918015313</v>
       </c>
       <c r="N11" t="n">
         <v>0.00572361854919807</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9731620560363624</v>
+        <v>0.9737747942898173</v>
       </c>
       <c r="P11" t="n">
-        <v>93.58964183332155</v>
+        <v>91.79635286449302</v>
       </c>
       <c r="Q11" t="n">
-        <v>31.20169532196793</v>
+        <v>30.81726712074363</v>
       </c>
       <c r="R11" t="n">
-        <v>1.002040016787298</v>
+        <v>1.022448634810668</v>
       </c>
       <c r="S11" t="n">
         <v>0.005668847211677187</v>
@@ -1488,31 +1488,31 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9836530108402777</v>
+        <v>0.9841576952653871</v>
       </c>
       <c r="V11" t="n">
-        <v>103.98512510488</v>
+        <v>101.9926487859566</v>
       </c>
       <c r="W11" t="n">
-        <v>36.40122287617213</v>
+        <v>35.9527233080771</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9947769252970752</v>
+        <v>0.9951099719211522</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.0008621410377521787</v>
+        <v>-0.0008449844473805055</v>
       </c>
       <c r="Z11" t="n">
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>0.9555778423402991</v>
       </c>
       <c r="AB11" t="n">
-        <v>129.9838914094311</v>
+        <v>130.0818733827735</v>
       </c>
       <c r="AC11" t="n">
-        <v>51.99469782948068</v>
+        <v>51.3539841607735</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -1528,13 +1528,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.9802592209749112</v>
       </c>
       <c r="D12" t="n">
-        <v>-83.60781507639514</v>
+        <v>-90.71331592092659</v>
       </c>
       <c r="E12" t="n">
-        <v>-26.65902246435448</v>
+        <v>-26.38980255885575</v>
       </c>
       <c r="F12" t="n">
         <v>0.999938824358635</v>
@@ -1543,19 +1543,19 @@
         <v>-162.9926894603148</v>
       </c>
       <c r="H12" t="n">
-        <v>-16.44056949411856</v>
+        <v>-16.1600146304794</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9999471828247737</v>
+        <v>0.9999471828247736</v>
       </c>
       <c r="J12" t="n">
-        <v>-85.01030070354751</v>
+        <v>-85.01030070354749</v>
       </c>
       <c r="K12" t="n">
-        <v>1.895720721180003</v>
+        <v>2.078245061548563</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9857139316711535</v>
+        <v>0.9860771901165081</v>
       </c>
       <c r="M12" t="n">
         <v>-0.001612086020067537</v>
@@ -1564,16 +1564,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9733416972601744</v>
+        <v>0.9736763487537573</v>
       </c>
       <c r="P12" t="n">
-        <v>93.32686117567596</v>
+        <v>95.36209522313145</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.1141017694194</v>
+        <v>30.71806763843587</v>
       </c>
       <c r="R12" t="n">
-        <v>1.002122334864011</v>
+        <v>1.002229161997072</v>
       </c>
       <c r="S12" t="n">
         <v>0.005668847211677187</v>
@@ -1582,31 +1582,31 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9838133749902418</v>
+        <v>0.9840084587774058</v>
       </c>
       <c r="V12" t="n">
-        <v>103.6931465963849</v>
+        <v>103.8460248575086</v>
       </c>
       <c r="W12" t="n">
-        <v>36.29903039819883</v>
+        <v>35.83699057871806</v>
       </c>
       <c r="X12" t="n">
-        <v>0.994876029684043</v>
+        <v>0.9950504550376633</v>
       </c>
       <c r="Y12" t="n">
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.003418639295871666</v>
+        <v>-0.003350608438437136</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>0.955565954190954</v>
       </c>
       <c r="AB12" t="n">
-        <v>129.6189182738122</v>
+        <v>135.1077868849446</v>
       </c>
       <c r="AC12" t="n">
-        <v>51.84870857523314</v>
+        <v>51.18865169026058</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -1622,22 +1622,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D13" t="n">
-        <v>-88.84878558721942</v>
+        <v>-90.81268931861158</v>
       </c>
       <c r="E13" t="n">
-        <v>-27.90633694651927</v>
+        <v>-25.48994636339863</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999388243586349</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G13" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H13" t="n">
-        <v>-17.35284548513653</v>
+        <v>-15.54823026677792</v>
       </c>
       <c r="I13" t="n">
         <v>0.9999471828247737</v>
@@ -1646,10 +1646,10 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K13" t="n">
-        <v>1.090449685254901</v>
+        <v>2.279953512223454</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9851485264227148</v>
+        <v>0.9863001236616752</v>
       </c>
       <c r="M13" t="n">
         <v>-0.001612086020067537</v>
@@ -1658,49 +1658,49 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9723107772998127</v>
+        <v>0.9740148134438869</v>
       </c>
       <c r="P13" t="n">
-        <v>94.82151147257899</v>
+        <v>95.39227076809081</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61231853505374</v>
+        <v>31.11920917451686</v>
       </c>
       <c r="R13" t="n">
-        <v>1.001651029313553</v>
+        <v>1.002374310921869</v>
       </c>
       <c r="S13" t="n">
-        <v>0.005668847211677187</v>
+        <v>0.005782790931425973</v>
       </c>
       <c r="T13" t="n">
         <v>0.002512471694509341</v>
       </c>
       <c r="U13" t="n">
-        <v>0.982897278720647</v>
+        <v>0.984287865417122</v>
       </c>
       <c r="V13" t="n">
-        <v>105.3538691484994</v>
+        <v>105.9880461435125</v>
       </c>
       <c r="W13" t="n">
-        <v>36.88028329143891</v>
+        <v>36.30497386200466</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9943088556491353</v>
+        <v>0.9952345408064621</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.0008621410377521787</v>
+        <v>-0.0008794700560025219</v>
       </c>
       <c r="Z13" t="n">
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>0.9560053813962377</v>
       </c>
       <c r="AB13" t="n">
-        <v>131.6948214639553</v>
+        <v>135.1505397638775</v>
       </c>
       <c r="AC13" t="n">
-        <v>52.67906985129037</v>
+        <v>50.83526961043751</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -1716,22 +1716,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D14" t="n">
-        <v>-90.93464203580638</v>
+        <v>-95.41701346909794</v>
       </c>
       <c r="E14" t="n">
-        <v>-28.41706760252774</v>
+        <v>-25.17873867505514</v>
       </c>
       <c r="F14" t="n">
         <v>0.999938824358635</v>
       </c>
       <c r="G14" t="n">
-        <v>-162.9926894603148</v>
+        <v>-166.2688393785399</v>
       </c>
       <c r="H14" t="n">
-        <v>-17.71944732247755</v>
+        <v>-15.54538827897005</v>
       </c>
       <c r="I14" t="n">
         <v>0.9999471828247736</v>
@@ -1740,61 +1740,61 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K14" t="n">
-        <v>0.76662018794463</v>
+        <v>2.558088530304877</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9849178980686119</v>
+        <v>0.9866269251904909</v>
       </c>
       <c r="M14" t="n">
         <v>-0.001612086020067537</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00572361854919807</v>
+        <v>0.005609718648146696</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9718945896343372</v>
+        <v>0.9549911637421342</v>
       </c>
       <c r="P14" t="n">
-        <v>95.41591059587324</v>
+        <v>96.71042181886007</v>
       </c>
       <c r="Q14" t="n">
-        <v>31.81045157615182</v>
+        <v>30.14458801455389</v>
       </c>
       <c r="R14" t="n">
-        <v>1.001461499940276</v>
+        <v>1.002510003042895</v>
       </c>
       <c r="S14" t="n">
         <v>0.005668847211677187</v>
       </c>
       <c r="T14" t="n">
-        <v>0.002512471694509341</v>
+        <v>0.002562972327168169</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9825302668853343</v>
+        <v>0.9845471161695315</v>
       </c>
       <c r="V14" t="n">
-        <v>106.0143126188263</v>
+        <v>105.3143525485461</v>
       </c>
       <c r="W14" t="n">
-        <v>37.11143850605333</v>
+        <v>35.1679310175224</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9940809354105028</v>
+        <v>0.9954325790006687</v>
       </c>
       <c r="Y14" t="n">
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.003418639295871666</v>
+        <v>-0.003487353879861263</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>0.9565718449748654</v>
       </c>
       <c r="AB14" t="n">
-        <v>132.520375801864</v>
+        <v>134.3183080560123</v>
       </c>
       <c r="AC14" t="n">
-        <v>53.00929158645385</v>
+        <v>50.23285231712392</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -1810,22 +1810,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D15" t="n">
-        <v>-96.80856958279078</v>
+        <v>-94.26572118383713</v>
       </c>
       <c r="E15" t="n">
-        <v>-29.89937244252314</v>
+        <v>-26.61402375121267</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999388243586349</v>
+        <v>0.9999388243586348</v>
       </c>
       <c r="G15" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H15" t="n">
-        <v>-18.76270527430705</v>
+        <v>-16.27805808706034</v>
       </c>
       <c r="I15" t="n">
         <v>0.9999471828247736</v>
@@ -1834,10 +1834,10 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.1556113920437331</v>
+        <v>1.951543618212502</v>
       </c>
       <c r="L15" t="n">
-        <v>0.98425116107376</v>
+        <v>0.9860587624136284</v>
       </c>
       <c r="M15" t="n">
         <v>-0.001612086020067537</v>
@@ -1846,16 +1846,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9707043907320687</v>
+        <v>0.9735439130058894</v>
       </c>
       <c r="P15" t="n">
-        <v>97.08837363403372</v>
+        <v>96.37707273487672</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.36793925553865</v>
+        <v>30.69693846939049</v>
       </c>
       <c r="R15" t="n">
-        <v>1.000921741156413</v>
+        <v>1.002155006668184</v>
       </c>
       <c r="S15" t="n">
         <v>0.005668847211677187</v>
@@ -1864,16 +1864,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U15" t="n">
-        <v>0.9814892810727174</v>
+        <v>0.9838636915574386</v>
       </c>
       <c r="V15" t="n">
-        <v>107.8726048834491</v>
+        <v>107.0822705510523</v>
       </c>
       <c r="W15" t="n">
-        <v>37.7618407986713</v>
+        <v>35.81233988149844</v>
       </c>
       <c r="X15" t="n">
-        <v>0.9934323339454537</v>
+        <v>0.994977065532208</v>
       </c>
       <c r="Y15" t="n">
         <v>-0.0008621410377521787</v>
@@ -1882,17 +1882,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>0.9554661462712341</v>
       </c>
       <c r="AB15" t="n">
-        <v>134.8432411326424</v>
+        <v>133.8553232171465</v>
       </c>
       <c r="AC15" t="n">
-        <v>53.93843771876522</v>
+        <v>51.15343640851825</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -1904,13 +1904,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D16" t="n">
-        <v>-96.22825035801952</v>
+        <v>-100.5598957756249</v>
       </c>
       <c r="E16" t="n">
-        <v>-29.75002297906404</v>
+        <v>-26.84543875631047</v>
       </c>
       <c r="F16" t="n">
         <v>0.9999388243586352</v>
@@ -1919,19 +1919,19 @@
         <v>-162.9926894603148</v>
       </c>
       <c r="H16" t="n">
-        <v>-18.6589173925484</v>
+        <v>-16.32935378175654</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9999471828247739</v>
+        <v>0.9999471828247737</v>
       </c>
       <c r="J16" t="n">
         <v>-85.01030070354749</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.06381860169187285</v>
+        <v>1.858101405665143</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9843181713954674</v>
+        <v>0.9861319497161362</v>
       </c>
       <c r="M16" t="n">
         <v>-0.001612086020067537</v>
@@ -1940,16 +1940,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9708231779521828</v>
+        <v>0.9734821497550847</v>
       </c>
       <c r="P16" t="n">
-        <v>96.92323428449613</v>
+        <v>98.17472496707857</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.31289280569279</v>
+        <v>30.53910676206553</v>
       </c>
       <c r="R16" t="n">
-        <v>1.00097546511923</v>
+        <v>1.002100317181393</v>
       </c>
       <c r="S16" t="n">
         <v>0.005668847211677187</v>
@@ -1958,16 +1958,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U16" t="n">
-        <v>0.9815926182453313</v>
+        <v>0.9837603069198033</v>
       </c>
       <c r="V16" t="n">
-        <v>107.6891167172962</v>
+        <v>109.0796619201655</v>
       </c>
       <c r="W16" t="n">
-        <v>37.6976199405178</v>
+        <v>35.62820288961932</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9934968594659571</v>
+        <v>0.9949451741956727</v>
       </c>
       <c r="Y16" t="n">
         <v>-0.0008621410377521787</v>
@@ -1976,17 +1976,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>0.9555173333520899</v>
       </c>
       <c r="AB16" t="n">
-        <v>134.6138809249514</v>
+        <v>136.352062428538</v>
       </c>
       <c r="AC16" t="n">
-        <v>53.84669363568879</v>
+        <v>50.89038356297667</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -1998,22 +1998,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D17" t="n">
-        <v>-97.38522872285741</v>
+        <v>-101.0107961728487</v>
       </c>
       <c r="E17" t="n">
-        <v>-30.04841354924157</v>
+        <v>-26.66890984985255</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999938824358635</v>
+        <v>0.9999388243586349</v>
       </c>
       <c r="G17" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H17" t="n">
-        <v>-18.8659955914427</v>
+        <v>-16.18274581022644</v>
       </c>
       <c r="I17" t="n">
         <v>0.9999471828247737</v>
@@ -2022,10 +2022,10 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.2469738823883693</v>
+        <v>1.977603540839544</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9841843244031367</v>
+        <v>0.9862487406419485</v>
       </c>
       <c r="M17" t="n">
         <v>-0.001612086020067537</v>
@@ -2034,16 +2034,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9705860902267778</v>
+        <v>0.9736491080705715</v>
       </c>
       <c r="P17" t="n">
-        <v>97.25245107778916</v>
+        <v>98.3043184779393</v>
       </c>
       <c r="Q17" t="n">
-        <v>32.42263173679046</v>
+        <v>30.42126596992176</v>
       </c>
       <c r="R17" t="n">
-        <v>1.000868269044364</v>
+        <v>1.002170258917432</v>
       </c>
       <c r="S17" t="n">
         <v>0.005668847211677187</v>
@@ -2052,16 +2052,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U17" t="n">
-        <v>0.9813864881020237</v>
+        <v>0.9838953896161305</v>
       </c>
       <c r="V17" t="n">
-        <v>108.0549131542885</v>
+        <v>109.2236547100108</v>
       </c>
       <c r="W17" t="n">
-        <v>37.82564869346508</v>
+        <v>35.49072196545159</v>
       </c>
       <c r="X17" t="n">
-        <v>0.9933681178086048</v>
+        <v>0.9950363226952772</v>
       </c>
       <c r="Y17" t="n">
         <v>-0.0008621410377521787</v>
@@ -2070,17 +2070,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>0.9557426945182025</v>
       </c>
       <c r="AB17" t="n">
-        <v>135.0711264711917</v>
+        <v>136.5320534158446</v>
       </c>
       <c r="AC17" t="n">
-        <v>54.02959185418491</v>
+        <v>50.69398224273704</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2092,34 +2092,34 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D18" t="n">
-        <v>-96.71292543342501</v>
+        <v>-106.1975534377792</v>
       </c>
       <c r="E18" t="n">
-        <v>-29.87471411623919</v>
+        <v>-26.34159340808939</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999938824358635</v>
+        <v>0.9999388243586352</v>
       </c>
       <c r="G18" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H18" t="n">
-        <v>-18.74558890921253</v>
+        <v>-15.7948396993267</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9999471828247737</v>
+        <v>0.9999471828247736</v>
       </c>
       <c r="J18" t="n">
         <v>-85.01030070354749</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1404725443016962</v>
+        <v>2.260484438853842</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9842622222999086</v>
+        <v>0.9866176460440054</v>
       </c>
       <c r="M18" t="n">
         <v>-0.001612086020067537</v>
@@ -2128,16 +2128,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9707239863907134</v>
+        <v>0.974082116975916</v>
       </c>
       <c r="P18" t="n">
-        <v>97.06115788781609</v>
+        <v>99.7865331293512</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.35886734013278</v>
+        <v>29.97804169078294</v>
       </c>
       <c r="R18" t="n">
-        <v>1.000930601534766</v>
+        <v>1.002335822376232</v>
       </c>
       <c r="S18" t="n">
         <v>0.005668847211677187</v>
@@ -2146,16 +2146,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9815063197759181</v>
+        <v>0.9842214221326813</v>
       </c>
       <c r="V18" t="n">
-        <v>107.8423651654295</v>
+        <v>110.8705598782462</v>
       </c>
       <c r="W18" t="n">
-        <v>37.75125689736443</v>
+        <v>34.97362697312295</v>
       </c>
       <c r="X18" t="n">
-        <v>0.9934429752848746</v>
+        <v>0.9952774904982213</v>
       </c>
       <c r="Y18" t="n">
         <v>-0.0008621410377521787</v>
@@ -2164,17 +2164,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>0.9564147388366269</v>
       </c>
       <c r="AB18" t="n">
-        <v>134.805441485118</v>
+        <v>138.5906848761389</v>
       </c>
       <c r="AC18" t="n">
-        <v>53.92331785975544</v>
+        <v>49.955275110839</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2186,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D19" t="n">
-        <v>-103.2523324313227</v>
+        <v>-101.2201829308269</v>
       </c>
       <c r="E19" t="n">
-        <v>-31.60077695722568</v>
+        <v>-26.14667709207031</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999388243586349</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G19" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H19" t="n">
-        <v>-19.92582817836848</v>
+        <v>-15.77530855107784</v>
       </c>
       <c r="I19" t="n">
         <v>0.9999471828247737</v>
@@ -2210,10 +2210,10 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.184971201239075</v>
+        <v>2.318253054030725</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9834901685236399</v>
+        <v>0.9865561424326899</v>
       </c>
       <c r="M19" t="n">
         <v>-0.001612086020067537</v>
@@ -2222,16 +2222,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9693675492294167</v>
+        <v>0.9741144603643676</v>
       </c>
       <c r="P19" t="n">
-        <v>98.9206720144811</v>
+        <v>98.36649402494832</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.97870538235445</v>
+        <v>30.12673053538239</v>
       </c>
       <c r="R19" t="n">
-        <v>1.000319283786427</v>
+        <v>1.002369632980491</v>
       </c>
       <c r="S19" t="n">
         <v>0.005668847211677187</v>
@@ -2240,16 +2240,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9803345259756397</v>
+        <v>0.9842795132624826</v>
       </c>
       <c r="V19" t="n">
-        <v>109.9084919728351</v>
+        <v>109.2927386511319</v>
       </c>
       <c r="W19" t="n">
-        <v>38.47440127995639</v>
+        <v>35.14709729182231</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9927092168260785</v>
+        <v>0.9952896333604802</v>
       </c>
       <c r="Y19" t="n">
         <v>-0.0008621410377521787</v>
@@ -2258,17 +2258,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>0.9563484453973181</v>
       </c>
       <c r="AB19" t="n">
-        <v>137.3880999943749</v>
+        <v>136.618408342246</v>
       </c>
       <c r="AC19" t="n">
-        <v>54.9563812634582</v>
+        <v>50.20308985183809</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2280,34 +2280,34 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D20" t="n">
-        <v>-98.43758268695173</v>
+        <v>-101.0903712982354</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.3220275057613</v>
+        <v>-26.59514723050951</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999388243586352</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G20" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H20" t="n">
-        <v>-19.05489475235618</v>
+        <v>-16.12401644404827</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9999471828247736</v>
+        <v>0.9999471828247735</v>
       </c>
       <c r="J20" t="n">
         <v>-85.01030070354749</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.414084250233538</v>
+        <v>2.026300220571676</v>
       </c>
       <c r="L20" t="n">
-        <v>0.984061714351618</v>
+        <v>0.9862938585331128</v>
       </c>
       <c r="M20" t="n">
         <v>-0.001612086020067537</v>
@@ -2316,16 +2316,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9703695282591041</v>
+        <v>0.9737161177248024</v>
       </c>
       <c r="P20" t="n">
-        <v>97.55182646137084</v>
+        <v>98.32738248011178</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.52242353131769</v>
+        <v>30.37725628842243</v>
       </c>
       <c r="R20" t="n">
-        <v>1.000770463669123</v>
+        <v>1.002198759920583</v>
       </c>
       <c r="S20" t="n">
         <v>0.005668847211677187</v>
@@ -2334,16 +2334,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9811986234523745</v>
+        <v>0.9839503463185626</v>
       </c>
       <c r="V20" t="n">
-        <v>108.3875524693792</v>
+        <v>109.2492813790913</v>
       </c>
       <c r="W20" t="n">
-        <v>37.94207245374685</v>
+        <v>35.43937733703569</v>
       </c>
       <c r="X20" t="n">
-        <v>0.9932506783138269</v>
+        <v>0.9950728356977739</v>
       </c>
       <c r="Y20" t="n">
         <v>-0.0008621410377521787</v>
@@ -2352,17 +2352,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>0.9558309824340437</v>
       </c>
       <c r="AB20" t="n">
-        <v>135.4869256150552</v>
+        <v>136.5640867521952</v>
       </c>
       <c r="AC20" t="n">
-        <v>54.19591151173028</v>
+        <v>50.62063277357149</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2374,13 +2374,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D21" t="n">
-        <v>-103.1487607708158</v>
+        <v>-102.9189296715395</v>
       </c>
       <c r="E21" t="n">
-        <v>-31.5728037592071</v>
+        <v>-26.3166417800375</v>
       </c>
       <c r="F21" t="n">
         <v>0.999938824358635</v>
@@ -2389,7 +2389,7 @@
         <v>-162.9926894603148</v>
       </c>
       <c r="H21" t="n">
-        <v>-19.9069775625025</v>
+        <v>-15.91409636466738</v>
       </c>
       <c r="I21" t="n">
         <v>0.9999471828247737</v>
@@ -2398,10 +2398,10 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.16827893161439</v>
+        <v>2.24862725465169</v>
       </c>
       <c r="L21" t="n">
-        <v>0.983502646326316</v>
+        <v>1.006274797873076</v>
       </c>
       <c r="M21" t="n">
         <v>-0.001612086020067537</v>
@@ -2410,16 +2410,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9693892964143357</v>
+        <v>0.9739562973797327</v>
       </c>
       <c r="P21" t="n">
-        <v>98.8912412139932</v>
+        <v>100.2469749206186</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.96889511552514</v>
+        <v>30.23531463159278</v>
       </c>
       <c r="R21" t="n">
-        <v>1.000329053328081</v>
+        <v>1.00230295092803</v>
       </c>
       <c r="S21" t="n">
         <v>0.005668847211677187</v>
@@ -2428,16 +2428,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9803531931374615</v>
+        <v>0.9841507940605619</v>
       </c>
       <c r="V21" t="n">
-        <v>109.8757910834041</v>
+        <v>109.1874289961927</v>
       </c>
       <c r="W21" t="n">
-        <v>38.46295596865554</v>
+        <v>35.27377873740109</v>
       </c>
       <c r="X21" t="n">
-        <v>0.9927209362681996</v>
+        <v>1.015206914636259</v>
       </c>
       <c r="Y21" t="n">
         <v>-0.0008621410377521787</v>
@@ -2446,13 +2446,13 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>0.9561370735870447</v>
       </c>
       <c r="AB21" t="n">
-        <v>137.3472238825862</v>
+        <v>136.4867712735719</v>
       </c>
       <c r="AC21" t="n">
-        <v>54.94003081874272</v>
+        <v>50.38406334552207</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -2468,34 +2468,34 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D22" t="n">
-        <v>-103.2760554347568</v>
+        <v>-106.8121281243531</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.60718787909975</v>
+        <v>-26.30215022625973</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999388243586349</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G22" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H22" t="n">
-        <v>-19.93014686776644</v>
+        <v>-16.06316148931482</v>
       </c>
       <c r="I22" t="n">
         <v>0.9999471828247737</v>
       </c>
       <c r="J22" t="n">
-        <v>-85.01030070354749</v>
+        <v>-83.31859732477528</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.188795461541242</v>
+        <v>2.295786548890822</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9834873088993413</v>
+        <v>0.9670277675140592</v>
       </c>
       <c r="M22" t="n">
         <v>-0.001612086020067537</v>
@@ -2504,16 +2504,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9693625663785761</v>
+        <v>0.9547502598787529</v>
       </c>
       <c r="P22" t="n">
-        <v>98.92741292528711</v>
+        <v>99.9620768003217</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.98095235262311</v>
+        <v>29.92341915652358</v>
       </c>
       <c r="R22" t="n">
-        <v>1.000317045548683</v>
+        <v>1.002356483866002</v>
       </c>
       <c r="S22" t="n">
         <v>0.005668847211677187</v>
@@ -2522,16 +2522,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9803302496423555</v>
+        <v>0.9842623771088594</v>
       </c>
       <c r="V22" t="n">
-        <v>109.9159818737306</v>
+        <v>111.0656084015468</v>
       </c>
       <c r="W22" t="n">
-        <v>38.47702274526984</v>
+        <v>34.21519431875393</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9927065318944429</v>
+        <v>0.9953074483784262</v>
       </c>
       <c r="Y22" t="n">
         <v>-0.0008621410377521787</v>
@@ -2540,13 +2540,13 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>0.9564973437236648</v>
       </c>
       <c r="AB22" t="n">
-        <v>137.3974623704945</v>
+        <v>138.8344955302645</v>
       </c>
       <c r="AC22" t="n">
-        <v>54.960126213906</v>
+        <v>49.86423755374008</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -2562,22 +2562,22 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D23" t="n">
-        <v>-110.1667362049898</v>
+        <v>-112.9209357293345</v>
       </c>
       <c r="E23" t="n">
-        <v>-33.51492059965982</v>
+        <v>-26.87020348000904</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999388243586349</v>
+        <v>0.9800400606354945</v>
       </c>
       <c r="G23" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H23" t="n">
-        <v>-21.19591759746999</v>
+        <v>-16.06336102493066</v>
       </c>
       <c r="I23" t="n">
         <v>0.9999471828247737</v>
@@ -2586,10 +2586,10 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K23" t="n">
-        <v>-2.310340792807773</v>
+        <v>1.996363540583905</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9826387630357656</v>
+        <v>0.9864778173697308</v>
       </c>
       <c r="M23" t="n">
         <v>-0.001612086020067537</v>
@@ -2598,34 +2598,34 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9678962790873837</v>
+        <v>0.9933335458964094</v>
       </c>
       <c r="P23" t="n">
-        <v>100.8839602882879</v>
+        <v>101.0673226934964</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.6331348069567</v>
+        <v>30.01477454378012</v>
       </c>
       <c r="R23" t="n">
-        <v>0.9996606354336099</v>
+        <v>1.002181238696809</v>
       </c>
       <c r="S23" t="n">
         <v>0.005668847211677187</v>
       </c>
       <c r="T23" t="n">
-        <v>0.002512471694509341</v>
+        <v>0.002562972327168169</v>
       </c>
       <c r="U23" t="n">
-        <v>0.9790803463997122</v>
+        <v>0.983933824426915</v>
       </c>
       <c r="V23" t="n">
-        <v>112.0899233881759</v>
+        <v>112.2936593939631</v>
       </c>
       <c r="W23" t="n">
-        <v>39.2379022753257</v>
+        <v>35.01648196828634</v>
       </c>
       <c r="X23" t="n">
-        <v>0.9919196046947844</v>
+        <v>0.9951105461735702</v>
       </c>
       <c r="Y23" t="n">
         <v>-0.0008621410377521787</v>
@@ -2634,13 +2634,13 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>0.9370743197504343</v>
       </c>
       <c r="AB23" t="n">
-        <v>140.114889263551</v>
+        <v>140.3695592707849</v>
       </c>
       <c r="AC23" t="n">
-        <v>56.04709697112865</v>
+        <v>50.01649653250097</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -2656,70 +2656,70 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D24" t="n">
-        <v>-112.1615392560435</v>
+        <v>-109.8239270856365</v>
       </c>
       <c r="E24" t="n">
-        <v>-34.08431089929007</v>
+        <v>-26.83355303638944</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999388243586352</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G24" t="n">
-        <v>-162.9926894603148</v>
+        <v>-166.2688393785399</v>
       </c>
       <c r="H24" t="n">
-        <v>-21.56662248543591</v>
+        <v>-16.48322468895645</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9999471828247737</v>
+        <v>0.9800482527683148</v>
       </c>
       <c r="J24" t="n">
         <v>-85.01030070354749</v>
       </c>
       <c r="K24" t="n">
-        <v>-2.639061199244049</v>
+        <v>1.651063654014995</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9823863632958348</v>
+        <v>0.9861533749903356</v>
       </c>
       <c r="M24" t="n">
         <v>-0.001612086020067537</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00572361854919807</v>
+        <v>0.005838663171775899</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9674646581525409</v>
+        <v>0.9928471885619915</v>
       </c>
       <c r="P24" t="n">
-        <v>101.4498170700318</v>
+        <v>100.8163206343832</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.82175373420468</v>
+        <v>30.34129231764733</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9994682444834716</v>
+        <v>1.001979142975431</v>
       </c>
       <c r="S24" t="n">
         <v>0.005668847211677187</v>
       </c>
       <c r="T24" t="n">
-        <v>0.002512471694509341</v>
+        <v>0.002462473555230984</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9787155803458323</v>
+        <v>0.9835424482942396</v>
       </c>
       <c r="V24" t="n">
-        <v>112.7186531456692</v>
+        <v>109.7856764447961</v>
       </c>
       <c r="W24" t="n">
-        <v>39.45795769044833</v>
+        <v>35.39741937113141</v>
       </c>
       <c r="X24" t="n">
-        <v>0.9916891394471536</v>
+        <v>1.014845966301774</v>
       </c>
       <c r="Y24" t="n">
         <v>-0.0008621410377521787</v>
@@ -2728,13 +2728,13 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>0.9554649667906949</v>
       </c>
       <c r="AB24" t="n">
-        <v>140.9008014604176</v>
+        <v>140.0209452997944</v>
       </c>
       <c r="AC24" t="n">
-        <v>56.36146184987528</v>
+        <v>49.55453598984128</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -2750,34 +2750,34 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D25" t="n">
-        <v>-111.4230707632317</v>
+        <v>-113.9767073844878</v>
       </c>
       <c r="E25" t="n">
-        <v>-33.87262540322074</v>
+        <v>-27.9920619037289</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999938824358635</v>
+        <v>0.9999388243586349</v>
       </c>
       <c r="G25" t="n">
         <v>-162.9926894603148</v>
       </c>
       <c r="H25" t="n">
-        <v>-21.42916401718355</v>
+        <v>-16.81375545772084</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9999471828247736</v>
+        <v>0.9999471828247737</v>
       </c>
       <c r="J25" t="n">
         <v>-85.01030070354749</v>
       </c>
       <c r="K25" t="n">
-        <v>-2.51715749812251</v>
+        <v>1.337038556735257</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9824801558168125</v>
+        <v>0.9859569886613557</v>
       </c>
       <c r="M25" t="n">
         <v>-0.001612086020067537</v>
@@ -2786,16 +2786,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9676248184459346</v>
+        <v>0.9728896868574399</v>
       </c>
       <c r="P25" t="n">
-        <v>101.2403679159086</v>
+        <v>101.9974250212412</v>
       </c>
       <c r="Q25" t="n">
-        <v>33.75193734949696</v>
+        <v>30.42899325527825</v>
       </c>
       <c r="R25" t="n">
-        <v>0.9995395913329743</v>
+        <v>1.001795351723863</v>
       </c>
       <c r="S25" t="n">
         <v>0.005668847211677187</v>
@@ -2804,16 +2804,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9788507694842862</v>
+        <v>0.9832003928452552</v>
       </c>
       <c r="V25" t="n">
-        <v>112.4859318633101</v>
+        <v>113.3271064247906</v>
       </c>
       <c r="W25" t="n">
-        <v>39.37650524162265</v>
+        <v>35.49973713170082</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9917745965758763</v>
+        <v>0.9946440146262822</v>
       </c>
       <c r="Y25" t="n">
         <v>-0.0008621410377521787</v>
@@ -2822,17 +2822,17 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>0.9550505676177506</v>
       </c>
       <c r="AB25" t="n">
-        <v>140.6098998574688</v>
+        <v>141.6613680593193</v>
       </c>
       <c r="AC25" t="n">
-        <v>56.24510120869574</v>
+        <v>50.70686105166453</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2844,13 +2844,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D26" t="n">
-        <v>-104.9416139612083</v>
+        <v>-109.9591826616875</v>
       </c>
       <c r="E26" t="n">
-        <v>-32.05993787476669</v>
+        <v>-27.80283210108945</v>
       </c>
       <c r="F26" t="n">
         <v>0.999938824358635</v>
@@ -2859,19 +2859,19 @@
         <v>-162.9926894603148</v>
       </c>
       <c r="H26" t="n">
-        <v>-20.23401172596982</v>
+        <v>-16.80577450814621</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9999471828247739</v>
+        <v>0.9999471828247737</v>
       </c>
       <c r="J26" t="n">
         <v>-85.01030070354749</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.457912340496131</v>
+        <v>1.378857055670726</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9832855047199858</v>
+        <v>0.9859143966432422</v>
       </c>
       <c r="M26" t="n">
         <v>-0.001612086020067537</v>
@@ -2880,16 +2880,16 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9690116348088673</v>
+        <v>0.9729150331523372</v>
       </c>
       <c r="P26" t="n">
-        <v>99.40060216050497</v>
+        <v>100.8529307201676</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.13868209769574</v>
+        <v>30.5641078710801</v>
       </c>
       <c r="R26" t="n">
-        <v>1.000159538628415</v>
+        <v>1.001819827069342</v>
       </c>
       <c r="S26" t="n">
         <v>0.005668847211677187</v>
@@ -2898,16 +2898,16 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U26" t="n">
-        <v>0.9800295631579141</v>
+        <v>0.9832360287848708</v>
       </c>
       <c r="V26" t="n">
-        <v>110.4417476906393</v>
+        <v>112.0554460902645</v>
       </c>
       <c r="W26" t="n">
-        <v>38.6610407811879</v>
+        <v>35.65737085013631</v>
       </c>
       <c r="X26" t="n">
-        <v>0.992517619096897</v>
+        <v>0.994648976490933</v>
       </c>
       <c r="Y26" t="n">
         <v>-0.0008621410377521787</v>
@@ -2916,15 +2916,7065 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>0.954991028455989</v>
       </c>
       <c r="AB26" t="n">
-        <v>138.0546696416304</v>
+        <v>140.0717926411616</v>
       </c>
       <c r="AC26" t="n">
-        <v>55.22300912236036</v>
+        <v>50.93205207800094</v>
       </c>
       <c r="AD26" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-104.2756634747004</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-26.35047873583159</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9999388243586348</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-15.85498215166143</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.226060140855571</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9865445305201284</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.9740179588355509</v>
+      </c>
+      <c r="P27" t="n">
+        <v>99.23797694211791</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>30.08414122229537</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.002315674650053</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.9841794002535632</v>
+      </c>
+      <c r="V27" t="n">
+        <v>110.2610530035426</v>
+      </c>
+      <c r="W27" t="n">
+        <v>35.09740975988745</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.9952400988756832</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.956289691134062</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>137.8288012827593</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>50.13210766335973</v>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-98.66393716753751</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-26.73029279596442</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9999388243586352</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-159.749138017805</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-15.87699182876832</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.298862272581606</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.986437499422314</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.9935784765229174</v>
+      </c>
+      <c r="P28" t="n">
+        <v>97.63603620903781</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>30.27927529898926</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.002331772970876</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.002562972327168169</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.984204689049377</v>
+      </c>
+      <c r="V28" t="n">
+        <v>108.4811188556758</v>
+      </c>
+      <c r="W28" t="n">
+        <v>34.62209803269578</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.015230446846167</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.9371205161251711</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>135.6038835979258</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>50.45733112451621</v>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-104.5925600242608</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-27.68014421762335</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-16.87090741030477</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.369764449896939</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.985791201747837</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.005609718648146696</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.9728561453955965</v>
+      </c>
+      <c r="P29" t="n">
+        <v>99.32232544933446</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>31.40963637774208</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.9818784156489783</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.9832148585092634</v>
+      </c>
+      <c r="V29" t="n">
+        <v>112.5729023899168</v>
+      </c>
+      <c r="W29" t="n">
+        <v>35.92177854240352</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.9946084824893016</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-0.0008449844473805055</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.954795335433763</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>137.9459519872267</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>51.30977735266838</v>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-100.7330473184402</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-28.87583101990178</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-17.10406540748435</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9999471828247739</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.89587494254905</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9852974907078627</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.9721996640586702</v>
+      </c>
+      <c r="P30" t="n">
+        <v>98.21736261571785</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>30.70098147880193</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.001547795612677</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.002562972327168169</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.9631409750225346</v>
+      </c>
+      <c r="V30" t="n">
+        <v>109.1270370853203</v>
+      </c>
+      <c r="W30" t="n">
+        <v>36.54430268363406</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.9942476162355051</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-0.003350608438437136</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.9730358982790062</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>136.4112813849814</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>52.1990975544263</v>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-100.3364035991825</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-29.2275647735939</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-18.16981975025271</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.020046101936348</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.3138024895722021</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9847546542824889</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.001580005538708813</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.9713790768903772</v>
+      </c>
+      <c r="P31" t="n">
+        <v>98.09966116579454</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>31.20833857198684</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.001196477121049</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.9820199234252852</v>
+      </c>
+      <c r="V31" t="n">
+        <v>108.9962576965166</v>
+      </c>
+      <c r="W31" t="n">
+        <v>37.14823758549283</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.9938009348688929</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.003487353879861263</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.9527936832201426</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>136.2478071489768</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>53.06186169993881</v>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-100.0319106458791</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-29.31693990217508</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-18.24564510770813</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2526013387672544</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9846929859474147</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.9712927872690851</v>
+      </c>
+      <c r="P32" t="n">
+        <v>98.01224897096942</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>31.90486847709282</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.001160657638853</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.9819507278538746</v>
+      </c>
+      <c r="V32" t="n">
+        <v>108.8991330355998</v>
+      </c>
+      <c r="W32" t="n">
+        <v>37.22159155715116</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.9937537936525331</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.9526755943947655</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>136.1264013228308</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>53.16665308802215</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-101.5975821298275</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-30.2878089942966</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-18.95650488131679</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.3572610560950073</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9841879286192429</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.9704782657889877</v>
+      </c>
+      <c r="P33" t="n">
+        <v>98.45470323724899</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>32.35371738822221</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.000803720812022</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.981265023717064</v>
+      </c>
+      <c r="V33" t="n">
+        <v>109.3907488870216</v>
+      </c>
+      <c r="W33" t="n">
+        <v>37.74524862013546</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.9933118477400155</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.9516554941920489</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>136.740921137108</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>53.91473460657114</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-97.71746404462039</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-28.99161492371303</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9999388243586352</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-18.04516970148592</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.4397203847556222</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.9848029692887438</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.9715239284076074</v>
+      </c>
+      <c r="P34" t="n">
+        <v>97.35254635377477</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>31.83637895684188</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.001270173683225</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.9821602736380776</v>
+      </c>
+      <c r="V34" t="n">
+        <v>108.1661301276058</v>
+      </c>
+      <c r="W34" t="n">
+        <v>37.14168711685839</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.9938784308283152</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.952925698914063</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>135.2101476878382</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>53.0525038876039</v>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.020265680203197</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-98.22404813971282</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-29.94135765414978</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-18.39277534632944</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9999471828247739</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.1699390195928975</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9842735393568267</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.001580005538708813</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.9513826778077064</v>
+      </c>
+      <c r="P35" t="n">
+        <v>97.49268670597334</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>32.32674175764293</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.000913355564678</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.9814735822892359</v>
+      </c>
+      <c r="V35" t="n">
+        <v>108.3218416300486</v>
+      </c>
+      <c r="W35" t="n">
+        <v>37.71377705112627</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.99343014706441</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.9329278051738653</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>135.4047870658918</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>53.8697752222723</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-94.33796007218095</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-28.73142145269054</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-17.9926878545941</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.2038511053870645</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.9845077826795243</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.9711670577213481</v>
+      </c>
+      <c r="P36" t="n">
+        <v>96.38495208079813</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>32.80525360278262</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.001132125365275</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.005782790931425973</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.9818943407664761</v>
+      </c>
+      <c r="V36" t="n">
+        <v>107.0910253798539</v>
+      </c>
+      <c r="W36" t="n">
+        <v>38.27202569498138</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.9936839343562466</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-0.003487353879861263</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.9715372820688624</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>133.8662667531484</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>53.58997414938155</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-94.11797732291599</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-28.69734118320413</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-17.49649363087065</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6156769800176159</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.984917102053891</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.001580005538708813</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.9717456311338796</v>
+      </c>
+      <c r="P37" t="n">
+        <v>94.94363143629701</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>31.75223503044685</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.001373156654667</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.9823581881612563</v>
+      </c>
+      <c r="V37" t="n">
+        <v>109.7948804545247</v>
+      </c>
+      <c r="W37" t="n">
+        <v>37.04351920273086</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.9939986859380127</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-0.003350608438437136</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.9531773101142001</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>134.5418470124031</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>53.97579949757191</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-95.40291983209023</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-27.8714975496823</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-16.84776498958482</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9800482527683146</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.161201744799092</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9854347098659224</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.005838663171775899</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.9725015932432212</v>
+      </c>
+      <c r="P38" t="n">
+        <v>97.25000780396675</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>31.87449022204633</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.001692438751109</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.9829731120564674</v>
+      </c>
+      <c r="V38" t="n">
+        <v>108.0521984055968</v>
+      </c>
+      <c r="W38" t="n">
+        <v>37.18613508412238</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.9944101964873275</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.9351938518913108</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>135.0677330353271</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>52.06926801221621</v>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-103.9703994526678</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-29.36421509553722</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9999388243586348</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-18.18480491204377</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.2711883498132631</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9848011365280606</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.9713558487465651</v>
+      </c>
+      <c r="P39" t="n">
+        <v>99.13673408818369</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>31.73552947192201</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.001171536144837</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.9819760276328959</v>
+      </c>
+      <c r="V39" t="n">
+        <v>110.1485609436156</v>
+      </c>
+      <c r="W39" t="n">
+        <v>37.02402938445189</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.993791618474522</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.9528421012016322</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>137.6881862078506</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>52.88442141273746</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-102.2962038903236</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-28.85559224266719</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9999388243586352</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-17.83622256510051</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.5779059441792408</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9850354136432666</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.9717574411289326</v>
+      </c>
+      <c r="P40" t="n">
+        <v>98.66117040632084</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>31.54498574147022</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.001351050214791</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.982319433459516</v>
+      </c>
+      <c r="V40" t="n">
+        <v>109.6201568526569</v>
+      </c>
+      <c r="W40" t="n">
+        <v>36.80172836559145</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.9940083351237821</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.9533250386570016</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>137.0276810941521</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>52.56684852865114</v>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-106.6066465870584</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-30.32086304551858</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-18.84792781871425</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.3080071712609486</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9843446751223985</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.9705914965376359</v>
+      </c>
+      <c r="P41" t="n">
+        <v>99.88450535150214</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>32.11353971580405</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.000832547836525</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.9813279097636163</v>
+      </c>
+      <c r="V41" t="n">
+        <v>110.9794179028584</v>
+      </c>
+      <c r="W41" t="n">
+        <v>37.46504133564759</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.9933793506352833</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.9519117182388915</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>138.726757406904</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>53.51443848587419</v>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-105.5274443821401</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-32.00580292172463</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.020037575465201</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-19.69054950529136</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-1.026744524309401</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.9641243691312745</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.9696313118107193</v>
+      </c>
+      <c r="P42" t="n">
+        <v>99.57127871190843</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>32.73949910635776</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.000423730276163</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.9805390299230002</v>
+      </c>
+      <c r="V42" t="n">
+        <v>110.6313883033098</v>
+      </c>
+      <c r="W42" t="n">
+        <v>38.19532729129359</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.9928554898560016</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.9506455318466677</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>138.2917204074683</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>54.55770413679705</v>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-102.968938938035</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-32.53963996762484</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-159.749138017805</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-20.59996466706826</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-1.766171045146445</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.9634519424605114</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.949318121073514</v>
+      </c>
+      <c r="P43" t="n">
+        <v>99.43183213491207</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>33.3902137877024</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.9800795574513969</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.9796825340135811</v>
+      </c>
+      <c r="V43" t="n">
+        <v>110.4764476622027</v>
+      </c>
+      <c r="W43" t="n">
+        <v>38.954494419529</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.9922901066443918</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.949291488985277</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>138.0980446060844</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>54.53494930712962</v>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-109.2813513376226</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-31.67013298380337</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-20.29984471998159</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9800482527683149</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1.550273021128698</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.9832967567644118</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.005609718648146696</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.9689236591649865</v>
+      </c>
+      <c r="P44" t="n">
+        <v>100.6376244062504</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>33.70278923016209</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.000105482403616</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.9799342484425381</v>
+      </c>
+      <c r="V44" t="n">
+        <v>111.8162168525786</v>
+      </c>
+      <c r="W44" t="n">
+        <v>38.54440872083007</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.9924766907722596</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.9689053039481083</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>139.7727560940543</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>55.05639189327776</v>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-111.517691987563</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-31.47640925042107</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-20.07409666570368</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-1.380185189798676</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.9834936545796282</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.9886536932568857</v>
+      </c>
+      <c r="P45" t="n">
+        <v>101.2764085736925</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>32.80370301797902</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.000205030247113</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.005556037259208245</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.980131637550575</v>
+      </c>
+      <c r="V45" t="n">
+        <v>112.5259770386254</v>
+      </c>
+      <c r="W45" t="n">
+        <v>39.03946277788802</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.012568621597253</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.9501883707664278</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>140.6599563266127</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>54.6647106561658</v>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-107.3964077633523</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-31.87679291839143</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9999388243586348</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-20.02230748339849</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.300999467112655</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.9834787111083504</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.9692469685682196</v>
+      </c>
+      <c r="P46" t="n">
+        <v>100.1020960344652</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>32.90891967358803</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.000251375534095</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.9802108384855681</v>
+      </c>
+      <c r="V46" t="n">
+        <v>111.2211853283729</v>
+      </c>
+      <c r="W46" t="n">
+        <v>38.3929846197289</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.9926492355947756</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.9501898662588917</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>139.0289666887971</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>54.84007174884749</v>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-111.2700883678091</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-32.2470661373772</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-20.18372149082643</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.470074930864593</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.9834087343095963</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.9690490088323215</v>
+      </c>
+      <c r="P47" t="n">
+        <v>101.2051386246746</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>32.88891399531649</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.000152420190723</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.9800296982143207</v>
+      </c>
+      <c r="V47" t="n">
+        <v>112.4467882063833</v>
+      </c>
+      <c r="W47" t="n">
+        <v>38.36964466174544</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.9925488845125824</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.950021796434172</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>140.5609702863102</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>54.80672895172825</v>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-106.5314413092966</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-32.80794366080511</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-20.76454091555343</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-1.916834112967985</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.9829122052730299</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.9684011557468691</v>
+      </c>
+      <c r="P48" t="n">
+        <v>99.85051676741151</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>33.45606888185402</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.9998909441166937</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.9795154475094793</v>
+      </c>
+      <c r="V48" t="n">
+        <v>110.9416528094243</v>
+      </c>
+      <c r="W48" t="n">
+        <v>39.03132536270588</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.9921877899922414</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.9490757446330943</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>138.6795510401114</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>55.75198709595748</v>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9802592209749112</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-106.0509540402129</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-31.89948072153446</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-20.07926187549873</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1.310745396521987</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.9834172322142251</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.005609718648146696</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.9691856866076223</v>
+      </c>
+      <c r="P49" t="n">
+        <v>99.71804286984609</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>32.99380701858956</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.000230095380925</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.002562972327168169</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.9801672704096602</v>
+      </c>
+      <c r="V49" t="n">
+        <v>110.7944595899072</v>
+      </c>
+      <c r="W49" t="n">
+        <v>38.49201985556402</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.992613827039122</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.0008794700560025219</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.969177085315018</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>138.495559515715</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>54.98155065718337</v>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-103.697334142156</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-32.02277105623506</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9999388243586352</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-20.29097440313058</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-1.478289297465262</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.9831922975778752</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.9689531001495491</v>
+      </c>
+      <c r="P50" t="n">
+        <v>96.50274011599846</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>33.28536926810372</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.000147612542436</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.002562972327168169</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.9800022289109847</v>
+      </c>
+      <c r="V50" t="n">
+        <v>111.5979240254603</v>
+      </c>
+      <c r="W50" t="n">
+        <v>38.83217581333053</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.9924822054408224</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.003350608438437136</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.9496830197118439</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>139.4999400091781</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>55.46748773970697</v>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-96.43627402470234</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-30.34799885303426</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-19.1155123887043</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-83.31859732477528</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.4489061914716165</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9839810398872484</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.005609718648146696</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.9898043809175189</v>
+      </c>
+      <c r="P51" t="n">
+        <v>96.97974745300385</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>32.6265734817328</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.000750083290716</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.9811587981849245</v>
+      </c>
+      <c r="V51" t="n">
+        <v>109.9177204244402</v>
+      </c>
+      <c r="W51" t="n">
+        <v>38.06358072923112</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.9932129920760686</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.003487353879861263</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.9513173548497492</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>134.6923714367674</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>53.28754284329556</v>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-100.1741716988395</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-30.19533309600473</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-18.96233480764545</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.3277839716309417</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.984126706693372</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.9511630403708271</v>
+      </c>
+      <c r="P52" t="n">
+        <v>97.4846633008856</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>32.4649423026375</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.000817077790767</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.005556037259208245</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.9812882434039727</v>
+      </c>
+      <c r="V52" t="n">
+        <v>108.3129267355066</v>
+      </c>
+      <c r="W52" t="n">
+        <v>37.8750110202866</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9933082232474448</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.0008794700560025219</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.9515795678814553</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>135.3936434477143</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>53.02351830715664</v>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-99.50680786253295</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-29.40608363573543</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-18.3261410274564</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.1892691857701204</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.9846240765224126</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.9712013729147169</v>
+      </c>
+      <c r="P53" t="n">
+        <v>97.86180824806112</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>31.97792385519116</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.001123590938436</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.9818789971719202</v>
+      </c>
+      <c r="V53" t="n">
+        <v>108.7319766768128</v>
+      </c>
+      <c r="W53" t="n">
+        <v>37.30682283159923</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.9937037487371309</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.9525462034930789</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>135.917455874347</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>53.28841205151938</v>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-103.1091236003744</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-29.79873892301666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-18.5420020934925</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9999471828247735</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.02165481625206149</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.984521266393965</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.9709493551973298</v>
+      </c>
+      <c r="P54" t="n">
+        <v>98.88873210195118</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>32.0143284274184</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.001000142502382</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.9816448960361541</v>
+      </c>
+      <c r="V54" t="n">
+        <v>109.873003181135</v>
+      </c>
+      <c r="W54" t="n">
+        <v>37.349294832531</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.9935695464298947</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.9522975988853647</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>137.3437390047498</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>53.34908633856477</v>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-101.2869561879187</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-29.88238696379295</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-18.65179026504671</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.09879269496451053</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.9844104200490215</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.9708269765157578</v>
+      </c>
+      <c r="P55" t="n">
+        <v>98.36798031392388</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>32.15002456377529</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.000954995679803</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.9815559096291754</v>
+      </c>
+      <c r="V55" t="n">
+        <v>109.2943900833269</v>
+      </c>
+      <c r="W55" t="n">
+        <v>37.50760699161403</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.9935012904435518</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.9520999168893106</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>136.6204726324897</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>53.57524656582626</v>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-104.2382858527735</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-30.00927233281463</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.020037575465201</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-18.61533759806645</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.020046101936348</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.1105117391614334</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.9845147639460766</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.970858024025503</v>
+      </c>
+      <c r="P56" t="n">
+        <v>101.8204100730692</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>31.95886714651594</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.000948136824132</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.002562972327168169</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.9815499380965126</v>
+      </c>
+      <c r="V56" t="n">
+        <v>113.130355496106</v>
+      </c>
+      <c r="W56" t="n">
+        <v>37.28459000481146</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.9935239532867883</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.9522508400031203</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>141.4154793474852</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>53.25665087039399</v>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-112.7325132860351</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-31.38402530011473</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9800400606354945</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-19.46919148449018</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9999471828247739</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-83.31859732477528</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.8828472785851834</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.9839600132839966</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.9505595358576461</v>
+      </c>
+      <c r="P57" t="n">
+        <v>101.6264398040667</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>32.3381222194544</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.00049610892194</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.005782790931425973</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.9806953929026589</v>
+      </c>
+      <c r="V57" t="n">
+        <v>112.9149006279301</v>
+      </c>
+      <c r="W57" t="n">
+        <v>37.727054256573</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.9929931086083291</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0.003350608438437136</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.951104513442061</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>143.98314492152</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>53.88874265862476</v>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-112.6409106293718</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-31.83161560041417</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-166.2688393785399</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-19.81683552512914</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.020046101936348</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.174013012330642</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.9836992822300652</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.9694627347631195</v>
+      </c>
+      <c r="P58" t="n">
+        <v>101.598082294427</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>31.93608355816547</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.000325697323099</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.005556037259208245</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.980367125383084</v>
+      </c>
+      <c r="V58" t="n">
+        <v>112.8833922838859</v>
+      </c>
+      <c r="W58" t="n">
+        <v>38.01451225221128</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.9927769776595645</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-0.003350608438437136</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.9505888159605679</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>141.1067253831885</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>53.21883996436168</v>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-117.0588485101267</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-32.30452844980288</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9800400606354943</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-20.52063456864511</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.020046101936348</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-1.80456268832125</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.9832217055296295</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.9493609844282667</v>
+      </c>
+      <c r="P59" t="n">
+        <v>102.8513759475099</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>32.91757464426089</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.9999566535310174</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.002562972327168169</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.9796718281851406</v>
+      </c>
+      <c r="V59" t="n">
+        <v>116.5728849956993</v>
+      </c>
+      <c r="W59" t="n">
+        <v>38.40308208551389</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.9923394260130201</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.0008794700560025219</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.9496243502597301</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>142.8474110124702</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>54.85449669996891</v>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-123.9611219126126</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-35.00812776094169</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9999388243586352</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-21.79929849386684</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-2.94212389376724</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.9823259577495761</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.9671317112885877</v>
+      </c>
+      <c r="P60" t="n">
+        <v>104.8059508645781</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>33.54913316014912</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.9992908703629386</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.9784210674864002</v>
+      </c>
+      <c r="V60" t="n">
+        <v>116.4476906951649</v>
+      </c>
+      <c r="W60" t="n">
+        <v>39.13990035405016</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.9915444863068261</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.947845361483024</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>145.5620983972872</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>55.90709422644927</v>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-130.7275884284944</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-35.9862585233935</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-22.21545773737404</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9999471828247739</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-3.356612868529163</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.9820551594109173</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.9666017562795809</v>
+      </c>
+      <c r="P61" t="n">
+        <v>106.7252059109366</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>33.5708184632574</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.9990482816835086</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.9779924286256622</v>
+      </c>
+      <c r="V61" t="n">
+        <v>118.58019630223</v>
+      </c>
+      <c r="W61" t="n">
+        <v>39.16519987434317</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.9912857634119415</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.9473322708145991</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>148.2277304061186</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>55.94323639829643</v>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-127.8028416150672</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-36.15594649614462</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-22.49625037189185</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-3.563980628500071</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.9818299751197099</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.9663054402200076</v>
+      </c>
+      <c r="P62" t="n">
+        <v>105.892717860549</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>33.8829861456096</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.9989269152509337</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.977741485015611</v>
+      </c>
+      <c r="V62" t="n">
+        <v>117.655209579577</v>
+      </c>
+      <c r="W62" t="n">
+        <v>39.52939550375406</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.9911111972695897</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.9468731019125803</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>147.0714970028024</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>56.46351586888343</v>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-134.9712360399452</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-36.52229945778143</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-22.54207304661827</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-3.719756423757859</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.9818177091198687</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.005838663171775899</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.9469862351179631</v>
+      </c>
+      <c r="P63" t="n">
+        <v>107.1725826587166</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>33.7329500643941</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.9988786409192834</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.002462473555230984</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.9582204674765183</v>
+      </c>
+      <c r="V63" t="n">
+        <v>119.077281577541</v>
+      </c>
+      <c r="W63" t="n">
+        <v>39.35435340900265</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.9713601825641721</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.9468717263082556</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>148.8490870002574</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>56.21345573352426</v>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-139.3202416835023</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-37.50081762303179</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.020037575465201</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-22.88747033206988</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-83.31859732477528</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-4.00702531138233</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.9815775306073126</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.005609718648146696</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.9657477517877207</v>
+      </c>
+      <c r="P64" t="n">
+        <v>106.9856043180787</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>33.67799026623612</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.9986676139633508</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.002462473555230984</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.9773204478937285</v>
+      </c>
+      <c r="V64" t="n">
+        <v>118.8695948454961</v>
+      </c>
+      <c r="W64" t="n">
+        <v>39.290233644485</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.9908679800427778</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.9464567189167087</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>151.6063935011106</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>55.00503219387113</v>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-142.3702888807731</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-38.13846534607717</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9999388243586352</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-23.65098709839482</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.020046101936348</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-4.288368661437909</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.9813567022860611</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.9461616711940815</v>
+      </c>
+      <c r="P65" t="n">
+        <v>110.0199339105814</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>33.75141109467494</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.9985029518940667</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.002562972327168169</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.9770283727233599</v>
+      </c>
+      <c r="V65" t="n">
+        <v>122.2410051907241</v>
+      </c>
+      <c r="W65" t="n">
+        <v>40.16734593379879</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.990683028352266</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.003487353879861263</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0.946055486051551</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>152.8037415167363</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>56.24422411732565</v>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-141.0369444603023</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-38.93950675272795</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9800400606354948</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-23.88415874276819</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-4.959398382923797</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.000547740277265</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.9645880876718423</v>
+      </c>
+      <c r="P66" t="n">
+        <v>109.6371554107071</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>34.29336154662479</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.018230556134757</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.9569423882693011</v>
+      </c>
+      <c r="V66" t="n">
+        <v>121.8156957464194</v>
+      </c>
+      <c r="W66" t="n">
+        <v>40.00816680493846</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.9902483524995112</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.003487353879861263</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0.9450029578164334</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>152.2721047113554</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>57.1474748705754</v>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-142.0647587533973</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-38.11871926191242</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-23.18943182345288</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-4.288938457120134</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.9813533479388948</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.9653710547686559</v>
+      </c>
+      <c r="P67" t="n">
+        <v>109.9333544913514</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>33.76791134928451</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.9985026184093195</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.9770251920905653</v>
+      </c>
+      <c r="V67" t="n">
+        <v>122.1448058360241</v>
+      </c>
+      <c r="W67" t="n">
+        <v>39.39514157470813</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.9906802542795106</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0.9460450150497021</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>152.6834923233613</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>56.27172454167495</v>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-142.2114315723584</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-37.06859790436472</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-22.37465608966124</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-3.606137251210834</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.9819631562026356</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.9663016248741763</v>
+      </c>
+      <c r="P68" t="n">
+        <v>109.9806811989922</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>33.19673485259853</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.9989022421870978</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.9777949317980326</v>
+      </c>
+      <c r="V68" t="n">
+        <v>122.1973910667362</v>
+      </c>
+      <c r="W68" t="n">
+        <v>38.72876899524117</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.991186791252171</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0.9472532266099091</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>152.7492238617513</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>55.31976371386498</v>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-135.8023794767101</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-37.07000800268585</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-22.7665141915727</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-3.869732316186736</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.9816613266953479</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.9659233263210201</v>
+      </c>
+      <c r="P69" t="n">
+        <v>108.1613149742707</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>33.74374930431329</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.9987479675797249</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.9774487212932117</v>
+      </c>
+      <c r="V69" t="n">
+        <v>120.1758730392679</v>
+      </c>
+      <c r="W69" t="n">
+        <v>39.36695252224172</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.990943177101771</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0.946588494802161</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>150.2223263274159</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>56.23145446672289</v>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-134.4531274265815</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-37.41896050423207</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9800400606354945</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-22.54561032097763</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-83.31859732477528</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-3.670699522600836</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.9818227037517889</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.001580005538708813</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.9661894490016041</v>
+      </c>
+      <c r="P70" t="n">
+        <v>107.780155833446</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>33.64696960722649</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.01894161205983</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.9776632960088042</v>
+      </c>
+      <c r="V70" t="n">
+        <v>119.7523628827959</v>
+      </c>
+      <c r="W70" t="n">
+        <v>39.25404287564045</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.011001209859337</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0.9468968302705861</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>152.7017638146079</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>56.07015497157824</v>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-138.172203172971</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-36.81066994824438</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-23.04183306949248</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.020046101936348</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-3.716123053608834</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.9817940672042864</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.005838663171775899</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.9661312932754464</v>
+      </c>
+      <c r="P71" t="n">
+        <v>108.062538071385</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>32.96530591101693</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.9988378706542759</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.005556037259208245</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.9776191314505407</v>
+      </c>
+      <c r="V71" t="n">
+        <v>120.0661209249505</v>
+      </c>
+      <c r="W71" t="n">
+        <v>39.23965192012887</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.991054270385354</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0.9468481947654686</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>147.0984448084676</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>56.04959646370454</v>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9802592209749112</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-138.0701544267842</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-36.64018545298593</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-22.7512683157345</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-83.31859732477528</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-3.503380054255041</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.9820130278817192</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.005609718648146696</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.9471980615401602</v>
+      </c>
+      <c r="P72" t="n">
+        <v>108.8076136642501</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>33.32618986873645</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.9989623830339998</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.9778777967153269</v>
+      </c>
+      <c r="V72" t="n">
+        <v>120.8939826948006</v>
+      </c>
+      <c r="W72" t="n">
+        <v>38.10609256459638</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.9912313523112294</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>-0.0008449844473805055</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0.9663462907409556</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>151.1199633968318</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>55.53552207409485</v>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-145.4125672054264</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-37.40259997573656</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-22.15931885579301</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-3.806668785232768</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.9817876030987398</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.9660292491856489</v>
+      </c>
+      <c r="P73" t="n">
+        <v>110.0741874975341</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>34.0149335677367</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.9987848768445584</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.005782790931425973</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.9775720139793926</v>
+      </c>
+      <c r="V73" t="n">
+        <v>124.7595404657414</v>
+      </c>
+      <c r="W73" t="n">
+        <v>38.90140156536911</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.9910409513098913</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0.9469101813681247</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>152.8790937208373</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>56.68326487233846</v>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-149.1373746293092</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-39.03839381236918</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-23.41709845822652</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-4.5549663300531</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.9811736934662306</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.9650212579557721</v>
+      </c>
+      <c r="P74" t="n">
+        <v>111.9338890944829</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>33.60799348839372</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.9983469201049878</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.9767889186849898</v>
+      </c>
+      <c r="V74" t="n">
+        <v>124.3676220617259</v>
+      </c>
+      <c r="W74" t="n">
+        <v>39.20857073700222</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.9905387169697224</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0.9457931275840924</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>155.4620126054884</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>56.00519477352362</v>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-152.7729161800026</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-39.1285408967897</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-23.22178412940741</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-4.430368301872585</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.9813075120769623</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.9651940519561198</v>
+      </c>
+      <c r="P75" t="n">
+        <v>112.9634304897984</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>33.30394590736485</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.998419843665601</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.9769650628009258</v>
+      </c>
+      <c r="V75" t="n">
+        <v>125.5115569454097</v>
+      </c>
+      <c r="W75" t="n">
+        <v>38.85384855913521</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.9906601412693382</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0.9461228443195543</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>156.8919312100932</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>55.49844880514217</v>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-146.3722910073059</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-37.3783081150646</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-22.33707639556297</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-3.618216844333341</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.9819882265433395</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.9662937110811842</v>
+      </c>
+      <c r="P76" t="n">
+        <v>111.1591397939196</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>32.98555499186785</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.9988951723474181</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.9778173949660854</v>
+      </c>
+      <c r="V76" t="n">
+        <v>123.5067895055443</v>
+      </c>
+      <c r="W76" t="n">
+        <v>38.48239249105536</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.9912101541944693</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0.9473599944753024</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>154.3859719102615</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>54.96779727931384</v>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-147.2225536340907</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-37.06281609376785</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-21.82653354781485</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-3.166049785099721</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.002107016857148</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.9668272851838222</v>
+      </c>
+      <c r="P77" t="n">
+        <v>114.5052862016064</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>32.4557716325543</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.9991221894957292</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.005782790931425973</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.9782899541883932</v>
+      </c>
+      <c r="V77" t="n">
+        <v>122.2359536151775</v>
+      </c>
+      <c r="W77" t="n">
+        <v>37.86431190518956</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.9915275544688013</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>-0.0008794700560025219</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0.9481602372563468</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>155.8997802790218</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>54.08482501379127</v>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-150.3146730129884</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-36.70332426099951</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-20.98928146106778</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-2.578715680515786</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.002746035518001</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.9677842704508119</v>
+      </c>
+      <c r="P78" t="n">
+        <v>110.0495057633302</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>31.86860744983412</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.9995333012107418</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.002562972327168169</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.9595978440541044</v>
+      </c>
+      <c r="V78" t="n">
+        <v>124.7565834393602</v>
+      </c>
+      <c r="W78" t="n">
+        <v>37.17928702534935</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.9920480695252241</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>-0.0008449844473805055</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0.9494003463216052</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>155.9482143275313</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>53.10621804259097</v>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.020265680203197</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-153.7476170089573</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-35.68618247952966</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-20.51171157982628</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-83.31859732477528</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-2.163792427613766</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.9833327373295975</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.001644488918015313</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.9682826429984245</v>
+      </c>
+      <c r="P79" t="n">
+        <v>115.5343498802083</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>31.37543126875364</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.9997464061630253</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.9795257564187529</v>
+      </c>
+      <c r="V79" t="n">
+        <v>123.3345227640367</v>
+      </c>
+      <c r="W79" t="n">
+        <v>36.6039148140888</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.9923449734196093</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>-0.0008794700560025219</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0.9501445079059919</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>154.1705890313601</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>52.28425774079017</v>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.9802592209749112</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-156.2653689808639</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-35.43512734019079</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-159.749138017805</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-20.12714927769696</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-1.868221675277193</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.983608390375702</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.005838663171775899</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.9686856932588862</v>
+      </c>
+      <c r="P80" t="n">
+        <v>111.7039202420989</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>30.98736443521405</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.9999193956543282</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.9798849514483321</v>
+      </c>
+      <c r="V80" t="n">
+        <v>126.6321453966372</v>
+      </c>
+      <c r="W80" t="n">
+        <v>36.15117017495927</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.9925840554430487</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>-0.0008794700560025219</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0.9507396669265029</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>158.2926667741276</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>51.63747968489086</v>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-151.5866612283663</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-33.93999750862211</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-19.33313360303305</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-1.149614860667834</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.9842232673713951</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.9696625879637102</v>
+      </c>
+      <c r="P81" t="n">
+        <v>112.6547475134144</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>30.65360019935119</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.000339976912831</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.9806455346688436</v>
+      </c>
+      <c r="V81" t="n">
+        <v>125.1685758605386</v>
+      </c>
+      <c r="W81" t="n">
+        <v>35.76177856645261</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.9930776961837559</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0.9518639855971578</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>156.4632048540044</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>51.08120595845275</v>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-157.8982545202661</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-36.21606056638716</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-20.59739298384739</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-2.281646689920644</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.9832470036326665</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.9681221877338448</v>
+      </c>
+      <c r="P82" t="n">
+        <v>114.4300571520807</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>31.23666472085262</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.9996774293017644</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.9794374754620919</v>
+      </c>
+      <c r="V82" t="n">
+        <v>127.1411421257234</v>
+      </c>
+      <c r="W82" t="n">
+        <v>36.44202050820427</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.9922917054539228</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0.9500605775810388</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>158.9289126854854</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>52.05298016095514</v>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-157.4780184839712</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-37.06690996789217</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9999388243586352</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-21.28219925736943</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-2.852569614161661</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.9827366471679926</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.9673444971677581</v>
+      </c>
+      <c r="P83" t="n">
+        <v>114.3066782599831</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>31.73386000709841</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.999343283970511</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.9787903610199263</v>
+      </c>
+      <c r="V83" t="n">
+        <v>127.0040544678372</v>
+      </c>
+      <c r="W83" t="n">
+        <v>37.02208167549103</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.9918659637974975</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0.9490431596733722</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>158.7575531131276</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>52.88163897136477</v>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-162.9834504330527</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-38.75171898116092</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-21.53838689394058</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.9800482527683149</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-3.130057658180471</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.9825061684663464</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.001644488918015313</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.9669619664247253</v>
+      </c>
+      <c r="P84" t="n">
+        <v>118.1879130109801</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>31.64149063988423</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.9991808780253674</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.9785414652056368</v>
+      </c>
+      <c r="V84" t="n">
+        <v>126.1673140194587</v>
+      </c>
+      <c r="W84" t="n">
+        <v>36.91431741374114</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.9719717488718808</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0.9677857341831232</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>160.9137588635272</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>52.72769002600781</v>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-162.9909932470264</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-38.98108056016962</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.020037575465201</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-21.70977849542828</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-86.71900611003156</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-3.274208903051994</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.9823776669670251</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.001644488918015313</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.966765506052548</v>
+      </c>
+      <c r="P85" t="n">
+        <v>115.8600779809257</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>31.76021263962448</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.9990965103833749</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.978379381820944</v>
+      </c>
+      <c r="V85" t="n">
+        <v>128.7300541577734</v>
+      </c>
+      <c r="W85" t="n">
+        <v>37.05282641343809</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.9916001402734168</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0.9484629429971564</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>160.9150527255478</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>52.92556002557489</v>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9802592209749112</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-166.1111654645428</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-39.9443204077554</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.9800400606354948</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-22.76595819118523</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-4.197915453989305</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.9815585327708509</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.9655014139357033</v>
+      </c>
+      <c r="P86" t="n">
+        <v>116.7327049363072</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>32.98544804468381</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.9985558915147758</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.005782790931425973</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.977378728486388</v>
+      </c>
+      <c r="V86" t="n">
+        <v>129.6996396637528</v>
+      </c>
+      <c r="W86" t="n">
+        <v>36.97329394878511</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.9909435227613109</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0.9469266329218331</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>158.9007096807271</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>53.88438065414268</v>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-171.1472896826055</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-41.90006139428679</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-159.749138017805</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-23.80712635495581</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.9800482527683149</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-5.132236483710864</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.9612082955318274</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.9835960722584989</v>
+      </c>
+      <c r="P87" t="n">
+        <v>118.1445310843972</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>32.79533097928328</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.018069023940352</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.9763939171841379</v>
+      </c>
+      <c r="V87" t="n">
+        <v>131.2683353838528</v>
+      </c>
+      <c r="W87" t="n">
+        <v>38.26046447637335</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.9705893658098135</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0.9644278861671491</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>164.0879042581471</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>54.65075725833955</v>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-175.9571463147912</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-41.85135443219015</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-23.31378133839513</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-4.77545620969749</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.9810349271307452</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.9646860002742528</v>
+      </c>
+      <c r="P88" t="n">
+        <v>119.5025335810937</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>32.19900152830999</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.9982178738973155</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.9768622727744476</v>
+      </c>
+      <c r="V88" t="n">
+        <v>132.777227046849</v>
+      </c>
+      <c r="W88" t="n">
+        <v>37.56474678357119</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.9906029478182368</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0.9461902452885734</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>165.9740188368923</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>53.65687484005074</v>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-178.3817038404347</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-42.10788301969519</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-23.27109157681798</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9999471828247735</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-4.769187800687627</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.9810332232905979</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.9646849178659093</v>
+      </c>
+      <c r="P89" t="n">
+        <v>120.1850863326412</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>32.03812520592717</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.9982215426112284</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.976904779676209</v>
+      </c>
+      <c r="V89" t="n">
+        <v>133.5356189930129</v>
+      </c>
+      <c r="W89" t="n">
+        <v>37.37705774079123</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.9906294874754874</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0.9462693274435311</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>166.9220087695972</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>53.38874763607937</v>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-184.8108620570513</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-43.79735095137154</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9999388243586352</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-23.89870839406018</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.9999471828247739</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-5.376932041312267</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.9804605511648365</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.9638248746475486</v>
+      </c>
+      <c r="P90" t="n">
+        <v>121.987943745993</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>32.11465803449681</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.9978658480873724</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.9763210467693888</v>
+      </c>
+      <c r="V90" t="n">
+        <v>135.538793896737</v>
+      </c>
+      <c r="W90" t="n">
+        <v>37.46634604078914</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.9902393072107081</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0.9453762251261467</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>169.4259773992524</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>53.51630235036209</v>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.020265680203197</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-191.3829577273704</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-45.27956100392221</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-24.3097626677843</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-5.80676244923057</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.980030384754604</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.005609718648146696</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.9631985194874562</v>
+      </c>
+      <c r="P91" t="n">
+        <v>123.8301912158611</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>31.38318242442637</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.9976142813987566</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.005556037259208245</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.9759475996773164</v>
+      </c>
+      <c r="V91" t="n">
+        <v>134.8477819908757</v>
+      </c>
+      <c r="W91" t="n">
+        <v>37.35636378749545</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.9899837616268453</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>-0.0008794700560025219</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0.9447968937142152</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>171.984654440736</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>53.35918484565682</v>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-183.7216510545777</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-43.20617848867587</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-22.91419204305453</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.9800482527683148</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-4.535389769348791</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.9812186736741966</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.005838663171775899</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.9649788505894428</v>
+      </c>
+      <c r="P92" t="n">
+        <v>121.6891849526354</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>31.49591032153701</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.9983583776892843</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.005556037259208245</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.9968920696718447</v>
+      </c>
+      <c r="V92" t="n">
+        <v>135.2068396818953</v>
+      </c>
+      <c r="W92" t="n">
+        <v>36.74447370900271</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.9908513674672493</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0.9468293017980093</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>169.0110346307003</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>53.54000477987017</v>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-174.3412448947733</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-39.79551075108152</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-21.12725969862033</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-3.321146037099135</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.002072488965554</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.9474252373885523</v>
+      </c>
+      <c r="P93" t="n">
+        <v>120.0566043661737</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>30.87715625775774</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.9990690394115626</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.005782790931425973</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.9785252987406274</v>
+      </c>
+      <c r="V93" t="n">
+        <v>133.3928612524934</v>
+      </c>
+      <c r="W93" t="n">
+        <v>36.74664741273501</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.9916956014898003</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>-0.003487353879861263</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0.9488057350125116</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>166.7435615939478</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>51.4537993891303</v>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-174.6031395130618</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-37.66088420611192</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9999388243586352</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-159.749138017805</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-20.82853568535353</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-2.669477258666911</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.982917557858403</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.9675624071936791</v>
+      </c>
+      <c r="P94" t="n">
+        <v>116.7682444632632</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>30.54765041704509</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.9994504428108871</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.002562972327168169</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.9792109827424379</v>
+      </c>
+      <c r="V94" t="n">
+        <v>132.3734236376266</v>
+      </c>
+      <c r="W94" t="n">
+        <v>35.63817048709546</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.9921480046304519</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0.9498606652022732</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>162.1764293348297</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>50.90462298794257</v>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-171.1808003868736</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-36.62214477335095</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-19.77118907861853</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-1.739448972792213</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.9837513663674022</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.9688404557372307</v>
+      </c>
+      <c r="P95" t="n">
+        <v>118.1824566845232</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>29.99129313035759</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.9999947628244348</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.9802100621650685</v>
+      </c>
+      <c r="V95" t="n">
+        <v>131.3104749395484</v>
+      </c>
+      <c r="W95" t="n">
+        <v>34.98908698596006</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.9928053561119551</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0.9513997745235342</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>164.1405787027666</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>49.97736084346341</v>
+      </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-165.9653001096086</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-35.9956905541915</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-19.75866206141484</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-1.668008735028247</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.9838139731054246</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.9689495710069709</v>
+      </c>
+      <c r="P96" t="n">
+        <v>116.7124336242289</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>30.25133392980219</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1.000036574864033</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.9802229308465941</v>
+      </c>
+      <c r="V96" t="n">
+        <v>129.6771159836659</v>
+      </c>
+      <c r="W96" t="n">
+        <v>35.29246791864541</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.9928131441755609</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0.9513759399835159</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>162.0988800079135</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>50.41076217587105</v>
+      </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-174.0267952578516</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-36.67400801869729</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-19.54510192118641</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.9999471828247737</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-1.583098542486647</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.9838872854115153</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.9690450279552014</v>
+      </c>
+      <c r="P97" t="n">
+        <v>118.9855672311862</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>29.68336721195402</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1.000086270509506</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.9804248217195957</v>
+      </c>
+      <c r="V97" t="n">
+        <v>132.2028199913962</v>
+      </c>
+      <c r="W97" t="n">
+        <v>34.62984008115588</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.992945914904972</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0.9517552966748255</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>165.2560100175764</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>49.46415097945744</v>
+      </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-172.3604124339376</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-36.3631506448945</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-159.749138017805</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-20.02837033764689</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-83.31859732477528</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-1.969726526792096</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.9835450103131439</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.9685232872690087</v>
+      </c>
+      <c r="P98" t="n">
+        <v>118.5130205888325</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>30.714078140822</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.9998599876277612</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.002462473555230984</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.9799669701862525</v>
+      </c>
+      <c r="V98" t="n">
+        <v>134.3244887700369</v>
+      </c>
+      <c r="W98" t="n">
+        <v>35.12628337029813</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.9926454663166214</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0.9510282813435446</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>167.9081459398989</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>50.17335567823211</v>
+      </c>
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-175.2564424769867</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-38.5387334852746</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-20.67984194328296</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.9999471828247739</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-83.31859732477528</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-2.209573796425099</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.9833263623068812</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.005838663171775899</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.9876475949047706</v>
+      </c>
+      <c r="P99" t="n">
+        <v>119.326853774864</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>30.12531933127096</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.9997196115845006</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.002462473555230984</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.9797374383299086</v>
+      </c>
+      <c r="V99" t="n">
+        <v>132.5820272621493</v>
+      </c>
+      <c r="W99" t="n">
+        <v>34.44605707801664</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.9924937731874859</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>-0.0008449844473805055</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0.9506881765178985</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>165.7300191060178</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>51.20977170859177</v>
+      </c>
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-182.743678716182</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-39.89708551040796</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9999388243586349</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-21.14203752472855</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.020046101936348</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-3.032719743307604</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.9825656016394243</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.001580005538708813</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.9670333780726562</v>
+      </c>
+      <c r="P100" t="n">
+        <v>123.8677172002986</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>30.32170088389828</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.9992378471609197</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.005556037259208245</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.9789230616309506</v>
+      </c>
+      <c r="V100" t="n">
+        <v>137.6273634152499</v>
+      </c>
+      <c r="W100" t="n">
+        <v>35.37456269842418</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.9919531016963343</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>-0.003350608438437136</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0.9494481981773718</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>168.646939020946</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>50.52804043269789</v>
+      </c>
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-177.022114335885</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-39.97612938073576</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-21.60292761877316</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.9999471828247736</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-83.31859732477528</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-2.991985149012061</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.9826240283948603</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.9671139717286141</v>
+      </c>
+      <c r="P101" t="n">
+        <v>119.8175686097594</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>30.66035396447991</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.9992616879721307</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.005556037259208245</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.9788828714936628</v>
+      </c>
+      <c r="V101" t="n">
+        <v>133.1272659675886</v>
+      </c>
+      <c r="W101" t="n">
+        <v>35.76965795910275</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.9919312009303785</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>-0.0008449844473805055</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>0.949361080960156</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>166.4115674878169</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>52.11941974030748</v>
+      </c>
+      <c r="AD101" t="inlineStr">
         <is>
           <t>attack</t>
         </is>
